--- a/logic&wireframe.xlsx
+++ b/logic&wireframe.xlsx
@@ -8,10 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leget\.vscode\Project1-Game_On!\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B86BC1-1DDF-4B74-A087-37A8BAB730DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8656B2F-1A95-48A6-89F8-16E6FD7CB1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="8" xr2:uid="{F95D7237-5E02-4573-95BB-A7B279EC9F67}"/>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="10" xr2:uid="{E50A2355-E4AA-4DEF-98AA-AC6A4FB464C4}"/>
+    <workbookView xWindow="22932" yWindow="936" windowWidth="11016" windowHeight="18696" firstSheet="7" activeTab="7" xr2:uid="{E50A2355-E4AA-4DEF-98AA-AC6A4FB464C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,14 +20,14 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
-    <sheet name="Scenarios|Decisions" sheetId="9" r:id="rId8"/>
-    <sheet name="Numbers Test" sheetId="10" r:id="rId9"/>
-    <sheet name="Template" sheetId="11" r:id="rId10"/>
-    <sheet name="Possible Outcomes" sheetId="12" r:id="rId11"/>
+    <sheet name="Numbers Test" sheetId="10" r:id="rId8"/>
+    <sheet name="Template" sheetId="11" r:id="rId9"/>
+    <sheet name="Possible Outcomes" sheetId="12" r:id="rId10"/>
+    <sheet name="Scenarios|Decisions" sheetId="9" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Possible Outcomes'!$A$1:$J$42</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Scenarios|Decisions'!$A$1:$I$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Possible Outcomes'!$A$1:$J$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Scenarios|Decisions'!$A$1:$I$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1473,7 +1472,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1626,29 +1625,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1676,13 +1654,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1694,19 +1672,9 @@
     <xf numFmtId="44" fontId="0" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1714,17 +1682,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1751,133 +1710,52 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2562,10 +2440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E190D4-7F50-4E0E-87F1-EEEFEFEECE4B}">
   <dimension ref="B1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -2647,264 +2522,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20D33E56-2853-4F13-BBDD-45B1A76680BC}">
-  <dimension ref="A1:L17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51BE0341-022D-45D3-A21C-8DD04DC4C081}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:J82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="12.6640625" customWidth="1"/>
-    <col min="10" max="10" width="13.21875" style="30" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.77734375" style="30" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" style="30" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C1">
-        <v>0.05</v>
-      </c>
-      <c r="D1">
-        <v>0.1</v>
-      </c>
-      <c r="E1">
-        <v>0.15</v>
-      </c>
-      <c r="F1">
-        <v>0.2</v>
-      </c>
-      <c r="G1">
-        <v>0.25</v>
-      </c>
-      <c r="H1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="59" t="s">
-        <v>273</v>
-      </c>
-      <c r="B2" s="61">
-        <f>J3*K3</f>
-        <v>510000</v>
-      </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="J2" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="K2" s="30" t="s">
-        <v>280</v>
-      </c>
-      <c r="L2" s="30" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="61">
-        <f>SUM(B4:B7)</f>
-        <v>150000</v>
-      </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="J3" s="32">
-        <v>425</v>
-      </c>
-      <c r="K3" s="30">
-        <v>1200</v>
-      </c>
-      <c r="L3" s="30">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B4" s="60">
-        <v>30000</v>
-      </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B5" s="60">
-        <v>20000</v>
-      </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="60">
-        <v>75000</v>
-      </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>272</v>
-      </c>
-      <c r="B7" s="60">
-        <v>25000</v>
-      </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="59" t="s">
-        <v>274</v>
-      </c>
-      <c r="B8" s="61">
-        <f>B2-B3</f>
-        <v>360000</v>
-      </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="59" t="s">
-        <v>275</v>
-      </c>
-      <c r="B9" s="61">
-        <f>SUM(B10:B12)</f>
-        <v>300000</v>
-      </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>276</v>
-      </c>
-      <c r="B10" s="60">
-        <v>150000</v>
-      </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60">
-        <f>(B10*D1)+B10</f>
-        <v>165000</v>
-      </c>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>277</v>
-      </c>
-      <c r="B11" s="60">
-        <v>50000</v>
-      </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>278</v>
-      </c>
-      <c r="B12" s="60">
-        <v>100000</v>
-      </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="59" t="s">
-        <v>279</v>
-      </c>
-      <c r="B13" s="61">
-        <f>B8-B9</f>
-        <v>60000</v>
-      </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="59" t="s">
-        <v>283</v>
-      </c>
-      <c r="B16">
-        <f>(B13/B2)*100</f>
-        <v>11.76470588235294</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>282</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51BE0341-022D-45D3-A21C-8DD04DC4C081}">
-  <dimension ref="A1:J82"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="1">
-      <selection activeCell="M72" sqref="M72"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5608,14 +5233,638 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F795A1BF-E94F-412D-BBCC-0F81FBDBA90C}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:I28"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="31.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="19.88671875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="27.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.44140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="62" customWidth="1"/>
+    <col min="9" max="16384" width="31.5546875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H1" s="62" t="s">
+        <v>287</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="99">
+        <v>1</v>
+      </c>
+      <c r="B2" s="109" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50" t="s">
+        <v>226</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>284</v>
+      </c>
+      <c r="H2" s="90">
+        <v>0.15</v>
+      </c>
+      <c r="I2" s="57">
+        <v>7.3529411764705888</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="99"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>285</v>
+      </c>
+      <c r="H3" s="91">
+        <v>0.25</v>
+      </c>
+      <c r="I3" s="52">
+        <v>6.8627450980392162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="99"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="86" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4" s="86" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4" s="86" t="s">
+        <v>221</v>
+      </c>
+      <c r="F4" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="G4" s="86" t="s">
+        <v>289</v>
+      </c>
+      <c r="H4" s="87" t="s">
+        <v>290</v>
+      </c>
+      <c r="I4" s="58">
+        <v>12.254901960784313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="99">
+        <v>2</v>
+      </c>
+      <c r="B5" s="106" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="H5" s="92">
+        <v>0.2</v>
+      </c>
+      <c r="I5" s="46">
+        <v>10.588235294117647</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="99"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="43" t="s">
+        <v>232</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>192</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>301</v>
+      </c>
+      <c r="H6" s="89">
+        <v>0.1</v>
+      </c>
+      <c r="I6" s="47">
+        <v>12.254901960784313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="99"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>302</v>
+      </c>
+      <c r="H7" s="93">
+        <v>0.1</v>
+      </c>
+      <c r="I7" s="49">
+        <v>12.156862745098039</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="99">
+        <v>3</v>
+      </c>
+      <c r="B8" s="109" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="95" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" s="95" t="s">
+        <v>193</v>
+      </c>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95" t="s">
+        <v>230</v>
+      </c>
+      <c r="G8" s="95" t="s">
+        <v>312</v>
+      </c>
+      <c r="H8" s="96" t="s">
+        <v>313</v>
+      </c>
+      <c r="I8" s="51">
+        <v>12.941176470588237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="99"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="H9" s="91" t="s">
+        <v>318</v>
+      </c>
+      <c r="I9" s="52">
+        <v>10.196078431372548</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="99"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="53" t="s">
+        <v>234</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>236</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="G10" s="53" t="s">
+        <v>316</v>
+      </c>
+      <c r="H10" s="97" t="s">
+        <v>317</v>
+      </c>
+      <c r="I10" s="54">
+        <v>9.0196078431372548</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="99">
+        <v>4</v>
+      </c>
+      <c r="B11" s="106" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" s="95" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="95" t="s">
+        <v>199</v>
+      </c>
+      <c r="E11" s="95" t="s">
+        <v>320</v>
+      </c>
+      <c r="F11" s="95" t="s">
+        <v>242</v>
+      </c>
+      <c r="G11" s="95" t="s">
+        <v>319</v>
+      </c>
+      <c r="H11" s="96">
+        <v>0</v>
+      </c>
+      <c r="I11" s="51">
+        <v>11.76470588235294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="99"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>321</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="G12" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="H12" s="98">
+        <v>0.05</v>
+      </c>
+      <c r="I12" s="56">
+        <v>11.029411764705882</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="99"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>240</v>
+      </c>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="G13" s="48" t="s">
+        <v>323</v>
+      </c>
+      <c r="H13" s="93" t="s">
+        <v>315</v>
+      </c>
+      <c r="I13" s="49">
+        <v>10.294117647058822</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="99">
+        <v>5</v>
+      </c>
+      <c r="B14" s="105" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>201</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>202</v>
+      </c>
+      <c r="E14" s="55"/>
+      <c r="F14" s="88" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="99"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="F15" s="52" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="99"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>210</v>
+      </c>
+      <c r="F16" s="54" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="99">
+        <v>6</v>
+      </c>
+      <c r="B17" s="100" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="F17" s="46" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="99"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="D18" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="E18" s="48"/>
+      <c r="F18" s="49" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="99">
+        <v>7</v>
+      </c>
+      <c r="B19" s="102" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="E19" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="F19" s="57" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="99"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>253</v>
+      </c>
+      <c r="E20" s="42"/>
+      <c r="F20" s="63" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="99">
+        <v>8</v>
+      </c>
+      <c r="B21" s="100" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="99"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="56" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="99"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="49" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="99">
+        <v>9</v>
+      </c>
+      <c r="B24" s="102" t="s">
+        <v>180</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>217</v>
+      </c>
+      <c r="E24" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="F24" s="57" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="99"/>
+      <c r="B25" s="105"/>
+      <c r="C25" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="E25" s="41"/>
+      <c r="F25" s="52" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="99"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="53" t="s">
+        <v>261</v>
+      </c>
+      <c r="D26" s="53" t="s">
+        <v>263</v>
+      </c>
+      <c r="E26" s="53"/>
+      <c r="F26" s="54" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="99">
+        <v>10</v>
+      </c>
+      <c r="B27" s="100" t="s">
+        <v>267</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="D27" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="E27" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="F27" s="46" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="99"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="E28" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="F28" s="49" t="s">
+        <v>270</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I28" xr:uid="{F795A1BF-E94F-412D-BBCC-0F81FBDBA90C}"/>
+  <mergeCells count="20">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B99DEF2-F766-41E3-AC30-6A3E1B4AA028}">
   <dimension ref="B3"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -5633,10 +5882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC0E6BD-C970-41BE-BC17-722E33183DCB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -5649,10 +5895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{035FAF4C-BC60-4A77-8193-0D142B44580F}">
   <dimension ref="A3:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5850,10 +6093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F362888-83AA-4C50-B1DA-673D50D1E563}">
   <dimension ref="A2:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6463,10 +6703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F3280C-3F28-43B3-9A31-5282F32E3889}">
   <dimension ref="B16:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6671,10 +6908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F92265-B1A9-4A6B-9451-B2FD069BB4E5}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="1">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -6886,644 +7120,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F795A1BF-E94F-412D-BBCC-0F81FBDBA90C}">
-  <dimension ref="A1:I28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27:B28"/>
-    </sheetView>
-    <sheetView zoomScaleNormal="100" workbookViewId="1">
-      <selection activeCell="J12" sqref="J12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="31.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="19.88671875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="27.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.44140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" style="68" customWidth="1"/>
-    <col min="9" max="16384" width="31.5546875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="H1" s="68" t="s">
-        <v>287</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="69">
-        <v>1</v>
-      </c>
-      <c r="B2" s="95" t="s">
-        <v>172</v>
-      </c>
-      <c r="C2" s="50" t="s">
-        <v>181</v>
-      </c>
-      <c r="D2" s="50" t="s">
-        <v>184</v>
-      </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50" t="s">
-        <v>226</v>
-      </c>
-      <c r="G2" s="50" t="s">
-        <v>284</v>
-      </c>
-      <c r="H2" s="104">
-        <v>0.15</v>
-      </c>
-      <c r="I2" s="57">
-        <v>7.3529411764705888</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="69"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="41" t="s">
-        <v>185</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>187</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>227</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>285</v>
-      </c>
-      <c r="H3" s="105">
-        <v>0.25</v>
-      </c>
-      <c r="I3" s="52">
-        <v>6.8627450980392162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="69"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="94" t="s">
-        <v>219</v>
-      </c>
-      <c r="D4" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="E4" s="94" t="s">
-        <v>221</v>
-      </c>
-      <c r="F4" s="94" t="s">
-        <v>228</v>
-      </c>
-      <c r="G4" s="94" t="s">
-        <v>289</v>
-      </c>
-      <c r="H4" s="98" t="s">
-        <v>290</v>
-      </c>
-      <c r="I4" s="58">
-        <v>12.254901960784313</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="69">
-        <v>2</v>
-      </c>
-      <c r="B5" s="100" t="s">
-        <v>173</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="F5" s="45" t="s">
-        <v>229</v>
-      </c>
-      <c r="G5" s="45" t="s">
-        <v>303</v>
-      </c>
-      <c r="H5" s="106">
-        <v>0.2</v>
-      </c>
-      <c r="I5" s="46">
-        <v>10.588235294117647</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="69"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="43" t="s">
-        <v>232</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>192</v>
-      </c>
-      <c r="F6" s="43" t="s">
-        <v>231</v>
-      </c>
-      <c r="G6" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="H6" s="102">
-        <v>0.1</v>
-      </c>
-      <c r="I6" s="47">
-        <v>12.254901960784313</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="69"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>193</v>
-      </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48" t="s">
-        <v>230</v>
-      </c>
-      <c r="G7" s="48" t="s">
-        <v>302</v>
-      </c>
-      <c r="H7" s="107">
-        <v>0.1</v>
-      </c>
-      <c r="I7" s="49">
-        <v>12.156862745098039</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="69">
-        <v>3</v>
-      </c>
-      <c r="B8" s="95" t="s">
-        <v>174</v>
-      </c>
-      <c r="C8" s="109" t="s">
-        <v>195</v>
-      </c>
-      <c r="D8" s="109" t="s">
-        <v>193</v>
-      </c>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109" t="s">
-        <v>230</v>
-      </c>
-      <c r="G8" s="109" t="s">
-        <v>312</v>
-      </c>
-      <c r="H8" s="110" t="s">
-        <v>313</v>
-      </c>
-      <c r="I8" s="51">
-        <v>12.941176470588237</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="69"/>
-      <c r="B9" s="96"/>
-      <c r="C9" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41" t="s">
-        <v>233</v>
-      </c>
-      <c r="G9" s="41" t="s">
-        <v>314</v>
-      </c>
-      <c r="H9" s="105" t="s">
-        <v>318</v>
-      </c>
-      <c r="I9" s="52">
-        <v>10.196078431372548</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="69"/>
-      <c r="B10" s="97"/>
-      <c r="C10" s="53" t="s">
-        <v>234</v>
-      </c>
-      <c r="D10" s="53" t="s">
-        <v>235</v>
-      </c>
-      <c r="E10" s="53" t="s">
-        <v>236</v>
-      </c>
-      <c r="F10" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="G10" s="53" t="s">
-        <v>316</v>
-      </c>
-      <c r="H10" s="111" t="s">
-        <v>317</v>
-      </c>
-      <c r="I10" s="54">
-        <v>9.0196078431372548</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="69">
-        <v>4</v>
-      </c>
-      <c r="B11" s="100" t="s">
-        <v>175</v>
-      </c>
-      <c r="C11" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="D11" s="109" t="s">
-        <v>199</v>
-      </c>
-      <c r="E11" s="109" t="s">
-        <v>320</v>
-      </c>
-      <c r="F11" s="109" t="s">
-        <v>242</v>
-      </c>
-      <c r="G11" s="109" t="s">
-        <v>319</v>
-      </c>
-      <c r="H11" s="110">
-        <v>0</v>
-      </c>
-      <c r="I11" s="51">
-        <v>11.76470588235294</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="69"/>
-      <c r="B12" s="101"/>
-      <c r="C12" s="44" t="s">
-        <v>238</v>
-      </c>
-      <c r="D12" s="44" t="s">
-        <v>200</v>
-      </c>
-      <c r="E12" s="44" t="s">
-        <v>321</v>
-      </c>
-      <c r="F12" s="44" t="s">
-        <v>251</v>
-      </c>
-      <c r="G12" s="44" t="s">
-        <v>322</v>
-      </c>
-      <c r="H12" s="112">
-        <v>0.05</v>
-      </c>
-      <c r="I12" s="56">
-        <v>11.029411764705882</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="69"/>
-      <c r="B13" s="103"/>
-      <c r="C13" s="48" t="s">
-        <v>239</v>
-      </c>
-      <c r="D13" s="48" t="s">
-        <v>240</v>
-      </c>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48" t="s">
-        <v>241</v>
-      </c>
-      <c r="G13" s="48" t="s">
-        <v>323</v>
-      </c>
-      <c r="H13" s="107" t="s">
-        <v>315</v>
-      </c>
-      <c r="I13" s="49">
-        <v>10.294117647058822</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="69">
-        <v>5</v>
-      </c>
-      <c r="B14" s="63" t="s">
-        <v>176</v>
-      </c>
-      <c r="C14" s="55" t="s">
-        <v>201</v>
-      </c>
-      <c r="D14" s="55" t="s">
-        <v>202</v>
-      </c>
-      <c r="E14" s="55"/>
-      <c r="F14" s="99" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="69"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="E15" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="F15" s="52" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="69"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="53" t="s">
-        <v>209</v>
-      </c>
-      <c r="D16" s="53" t="s">
-        <v>245</v>
-      </c>
-      <c r="E16" s="53" t="s">
-        <v>210</v>
-      </c>
-      <c r="F16" s="54" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="69">
-        <v>6</v>
-      </c>
-      <c r="B17" s="65" t="s">
-        <v>177</v>
-      </c>
-      <c r="C17" s="45" t="s">
-        <v>206</v>
-      </c>
-      <c r="D17" s="45" t="s">
-        <v>207</v>
-      </c>
-      <c r="E17" s="45" t="s">
-        <v>208</v>
-      </c>
-      <c r="F17" s="46" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="87" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="69"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="D18" s="48" t="s">
-        <v>248</v>
-      </c>
-      <c r="E18" s="48"/>
-      <c r="F18" s="49" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="69">
-        <v>7</v>
-      </c>
-      <c r="B19" s="62" t="s">
-        <v>178</v>
-      </c>
-      <c r="C19" s="50" t="s">
-        <v>211</v>
-      </c>
-      <c r="D19" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="E19" s="50" t="s">
-        <v>213</v>
-      </c>
-      <c r="F19" s="57" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="69"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>253</v>
-      </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="70" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="69">
-        <v>8</v>
-      </c>
-      <c r="B21" s="65" t="s">
-        <v>179</v>
-      </c>
-      <c r="C21" s="45" t="s">
-        <v>214</v>
-      </c>
-      <c r="D21" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="E21" s="45" t="s">
-        <v>213</v>
-      </c>
-      <c r="F21" s="46" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="69"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="44" t="s">
-        <v>256</v>
-      </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="56" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="69"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="49" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="69">
-        <v>9</v>
-      </c>
-      <c r="B24" s="62" t="s">
-        <v>180</v>
-      </c>
-      <c r="C24" s="50" t="s">
-        <v>216</v>
-      </c>
-      <c r="D24" s="50" t="s">
-        <v>217</v>
-      </c>
-      <c r="E24" s="50" t="s">
-        <v>218</v>
-      </c>
-      <c r="F24" s="57" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="69"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="41" t="s">
-        <v>260</v>
-      </c>
-      <c r="D25" s="41" t="s">
-        <v>262</v>
-      </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="52" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="69"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="53" t="s">
-        <v>261</v>
-      </c>
-      <c r="D26" s="53" t="s">
-        <v>263</v>
-      </c>
-      <c r="E26" s="53"/>
-      <c r="F26" s="54" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="69">
-        <v>10</v>
-      </c>
-      <c r="B27" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="C27" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="D27" s="45" t="s">
-        <v>223</v>
-      </c>
-      <c r="E27" s="45" t="s">
-        <v>224</v>
-      </c>
-      <c r="F27" s="46" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="69"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="48" t="s">
-        <v>269</v>
-      </c>
-      <c r="D28" s="48" t="s">
-        <v>223</v>
-      </c>
-      <c r="E28" s="48" t="s">
-        <v>268</v>
-      </c>
-      <c r="F28" s="49" t="s">
-        <v>270</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:I28" xr:uid="{F795A1BF-E94F-412D-BBCC-0F81FBDBA90C}"/>
-  <mergeCells count="20">
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF1E804-CCC9-4E83-A7C2-B89895379936}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="14" topLeftCell="G35" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7541,81 +7141,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="65" t="s">
         <v>280</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="66" t="s">
         <v>281</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="70" t="s">
         <v>294</v>
       </c>
-      <c r="E1" s="78" t="s">
+      <c r="E1" s="71" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="74">
+      <c r="A2" s="67">
         <v>425</v>
       </c>
-      <c r="B2" s="75">
+      <c r="B2" s="68">
         <v>1200</v>
       </c>
-      <c r="C2" s="76">
+      <c r="C2" s="69">
         <v>1200</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:17" s="79" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="B4" s="79" t="s">
+    <row r="4" spans="1:17" s="72" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B4" s="72" t="s">
         <v>296</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="73" t="s">
         <v>291</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="74" t="s">
         <v>292</v>
       </c>
-      <c r="E4" s="82" t="s">
+      <c r="E4" s="75" t="s">
         <v>293</v>
       </c>
-      <c r="F4" s="80" t="s">
+      <c r="F4" s="73" t="s">
         <v>297</v>
       </c>
-      <c r="G4" s="81" t="s">
+      <c r="G4" s="74" t="s">
         <v>298</v>
       </c>
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="75" t="s">
         <v>300</v>
       </c>
-      <c r="I4" s="80" t="s">
+      <c r="I4" s="73" t="s">
         <v>304</v>
       </c>
-      <c r="J4" s="81" t="s">
+      <c r="J4" s="74" t="s">
         <v>305</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="75" t="s">
         <v>299</v>
       </c>
-      <c r="L4" s="80" t="s">
+      <c r="L4" s="73" t="s">
         <v>306</v>
       </c>
-      <c r="M4" s="81" t="s">
+      <c r="M4" s="74" t="s">
         <v>307</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="75" t="s">
         <v>308</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="73" t="s">
         <v>309</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="74" t="s">
         <v>310</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="75" t="s">
         <v>311</v>
       </c>
     </row>
@@ -7624,67 +7224,67 @@
         <v>273</v>
       </c>
       <c r="B5" s="61">
-        <f>$A2*$B2</f>
+        <f t="shared" ref="B5:H5" si="0">$A2*$B2</f>
         <v>510000</v>
       </c>
-      <c r="C5" s="83">
-        <f>$A2*$B2</f>
-        <v>510000</v>
-      </c>
-      <c r="D5" s="84">
-        <f>$A2*$B2</f>
-        <v>510000</v>
-      </c>
-      <c r="E5" s="85">
-        <f>$A2*$B2</f>
-        <v>510000</v>
-      </c>
-      <c r="F5" s="83">
-        <f>$A2*$B2</f>
-        <v>510000</v>
-      </c>
-      <c r="G5" s="84">
-        <f>$A2*$B2</f>
-        <v>510000</v>
-      </c>
-      <c r="H5" s="85">
-        <f>$A2*$B2</f>
-        <v>510000</v>
-      </c>
-      <c r="I5" s="83">
-        <f t="shared" ref="I5:K5" si="0">$A2*$B2</f>
-        <v>510000</v>
-      </c>
-      <c r="J5" s="84">
+      <c r="C5" s="76">
         <f t="shared" si="0"/>
         <v>510000</v>
       </c>
-      <c r="K5" s="85">
+      <c r="D5" s="77">
         <f t="shared" si="0"/>
         <v>510000</v>
       </c>
-      <c r="L5" s="83">
-        <f t="shared" ref="L5:N5" si="1">$A2*$B2</f>
+      <c r="E5" s="78">
+        <f t="shared" si="0"/>
         <v>510000</v>
       </c>
-      <c r="M5" s="84">
+      <c r="F5" s="76">
+        <f t="shared" si="0"/>
+        <v>510000</v>
+      </c>
+      <c r="G5" s="77">
+        <f t="shared" si="0"/>
+        <v>510000</v>
+      </c>
+      <c r="H5" s="78">
+        <f t="shared" si="0"/>
+        <v>510000</v>
+      </c>
+      <c r="I5" s="76">
+        <f t="shared" ref="I5:K5" si="1">$A2*$B2</f>
+        <v>510000</v>
+      </c>
+      <c r="J5" s="77">
         <f t="shared" si="1"/>
         <v>510000</v>
       </c>
-      <c r="N5" s="85">
+      <c r="K5" s="78">
         <f t="shared" si="1"/>
         <v>510000</v>
       </c>
-      <c r="O5" s="83">
-        <f t="shared" ref="O5:Q5" si="2">$A2*$B2</f>
+      <c r="L5" s="76">
+        <f t="shared" ref="L5:N5" si="2">$A2*$B2</f>
         <v>510000</v>
       </c>
-      <c r="P5" s="84">
+      <c r="M5" s="77">
         <f t="shared" si="2"/>
         <v>510000</v>
       </c>
-      <c r="Q5" s="85">
+      <c r="N5" s="78">
         <f t="shared" si="2"/>
+        <v>510000</v>
+      </c>
+      <c r="O5" s="76">
+        <f t="shared" ref="O5:Q5" si="3">$A2*$B2</f>
+        <v>510000</v>
+      </c>
+      <c r="P5" s="77">
+        <f t="shared" si="3"/>
+        <v>510000</v>
+      </c>
+      <c r="Q5" s="78">
+        <f t="shared" si="3"/>
         <v>510000</v>
       </c>
     </row>
@@ -7693,67 +7293,67 @@
         <v>16</v>
       </c>
       <c r="B6" s="61">
-        <f>SUM(B7:B10)</f>
+        <f t="shared" ref="B6:H6" si="4">SUM(B7:B10)</f>
         <v>150000</v>
       </c>
-      <c r="C6" s="83">
-        <f>SUM(C7:C10)</f>
+      <c r="C6" s="76">
+        <f t="shared" si="4"/>
         <v>150000</v>
       </c>
-      <c r="D6" s="84">
-        <f>SUM(D7:D10)</f>
+      <c r="D6" s="77">
+        <f t="shared" si="4"/>
         <v>150000</v>
       </c>
-      <c r="E6" s="85">
-        <f>SUM(E7:E10)</f>
+      <c r="E6" s="78">
+        <f t="shared" si="4"/>
         <v>162500</v>
       </c>
-      <c r="F6" s="83">
-        <f>SUM(F7:F10)</f>
+      <c r="F6" s="76">
+        <f t="shared" si="4"/>
         <v>156000</v>
       </c>
-      <c r="G6" s="84">
-        <f>SUM(G7:G10)</f>
+      <c r="G6" s="77">
+        <f t="shared" si="4"/>
         <v>147500</v>
       </c>
-      <c r="H6" s="85">
-        <f>SUM(H7:H10)</f>
+      <c r="H6" s="78">
+        <f t="shared" si="4"/>
         <v>148000</v>
       </c>
-      <c r="I6" s="83">
-        <f t="shared" ref="I6:K6" si="3">SUM(I7:I10)</f>
+      <c r="I6" s="76">
+        <f t="shared" ref="I6:K6" si="5">SUM(I7:I10)</f>
         <v>144000</v>
       </c>
-      <c r="J6" s="84">
-        <f t="shared" si="3"/>
+      <c r="J6" s="77">
+        <f t="shared" si="5"/>
         <v>148000</v>
       </c>
-      <c r="K6" s="85">
-        <f t="shared" si="3"/>
+      <c r="K6" s="78">
+        <f t="shared" si="5"/>
         <v>149000</v>
       </c>
-      <c r="L6" s="83">
-        <f t="shared" ref="L6" si="4">SUM(L7:L10)</f>
+      <c r="L6" s="76">
+        <f t="shared" ref="L6" si="6">SUM(L7:L10)</f>
         <v>150000</v>
       </c>
-      <c r="M6" s="84">
-        <f t="shared" ref="M6" si="5">SUM(M7:M10)</f>
+      <c r="M6" s="77">
+        <f t="shared" ref="M6" si="7">SUM(M7:M10)</f>
         <v>153750</v>
       </c>
-      <c r="N6" s="85">
-        <f t="shared" ref="N6" si="6">SUM(N7:N10)</f>
+      <c r="N6" s="78">
+        <f t="shared" ref="N6" si="8">SUM(N7:N10)</f>
         <v>142500</v>
       </c>
-      <c r="O6" s="83">
-        <f t="shared" ref="O6" si="7">SUM(O7:O10)</f>
+      <c r="O6" s="76">
+        <f t="shared" ref="O6" si="9">SUM(O7:O10)</f>
         <v>150000</v>
       </c>
-      <c r="P6" s="84">
-        <f t="shared" ref="P6" si="8">SUM(P7:P10)</f>
+      <c r="P6" s="77">
+        <f t="shared" ref="P6" si="10">SUM(P7:P10)</f>
         <v>150000</v>
       </c>
-      <c r="Q6" s="85">
-        <f t="shared" ref="Q6" si="9">SUM(Q7:Q10)</f>
+      <c r="Q6" s="78">
+        <f t="shared" ref="Q6" si="11">SUM(Q7:Q10)</f>
         <v>150000</v>
       </c>
     </row>
@@ -7764,49 +7364,49 @@
       <c r="B7" s="60">
         <v>30000</v>
       </c>
-      <c r="C7" s="86">
+      <c r="C7" s="79">
         <v>30000</v>
       </c>
       <c r="D7" s="24">
         <v>30000</v>
       </c>
-      <c r="E7" s="87">
+      <c r="E7" s="80">
         <v>30000</v>
       </c>
-      <c r="F7" s="89">
+      <c r="F7" s="82">
         <v>36000</v>
       </c>
       <c r="G7" s="24">
         <v>30000</v>
       </c>
-      <c r="H7" s="87">
+      <c r="H7" s="80">
         <v>30000</v>
       </c>
-      <c r="I7" s="89">
+      <c r="I7" s="82">
         <v>39000</v>
       </c>
       <c r="J7" s="24">
         <v>30000</v>
       </c>
-      <c r="K7" s="87">
+      <c r="K7" s="80">
         <v>30000</v>
       </c>
-      <c r="L7" s="86">
+      <c r="L7" s="79">
         <v>30000</v>
       </c>
       <c r="M7" s="24">
         <v>30000</v>
       </c>
-      <c r="N7" s="87">
+      <c r="N7" s="80">
         <v>30000</v>
       </c>
-      <c r="O7" s="86">
+      <c r="O7" s="79">
         <v>30000</v>
       </c>
       <c r="P7" s="24">
         <v>30000</v>
       </c>
-      <c r="Q7" s="87">
+      <c r="Q7" s="80">
         <v>30000</v>
       </c>
     </row>
@@ -7817,49 +7417,49 @@
       <c r="B8" s="60">
         <v>20000</v>
       </c>
-      <c r="C8" s="86">
+      <c r="C8" s="79">
         <v>20000</v>
       </c>
       <c r="D8" s="24">
         <v>20000</v>
       </c>
-      <c r="E8" s="87">
+      <c r="E8" s="80">
         <v>20000</v>
       </c>
-      <c r="F8" s="86">
+      <c r="F8" s="79">
         <v>20000</v>
       </c>
       <c r="G8" s="24">
         <v>20000</v>
       </c>
-      <c r="H8" s="90">
+      <c r="H8" s="83">
         <v>18000</v>
       </c>
-      <c r="I8" s="108">
+      <c r="I8" s="94">
         <v>5000</v>
       </c>
-      <c r="J8" s="93">
+      <c r="J8" s="85">
         <v>18000</v>
       </c>
-      <c r="K8" s="90">
+      <c r="K8" s="83">
         <v>19000</v>
       </c>
-      <c r="L8" s="86">
+      <c r="L8" s="79">
         <v>20000</v>
       </c>
       <c r="M8" s="24">
         <v>20000</v>
       </c>
-      <c r="N8" s="87">
+      <c r="N8" s="80">
         <v>20000</v>
       </c>
-      <c r="O8" s="86">
+      <c r="O8" s="79">
         <v>20000</v>
       </c>
       <c r="P8" s="24">
         <v>20000</v>
       </c>
-      <c r="Q8" s="87">
+      <c r="Q8" s="80">
         <v>20000</v>
       </c>
     </row>
@@ -7870,49 +7470,49 @@
       <c r="B9" s="60">
         <v>75000</v>
       </c>
-      <c r="C9" s="86">
+      <c r="C9" s="79">
         <v>75000</v>
       </c>
       <c r="D9" s="24">
         <v>75000</v>
       </c>
-      <c r="E9" s="87">
+      <c r="E9" s="80">
         <v>75000</v>
       </c>
-      <c r="F9" s="86">
+      <c r="F9" s="79">
         <v>75000</v>
       </c>
       <c r="G9" s="24">
         <v>75000</v>
       </c>
-      <c r="H9" s="87">
+      <c r="H9" s="80">
         <v>75000</v>
       </c>
-      <c r="I9" s="86">
+      <c r="I9" s="79">
         <v>75000</v>
       </c>
       <c r="J9" s="24">
         <v>75000</v>
       </c>
-      <c r="K9" s="87">
+      <c r="K9" s="80">
         <v>75000</v>
       </c>
-      <c r="L9" s="86">
+      <c r="L9" s="79">
         <v>75000</v>
       </c>
-      <c r="M9" s="91">
+      <c r="M9" s="84">
         <v>78750</v>
       </c>
-      <c r="N9" s="90">
+      <c r="N9" s="83">
         <v>67500</v>
       </c>
-      <c r="O9" s="86">
+      <c r="O9" s="79">
         <v>75000</v>
       </c>
       <c r="P9" s="24">
         <v>75000</v>
       </c>
-      <c r="Q9" s="87">
+      <c r="Q9" s="80">
         <v>75000</v>
       </c>
     </row>
@@ -7923,49 +7523,49 @@
       <c r="B10" s="60">
         <v>25000</v>
       </c>
-      <c r="C10" s="86">
+      <c r="C10" s="79">
         <v>25000</v>
       </c>
       <c r="D10" s="24">
         <v>25000</v>
       </c>
-      <c r="E10" s="88">
+      <c r="E10" s="81">
         <v>37500</v>
       </c>
-      <c r="F10" s="86">
+      <c r="F10" s="79">
         <v>25000</v>
       </c>
-      <c r="G10" s="93">
+      <c r="G10" s="85">
         <v>22500</v>
       </c>
-      <c r="H10" s="87">
+      <c r="H10" s="80">
         <v>25000</v>
       </c>
-      <c r="I10" s="86">
+      <c r="I10" s="79">
         <v>25000</v>
       </c>
       <c r="J10" s="24">
         <v>25000</v>
       </c>
-      <c r="K10" s="87">
+      <c r="K10" s="80">
         <v>25000</v>
       </c>
-      <c r="L10" s="86">
+      <c r="L10" s="79">
         <v>25000</v>
       </c>
       <c r="M10" s="24">
         <v>25000</v>
       </c>
-      <c r="N10" s="87">
+      <c r="N10" s="80">
         <v>25000</v>
       </c>
-      <c r="O10" s="86">
+      <c r="O10" s="79">
         <v>25000</v>
       </c>
       <c r="P10" s="24">
         <v>25000</v>
       </c>
-      <c r="Q10" s="87">
+      <c r="Q10" s="80">
         <v>25000</v>
       </c>
     </row>
@@ -7974,67 +7574,67 @@
         <v>274</v>
       </c>
       <c r="B11" s="61">
-        <f>B5-B6</f>
+        <f t="shared" ref="B11:H11" si="12">B5-B6</f>
         <v>360000</v>
       </c>
-      <c r="C11" s="83">
-        <f>C5-C6</f>
-        <v>360000</v>
-      </c>
-      <c r="D11" s="84">
-        <f>D5-D6</f>
-        <v>360000</v>
-      </c>
-      <c r="E11" s="85">
-        <f>E5-E6</f>
-        <v>347500</v>
-      </c>
-      <c r="F11" s="83">
-        <f>F5-F6</f>
-        <v>354000</v>
-      </c>
-      <c r="G11" s="84">
-        <f>G5-G6</f>
-        <v>362500</v>
-      </c>
-      <c r="H11" s="85">
-        <f>H5-H6</f>
-        <v>362000</v>
-      </c>
-      <c r="I11" s="83">
-        <f t="shared" ref="I11:K11" si="10">I5-I6</f>
-        <v>366000</v>
-      </c>
-      <c r="J11" s="84">
-        <f t="shared" si="10"/>
-        <v>362000</v>
-      </c>
-      <c r="K11" s="85">
-        <f t="shared" si="10"/>
-        <v>361000</v>
-      </c>
-      <c r="L11" s="83">
-        <f t="shared" ref="L11:N11" si="11">L5-L6</f>
-        <v>360000</v>
-      </c>
-      <c r="M11" s="84">
-        <f t="shared" si="11"/>
-        <v>356250</v>
-      </c>
-      <c r="N11" s="85">
-        <f t="shared" si="11"/>
-        <v>367500</v>
-      </c>
-      <c r="O11" s="83">
-        <f t="shared" ref="O11:Q11" si="12">O5-O6</f>
-        <v>360000</v>
-      </c>
-      <c r="P11" s="84">
+      <c r="C11" s="76">
         <f t="shared" si="12"/>
         <v>360000</v>
       </c>
-      <c r="Q11" s="85">
+      <c r="D11" s="77">
         <f t="shared" si="12"/>
+        <v>360000</v>
+      </c>
+      <c r="E11" s="78">
+        <f t="shared" si="12"/>
+        <v>347500</v>
+      </c>
+      <c r="F11" s="76">
+        <f t="shared" si="12"/>
+        <v>354000</v>
+      </c>
+      <c r="G11" s="77">
+        <f t="shared" si="12"/>
+        <v>362500</v>
+      </c>
+      <c r="H11" s="78">
+        <f t="shared" si="12"/>
+        <v>362000</v>
+      </c>
+      <c r="I11" s="76">
+        <f t="shared" ref="I11:K11" si="13">I5-I6</f>
+        <v>366000</v>
+      </c>
+      <c r="J11" s="77">
+        <f t="shared" si="13"/>
+        <v>362000</v>
+      </c>
+      <c r="K11" s="78">
+        <f t="shared" si="13"/>
+        <v>361000</v>
+      </c>
+      <c r="L11" s="76">
+        <f t="shared" ref="L11:N11" si="14">L5-L6</f>
+        <v>360000</v>
+      </c>
+      <c r="M11" s="77">
+        <f t="shared" si="14"/>
+        <v>356250</v>
+      </c>
+      <c r="N11" s="78">
+        <f t="shared" si="14"/>
+        <v>367500</v>
+      </c>
+      <c r="O11" s="76">
+        <f t="shared" ref="O11:Q11" si="15">O5-O6</f>
+        <v>360000</v>
+      </c>
+      <c r="P11" s="77">
+        <f t="shared" si="15"/>
+        <v>360000</v>
+      </c>
+      <c r="Q11" s="78">
+        <f t="shared" si="15"/>
         <v>360000</v>
       </c>
     </row>
@@ -8043,67 +7643,67 @@
         <v>275</v>
       </c>
       <c r="B12" s="61">
-        <f>SUM(B13:B15)</f>
+        <f t="shared" ref="B12:H12" si="16">SUM(B13:B15)</f>
         <v>300000</v>
       </c>
-      <c r="C12" s="83">
-        <f>SUM(C13:C15)</f>
+      <c r="C12" s="76">
+        <f t="shared" si="16"/>
         <v>322500</v>
       </c>
-      <c r="D12" s="84">
-        <f>SUM(D13:D15)</f>
+      <c r="D12" s="77">
+        <f t="shared" si="16"/>
         <v>325000</v>
       </c>
-      <c r="E12" s="85">
-        <f>SUM(E13:E15)</f>
+      <c r="E12" s="78">
+        <f t="shared" si="16"/>
         <v>285000</v>
       </c>
-      <c r="F12" s="83">
-        <f>SUM(F13:F15)</f>
+      <c r="F12" s="76">
+        <f t="shared" si="16"/>
         <v>300000</v>
       </c>
-      <c r="G12" s="84">
-        <f>SUM(G13:G15)</f>
+      <c r="G12" s="77">
+        <f t="shared" si="16"/>
         <v>300000</v>
       </c>
-      <c r="H12" s="85">
-        <f>SUM(H13:H15)</f>
+      <c r="H12" s="78">
+        <f t="shared" si="16"/>
         <v>300000</v>
       </c>
-      <c r="I12" s="83">
-        <f t="shared" ref="I12:K12" si="13">SUM(I13:I15)</f>
+      <c r="I12" s="76">
+        <f t="shared" ref="I12:K12" si="17">SUM(I13:I15)</f>
         <v>300000</v>
       </c>
-      <c r="J12" s="84">
-        <f t="shared" si="13"/>
+      <c r="J12" s="77">
+        <f t="shared" si="17"/>
         <v>320000</v>
       </c>
-      <c r="K12" s="85">
-        <f t="shared" si="13"/>
+      <c r="K12" s="78">
+        <f t="shared" si="17"/>
         <v>315000</v>
       </c>
-      <c r="L12" s="83">
-        <f t="shared" ref="L12" si="14">SUM(L13:L15)</f>
+      <c r="L12" s="76">
+        <f t="shared" ref="L12" si="18">SUM(L13:L15)</f>
         <v>300000</v>
       </c>
-      <c r="M12" s="84">
-        <f t="shared" ref="M12" si="15">SUM(M13:M15)</f>
+      <c r="M12" s="77">
+        <f t="shared" ref="M12" si="19">SUM(M13:M15)</f>
         <v>300000</v>
       </c>
-      <c r="N12" s="85">
-        <f t="shared" ref="N12" si="16">SUM(N13:N15)</f>
+      <c r="N12" s="78">
+        <f t="shared" ref="N12" si="20">SUM(N13:N15)</f>
         <v>315000</v>
       </c>
-      <c r="O12" s="83">
-        <f t="shared" ref="O12" si="17">SUM(O13:O15)</f>
+      <c r="O12" s="76">
+        <f t="shared" ref="O12" si="21">SUM(O13:O15)</f>
         <v>300000</v>
       </c>
-      <c r="P12" s="84">
-        <f t="shared" ref="P12" si="18">SUM(P13:P15)</f>
+      <c r="P12" s="77">
+        <f t="shared" ref="P12" si="22">SUM(P13:P15)</f>
         <v>300000</v>
       </c>
-      <c r="Q12" s="85">
-        <f t="shared" ref="Q12" si="19">SUM(Q13:Q15)</f>
+      <c r="Q12" s="78">
+        <f t="shared" ref="Q12" si="23">SUM(Q13:Q15)</f>
         <v>300000</v>
       </c>
     </row>
@@ -8114,49 +7714,49 @@
       <c r="B13" s="60">
         <v>150000</v>
       </c>
-      <c r="C13" s="89">
+      <c r="C13" s="82">
         <v>172500</v>
       </c>
       <c r="D13" s="24">
         <v>150000</v>
       </c>
-      <c r="E13" s="90">
+      <c r="E13" s="83">
         <v>135000</v>
       </c>
-      <c r="F13" s="86">
+      <c r="F13" s="79">
         <v>150000</v>
       </c>
       <c r="G13" s="24">
         <v>150000</v>
       </c>
-      <c r="H13" s="87">
+      <c r="H13" s="80">
         <v>150000</v>
       </c>
-      <c r="I13" s="86">
+      <c r="I13" s="79">
         <v>150000</v>
       </c>
       <c r="J13" s="24">
         <v>150000</v>
       </c>
-      <c r="K13" s="88">
+      <c r="K13" s="81">
         <v>165000</v>
       </c>
-      <c r="L13" s="86">
+      <c r="L13" s="79">
         <v>150000</v>
       </c>
       <c r="M13" s="24">
         <v>150000</v>
       </c>
-      <c r="N13" s="88">
+      <c r="N13" s="81">
         <v>165000</v>
       </c>
-      <c r="O13" s="86">
+      <c r="O13" s="79">
         <v>150000</v>
       </c>
       <c r="P13" s="24">
         <v>150000</v>
       </c>
-      <c r="Q13" s="87">
+      <c r="Q13" s="80">
         <v>150000</v>
       </c>
     </row>
@@ -8167,49 +7767,49 @@
       <c r="B14" s="60">
         <v>50000</v>
       </c>
-      <c r="C14" s="86">
+      <c r="C14" s="79">
         <v>50000</v>
       </c>
       <c r="D14" s="24">
         <v>50000</v>
       </c>
-      <c r="E14" s="87">
+      <c r="E14" s="80">
         <v>50000</v>
       </c>
-      <c r="F14" s="86">
+      <c r="F14" s="79">
         <v>50000</v>
       </c>
       <c r="G14" s="24">
         <v>50000</v>
       </c>
-      <c r="H14" s="87">
+      <c r="H14" s="80">
         <v>50000</v>
       </c>
-      <c r="I14" s="86">
+      <c r="I14" s="79">
         <v>50000</v>
       </c>
       <c r="J14" s="24">
         <v>50000</v>
       </c>
-      <c r="K14" s="87">
+      <c r="K14" s="80">
         <v>50000</v>
       </c>
-      <c r="L14" s="86">
+      <c r="L14" s="79">
         <v>50000</v>
       </c>
       <c r="M14" s="24">
         <v>50000</v>
       </c>
-      <c r="N14" s="87">
+      <c r="N14" s="80">
         <v>50000</v>
       </c>
-      <c r="O14" s="86">
+      <c r="O14" s="79">
         <v>50000</v>
       </c>
       <c r="P14" s="24">
         <v>50000</v>
       </c>
-      <c r="Q14" s="87">
+      <c r="Q14" s="80">
         <v>50000</v>
       </c>
     </row>
@@ -8220,49 +7820,49 @@
       <c r="B15" s="60">
         <v>100000</v>
       </c>
-      <c r="C15" s="86">
+      <c r="C15" s="79">
         <v>100000</v>
       </c>
-      <c r="D15" s="91">
+      <c r="D15" s="84">
         <v>125000</v>
       </c>
-      <c r="E15" s="87">
+      <c r="E15" s="80">
         <v>100000</v>
       </c>
-      <c r="F15" s="86">
+      <c r="F15" s="79">
         <v>100000</v>
       </c>
       <c r="G15" s="24">
         <v>100000</v>
       </c>
-      <c r="H15" s="87">
+      <c r="H15" s="80">
         <v>100000</v>
       </c>
-      <c r="I15" s="86">
+      <c r="I15" s="79">
         <v>100000</v>
       </c>
-      <c r="J15" s="91">
+      <c r="J15" s="84">
         <v>120000</v>
       </c>
-      <c r="K15" s="87">
+      <c r="K15" s="80">
         <v>100000</v>
       </c>
-      <c r="L15" s="86">
+      <c r="L15" s="79">
         <v>100000</v>
       </c>
       <c r="M15" s="24">
         <v>100000</v>
       </c>
-      <c r="N15" s="87">
+      <c r="N15" s="80">
         <v>100000</v>
       </c>
-      <c r="O15" s="86">
+      <c r="O15" s="79">
         <v>100000</v>
       </c>
       <c r="P15" s="24">
         <v>100000</v>
       </c>
-      <c r="Q15" s="87">
+      <c r="Q15" s="80">
         <v>100000</v>
       </c>
     </row>
@@ -8271,102 +7871,94 @@
         <v>279</v>
       </c>
       <c r="B16" s="61">
-        <f>B11-B12</f>
+        <f t="shared" ref="B16:H16" si="24">B11-B12</f>
         <v>60000</v>
       </c>
-      <c r="C16" s="83">
-        <f>C11-C12</f>
+      <c r="C16" s="76">
+        <f t="shared" si="24"/>
         <v>37500</v>
       </c>
-      <c r="D16" s="84">
-        <f>D11-D12</f>
+      <c r="D16" s="77">
+        <f t="shared" si="24"/>
         <v>35000</v>
       </c>
-      <c r="E16" s="85">
-        <f>E11-E12</f>
+      <c r="E16" s="78">
+        <f t="shared" si="24"/>
         <v>62500</v>
       </c>
-      <c r="F16" s="83">
-        <f>F11-F12</f>
+      <c r="F16" s="76">
+        <f t="shared" si="24"/>
         <v>54000</v>
       </c>
-      <c r="G16" s="84">
-        <f>G11-G12</f>
+      <c r="G16" s="77">
+        <f t="shared" si="24"/>
         <v>62500</v>
       </c>
-      <c r="H16" s="85">
-        <f>H11-H12</f>
+      <c r="H16" s="78">
+        <f t="shared" si="24"/>
         <v>62000</v>
       </c>
-      <c r="I16" s="83">
-        <f t="shared" ref="I16:K16" si="20">I11-I12</f>
+      <c r="I16" s="76">
+        <f t="shared" ref="I16:K16" si="25">I11-I12</f>
         <v>66000</v>
       </c>
-      <c r="J16" s="84">
-        <f t="shared" si="20"/>
+      <c r="J16" s="77">
+        <f t="shared" si="25"/>
         <v>42000</v>
       </c>
-      <c r="K16" s="85">
-        <f t="shared" si="20"/>
+      <c r="K16" s="78">
+        <f t="shared" si="25"/>
         <v>46000</v>
       </c>
-      <c r="L16" s="83">
-        <f t="shared" ref="L16:N16" si="21">L11-L12</f>
+      <c r="L16" s="76">
+        <f t="shared" ref="L16:N16" si="26">L11-L12</f>
         <v>60000</v>
       </c>
-      <c r="M16" s="84">
-        <f t="shared" si="21"/>
+      <c r="M16" s="77">
+        <f t="shared" si="26"/>
         <v>56250</v>
       </c>
-      <c r="N16" s="85">
-        <f t="shared" si="21"/>
+      <c r="N16" s="78">
+        <f t="shared" si="26"/>
         <v>52500</v>
       </c>
-      <c r="O16" s="83">
-        <f t="shared" ref="O16:Q16" si="22">O11-O12</f>
+      <c r="O16" s="76">
+        <f t="shared" ref="O16:Q16" si="27">O11-O12</f>
         <v>60000</v>
       </c>
-      <c r="P16" s="84">
-        <f t="shared" si="22"/>
+      <c r="P16" s="77">
+        <f t="shared" si="27"/>
         <v>60000</v>
       </c>
-      <c r="Q16" s="85">
-        <f t="shared" si="22"/>
+      <c r="Q16" s="78">
+        <f t="shared" si="27"/>
         <v>60000</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C17" s="23"/>
-      <c r="D17" s="92"/>
       <c r="E17" s="25"/>
       <c r="F17" s="23"/>
-      <c r="G17" s="92"/>
       <c r="H17" s="25"/>
       <c r="I17" s="23"/>
-      <c r="J17" s="92"/>
+      <c r="J17"/>
       <c r="K17" s="25"/>
       <c r="L17" s="23"/>
-      <c r="M17" s="92"/>
       <c r="N17" s="25"/>
       <c r="O17" s="23"/>
-      <c r="P17" s="92"/>
       <c r="Q17" s="25"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C18" s="23"/>
-      <c r="D18" s="92"/>
       <c r="E18" s="25"/>
       <c r="F18" s="23"/>
-      <c r="G18" s="92"/>
       <c r="H18" s="25"/>
       <c r="I18" s="23"/>
-      <c r="J18" s="92"/>
+      <c r="J18"/>
       <c r="K18" s="25"/>
       <c r="L18" s="23"/>
-      <c r="M18" s="92"/>
       <c r="N18" s="25"/>
       <c r="O18" s="23"/>
-      <c r="P18" s="92"/>
       <c r="Q18" s="25"/>
     </row>
     <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8382,11 +7974,11 @@
         <v>7.3529411764705888</v>
       </c>
       <c r="D19" s="27">
-        <f t="shared" ref="D19:E19" si="23">(D16/D5)*100</f>
+        <f t="shared" ref="D19:E19" si="28">(D16/D5)*100</f>
         <v>6.8627450980392162</v>
       </c>
       <c r="E19" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>12.254901960784313</v>
       </c>
       <c r="F19" s="26">
@@ -8394,47 +7986,47 @@
         <v>10.588235294117647</v>
       </c>
       <c r="G19" s="27">
-        <f t="shared" ref="G19:K19" si="24">(G16/G5)*100</f>
+        <f t="shared" ref="G19:K19" si="29">(G16/G5)*100</f>
         <v>12.254901960784313</v>
       </c>
       <c r="H19" s="28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>12.156862745098039</v>
       </c>
       <c r="I19" s="26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>12.941176470588237</v>
       </c>
       <c r="J19" s="27">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>8.235294117647058</v>
       </c>
       <c r="K19" s="28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>9.0196078431372548</v>
       </c>
       <c r="L19" s="26">
-        <f t="shared" ref="L19:N19" si="25">(L16/L5)*100</f>
+        <f t="shared" ref="L19:N19" si="30">(L16/L5)*100</f>
         <v>11.76470588235294</v>
       </c>
       <c r="M19" s="27">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>11.029411764705882</v>
       </c>
       <c r="N19" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>10.294117647058822</v>
       </c>
       <c r="O19" s="26">
-        <f t="shared" ref="O19:Q19" si="26">(O16/O5)*100</f>
+        <f t="shared" ref="O19:Q19" si="31">(O16/O5)*100</f>
         <v>11.76470588235294</v>
       </c>
       <c r="P19" s="27">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>11.76470588235294</v>
       </c>
       <c r="Q19" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>11.76470588235294</v>
       </c>
     </row>
@@ -8447,4 +8039,253 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20D33E56-2853-4F13-BBDD-45B1A76680BC}">
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" style="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.77734375" style="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" style="30" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C1">
+        <v>0.05</v>
+      </c>
+      <c r="D1">
+        <v>0.1</v>
+      </c>
+      <c r="E1">
+        <v>0.15</v>
+      </c>
+      <c r="F1">
+        <v>0.2</v>
+      </c>
+      <c r="G1">
+        <v>0.25</v>
+      </c>
+      <c r="H1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="59" t="s">
+        <v>273</v>
+      </c>
+      <c r="B2" s="61">
+        <f>J3*K3</f>
+        <v>510000</v>
+      </c>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="J2" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="61">
+        <f>SUM(B4:B7)</f>
+        <v>150000</v>
+      </c>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="J3" s="32">
+        <v>425</v>
+      </c>
+      <c r="K3" s="30">
+        <v>1200</v>
+      </c>
+      <c r="L3" s="30">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="60">
+        <v>30000</v>
+      </c>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="60">
+        <v>20000</v>
+      </c>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="60">
+        <v>75000</v>
+      </c>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B7" s="60">
+        <v>25000</v>
+      </c>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="59" t="s">
+        <v>274</v>
+      </c>
+      <c r="B8" s="61">
+        <f>B2-B3</f>
+        <v>360000</v>
+      </c>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="59" t="s">
+        <v>275</v>
+      </c>
+      <c r="B9" s="61">
+        <f>SUM(B10:B12)</f>
+        <v>300000</v>
+      </c>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B10" s="60">
+        <v>150000</v>
+      </c>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60">
+        <f>(B10*D1)+B10</f>
+        <v>165000</v>
+      </c>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>277</v>
+      </c>
+      <c r="B11" s="60">
+        <v>50000</v>
+      </c>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>278</v>
+      </c>
+      <c r="B12" s="60">
+        <v>100000</v>
+      </c>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="59" t="s">
+        <v>279</v>
+      </c>
+      <c r="B13" s="61">
+        <f>B8-B9</f>
+        <v>60000</v>
+      </c>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="59" t="s">
+        <v>283</v>
+      </c>
+      <c r="B16">
+        <f>(B13/B2)*100</f>
+        <v>11.76470588235294</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>282</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/logic&wireframe.xlsx
+++ b/logic&wireframe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leget\.vscode\Project1-Game_On!\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8656B2F-1A95-48A6-89F8-16E6FD7CB1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5563D2B3-051C-4B14-BBD6-2367509FDC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="936" windowWidth="11016" windowHeight="18696" firstSheet="7" activeTab="7" xr2:uid="{E50A2355-E4AA-4DEF-98AA-AC6A4FB464C4}"/>
+    <workbookView xWindow="22632" yWindow="2160" windowWidth="10992" windowHeight="8892" firstSheet="9" activeTab="9" xr2:uid="{E50A2355-E4AA-4DEF-98AA-AC6A4FB464C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,13 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
-    <sheet name="Numbers Test" sheetId="10" r:id="rId8"/>
-    <sheet name="Template" sheetId="11" r:id="rId9"/>
-    <sheet name="Possible Outcomes" sheetId="12" r:id="rId10"/>
+    <sheet name="Template" sheetId="11" r:id="rId8"/>
+    <sheet name="Possible Outcomes" sheetId="12" r:id="rId9"/>
+    <sheet name="Numbers Test" sheetId="10" r:id="rId10"/>
     <sheet name="Scenarios|Decisions" sheetId="9" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Possible Outcomes'!$A$1:$J$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Possible Outcomes'!$A$1:$J$42</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Scenarios|Decisions'!$A$1:$I$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -1472,7 +1472,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1710,6 +1710,8 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2522,2714 +2524,929 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51BE0341-022D-45D3-A21C-8DD04DC4C081}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF1E804-CCC9-4E83-A7C2-B89895379936}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:J82"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" style="30" customWidth="1"/>
-    <col min="2" max="2" width="1.44140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="1.44140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" style="30" customWidth="1"/>
-    <col min="6" max="6" width="1.44140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="1.44140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" style="30" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" style="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.77734375" style="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J1" s="30" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C2" s="30" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>281</v>
+      </c>
+      <c r="D1" s="70" t="s">
+        <v>294</v>
+      </c>
+      <c r="E1" s="71" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="67">
+        <v>425</v>
+      </c>
+      <c r="B2" s="68">
+        <v>1200</v>
+      </c>
+      <c r="C2" s="69">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:17" s="72" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B4" s="72" t="s">
+        <v>296</v>
+      </c>
+      <c r="C4" s="73" t="s">
         <v>291</v>
       </c>
-      <c r="D2" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E2" s="30" t="s">
+      <c r="D4" s="74" t="s">
+        <v>292</v>
+      </c>
+      <c r="E4" s="75" t="s">
+        <v>293</v>
+      </c>
+      <c r="F4" s="73" t="s">
         <v>297</v>
       </c>
-      <c r="F2" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G2" s="30" t="s">
+      <c r="G4" s="74" t="s">
+        <v>298</v>
+      </c>
+      <c r="H4" s="75" t="s">
+        <v>300</v>
+      </c>
+      <c r="I4" s="73" t="s">
         <v>304</v>
       </c>
-      <c r="H2" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I2" s="30" t="s">
+      <c r="J4" s="74" t="s">
+        <v>305</v>
+      </c>
+      <c r="K4" s="75" t="s">
+        <v>299</v>
+      </c>
+      <c r="L4" s="73" t="s">
         <v>306</v>
       </c>
-      <c r="J2" s="30" t="str">
-        <f>_xlfn.CONCAT(A2:I2)</f>
-        <v>Start,1A,2A,3A,4A</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>304</v>
-      </c>
-      <c r="H3" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I3" s="30" t="s">
+      <c r="M4" s="74" t="s">
         <v>307</v>
       </c>
-      <c r="J3" s="30" t="str">
-        <f t="shared" ref="J3:J28" si="0">_xlfn.CONCAT(A3:I3)</f>
-        <v>Start,1A,2A,3A,4B</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>304</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I4" s="30" t="s">
+      <c r="N4" s="75" t="s">
         <v>308</v>
       </c>
-      <c r="J4" s="30" t="str">
+      <c r="O4" s="73" t="s">
+        <v>309</v>
+      </c>
+      <c r="P4" s="74" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q4" s="75" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="59" t="s">
+        <v>273</v>
+      </c>
+      <c r="B5" s="61">
+        <f t="shared" ref="B5:H5" si="0">$A2*$B2</f>
+        <v>510000</v>
+      </c>
+      <c r="C5" s="76">
         <f t="shared" si="0"/>
-        <v>Start,1A,2A,3A,4C</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="H5" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I5" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="J5" s="30" t="str">
+        <v>510000</v>
+      </c>
+      <c r="D5" s="77">
         <f t="shared" si="0"/>
-        <v>Start,1A,2A,3B,4A</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I6" s="30" t="s">
-        <v>307</v>
-      </c>
-      <c r="J6" s="30" t="str">
+        <v>510000</v>
+      </c>
+      <c r="E5" s="78">
         <f t="shared" si="0"/>
-        <v>Start,1A,2A,3B,4B</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I7" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="J7" s="30" t="str">
+        <v>510000</v>
+      </c>
+      <c r="F5" s="76">
         <f t="shared" si="0"/>
-        <v>Start,1A,2A,3B,4C</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="H8" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I8" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="J8" s="30" t="str">
+        <v>510000</v>
+      </c>
+      <c r="G5" s="77">
         <f t="shared" si="0"/>
-        <v>Start,1A,2A,3C,4A</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="H9" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I9" s="30" t="s">
-        <v>307</v>
-      </c>
-      <c r="J9" s="30" t="str">
+        <v>510000</v>
+      </c>
+      <c r="H5" s="78">
         <f t="shared" si="0"/>
-        <v>Start,1A,2A,3C,4B</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="H10" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I10" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="J10" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>Start,1A,2A,3C,4C</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>304</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I11" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="J11" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>Start,1A,2B,3A,4A</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>304</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I12" s="30" t="s">
-        <v>307</v>
-      </c>
-      <c r="J12" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>Start,1A,2B,3A,4B</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>304</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I13" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="J13" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>Start,1A,2B,3A,4C</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I14" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="J14" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>Start,1A,2B,3B,4A</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G15" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I15" s="30" t="s">
-        <v>307</v>
-      </c>
-      <c r="J15" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>Start,1A,2B,3B,4B</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G16" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="H16" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I16" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="J16" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>Start,1A,2B,3B,4C</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G17" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="H17" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I17" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="J17" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>Start,1A,2B,3C,4A</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G18" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="H18" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I18" s="30" t="s">
-        <v>307</v>
-      </c>
-      <c r="J18" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>Start,1A,2B,3C,4B</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="H19" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I19" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="J19" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>Start,1A,2B,3C,4C</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>304</v>
-      </c>
-      <c r="H20" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I20" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="J20" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>Start,1A,2C,3A,4A</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G21" s="30" t="s">
-        <v>304</v>
-      </c>
-      <c r="H21" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I21" s="30" t="s">
-        <v>307</v>
-      </c>
-      <c r="J21" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>Start,1A,2C,3A,4B</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G22" s="30" t="s">
-        <v>304</v>
-      </c>
-      <c r="H22" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I22" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="J22" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>Start,1A,2C,3A,4C</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G23" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="H23" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I23" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="J23" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>Start,1A,2C,3B,4A</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="F24" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G24" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="H24" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I24" s="30" t="s">
-        <v>307</v>
-      </c>
-      <c r="J24" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>Start,1A,2C,3B,4B</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="F25" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G25" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="H25" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I25" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="J25" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>Start,1A,2C,3B,4C</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="F26" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G26" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="H26" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I26" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="J26" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>Start,1A,2C,3C,4A</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="F27" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G27" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="H27" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I27" s="30" t="s">
-        <v>307</v>
-      </c>
-      <c r="J27" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>Start,1A,2C,3C,4B</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="F28" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G28" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="H28" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I28" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="J28" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>Start,1A,2C,3C,4C</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="F29" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G29" s="30" t="s">
-        <v>304</v>
-      </c>
-      <c r="H29" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I29" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="J29" s="30" t="str">
-        <f>_xlfn.CONCAT(A29:I29)</f>
-        <v>Start,1B,2A,3A,4A</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="F30" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G30" s="30" t="s">
-        <v>304</v>
-      </c>
-      <c r="H30" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I30" s="30" t="s">
-        <v>307</v>
-      </c>
-      <c r="J30" s="30" t="str">
-        <f t="shared" ref="J30:J55" si="1">_xlfn.CONCAT(A30:I30)</f>
-        <v>Start,1B,2A,3A,4B</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E31" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="F31" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G31" s="30" t="s">
-        <v>304</v>
-      </c>
-      <c r="H31" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I31" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="J31" s="30" t="str">
+        <v>510000</v>
+      </c>
+      <c r="I5" s="76">
+        <f t="shared" ref="I5:K5" si="1">$A2*$B2</f>
+        <v>510000</v>
+      </c>
+      <c r="J5" s="77">
         <f t="shared" si="1"/>
-        <v>Start,1B,2A,3A,4C</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="F32" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G32" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="H32" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I32" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="J32" s="30" t="str">
+        <v>510000</v>
+      </c>
+      <c r="K5" s="78">
         <f t="shared" si="1"/>
-        <v>Start,1B,2A,3B,4A</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="D33" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="F33" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G33" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="H33" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I33" s="30" t="s">
-        <v>307</v>
-      </c>
-      <c r="J33" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v>Start,1B,2A,3B,4B</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="F34" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G34" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="H34" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I34" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="J34" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v>Start,1B,2A,3B,4C</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="D35" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="F35" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G35" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="H35" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I35" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="J35" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v>Start,1B,2A,3C,4A</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E36" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="F36" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G36" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="H36" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I36" s="30" t="s">
-        <v>307</v>
-      </c>
-      <c r="J36" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v>Start,1B,2A,3C,4B</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B37" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="D37" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E37" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="F37" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G37" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="H37" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I37" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="J37" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v>Start,1B,2A,3C,4C</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="D38" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E38" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="F38" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G38" s="30" t="s">
-        <v>304</v>
-      </c>
-      <c r="H38" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I38" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="J38" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v>Start,1B,2B,3A,4A</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="D39" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E39" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="F39" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G39" s="30" t="s">
-        <v>304</v>
-      </c>
-      <c r="H39" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I39" s="30" t="s">
-        <v>307</v>
-      </c>
-      <c r="J39" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v>Start,1B,2B,3A,4B</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B40" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="D40" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E40" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="F40" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G40" s="30" t="s">
-        <v>304</v>
-      </c>
-      <c r="H40" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I40" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="J40" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v>Start,1B,2B,3A,4C</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B41" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="D41" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E41" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="F41" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G41" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="H41" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I41" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="J41" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v>Start,1B,2B,3B,4A</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C42" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="D42" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E42" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="F42" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G42" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="H42" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I42" s="30" t="s">
-        <v>307</v>
-      </c>
-      <c r="J42" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v>Start,1B,2B,3B,4B</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B43" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C43" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="D43" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E43" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="F43" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G43" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="H43" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I43" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="J43" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v>Start,1B,2B,3B,4C</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B44" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C44" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="D44" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E44" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="F44" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G44" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="H44" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I44" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="J44" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v>Start,1B,2B,3C,4A</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B45" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="D45" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E45" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="F45" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G45" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="H45" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I45" s="30" t="s">
-        <v>307</v>
-      </c>
-      <c r="J45" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v>Start,1B,2B,3C,4B</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B46" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C46" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="D46" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E46" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="F46" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G46" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="H46" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I46" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="J46" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v>Start,1B,2B,3C,4C</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B47" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C47" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="D47" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E47" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="F47" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G47" s="30" t="s">
-        <v>304</v>
-      </c>
-      <c r="H47" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I47" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="J47" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v>Start,1B,2C,3A,4A</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B48" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C48" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="D48" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E48" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="F48" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G48" s="30" t="s">
-        <v>304</v>
-      </c>
-      <c r="H48" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I48" s="30" t="s">
-        <v>307</v>
-      </c>
-      <c r="J48" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v>Start,1B,2C,3A,4B</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B49" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C49" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="D49" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E49" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="F49" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G49" s="30" t="s">
-        <v>304</v>
-      </c>
-      <c r="H49" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I49" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="J49" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v>Start,1B,2C,3A,4C</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B50" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C50" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="D50" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E50" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="F50" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G50" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="H50" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I50" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="J50" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v>Start,1B,2C,3B,4A</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B51" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C51" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="D51" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E51" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="F51" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G51" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="H51" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I51" s="30" t="s">
-        <v>307</v>
-      </c>
-      <c r="J51" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v>Start,1B,2C,3B,4B</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B52" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C52" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="D52" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E52" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="F52" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G52" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="H52" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I52" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="J52" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v>Start,1B,2C,3B,4C</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B53" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C53" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="D53" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E53" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="F53" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G53" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="H53" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I53" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="J53" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v>Start,1B,2C,3C,4A</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B54" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C54" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="D54" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E54" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="F54" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G54" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="H54" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I54" s="30" t="s">
-        <v>307</v>
-      </c>
-      <c r="J54" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v>Start,1B,2C,3C,4B</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B55" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C55" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="D55" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E55" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="F55" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G55" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="H55" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I55" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="J55" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v>Start,1B,2C,3C,4C</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B56" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C56" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="D56" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E56" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="F56" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G56" s="30" t="s">
-        <v>304</v>
-      </c>
-      <c r="H56" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I56" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="J56" s="30" t="str">
-        <f>_xlfn.CONCAT(A56:I56)</f>
-        <v>Start,1C,2A,3A,4A</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B57" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C57" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="D57" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E57" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="F57" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G57" s="30" t="s">
-        <v>304</v>
-      </c>
-      <c r="H57" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I57" s="30" t="s">
-        <v>307</v>
-      </c>
-      <c r="J57" s="30" t="str">
-        <f t="shared" ref="J57:J82" si="2">_xlfn.CONCAT(A57:I57)</f>
-        <v>Start,1C,2A,3A,4B</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B58" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C58" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="D58" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E58" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="F58" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G58" s="30" t="s">
-        <v>304</v>
-      </c>
-      <c r="H58" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I58" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="J58" s="30" t="str">
+        <v>510000</v>
+      </c>
+      <c r="L5" s="76">
+        <f t="shared" ref="L5:N5" si="2">$A2*$B2</f>
+        <v>510000</v>
+      </c>
+      <c r="M5" s="77">
         <f t="shared" si="2"/>
-        <v>Start,1C,2A,3A,4C</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B59" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C59" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="D59" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E59" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="F59" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G59" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="H59" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I59" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="J59" s="30" t="str">
+        <v>510000</v>
+      </c>
+      <c r="N5" s="78">
         <f t="shared" si="2"/>
-        <v>Start,1C,2A,3B,4A</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B60" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C60" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="D60" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E60" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="F60" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G60" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="H60" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I60" s="30" t="s">
-        <v>307</v>
-      </c>
-      <c r="J60" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v>Start,1C,2A,3B,4B</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B61" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C61" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="D61" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E61" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="F61" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G61" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="H61" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I61" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="J61" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v>Start,1C,2A,3B,4C</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B62" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C62" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="D62" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E62" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="F62" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G62" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="H62" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I62" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="J62" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v>Start,1C,2A,3C,4A</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B63" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C63" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="D63" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E63" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="F63" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G63" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="H63" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I63" s="30" t="s">
-        <v>307</v>
-      </c>
-      <c r="J63" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v>Start,1C,2A,3C,4B</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B64" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C64" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="D64" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E64" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="F64" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G64" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="H64" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I64" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="J64" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v>Start,1C,2A,3C,4C</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B65" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C65" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="D65" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E65" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="F65" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G65" s="30" t="s">
-        <v>304</v>
-      </c>
-      <c r="H65" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I65" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="J65" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v>Start,1C,2B,3A,4A</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B66" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C66" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="D66" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E66" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="F66" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G66" s="30" t="s">
-        <v>304</v>
-      </c>
-      <c r="H66" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I66" s="30" t="s">
-        <v>307</v>
-      </c>
-      <c r="J66" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v>Start,1C,2B,3A,4B</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B67" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C67" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="D67" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E67" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="F67" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G67" s="30" t="s">
-        <v>304</v>
-      </c>
-      <c r="H67" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I67" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="J67" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v>Start,1C,2B,3A,4C</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B68" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C68" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="D68" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E68" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="F68" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G68" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="H68" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I68" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="J68" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v>Start,1C,2B,3B,4A</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B69" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C69" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="D69" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E69" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="F69" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G69" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="H69" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I69" s="30" t="s">
-        <v>307</v>
-      </c>
-      <c r="J69" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v>Start,1C,2B,3B,4B</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B70" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C70" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="D70" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E70" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="F70" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G70" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="H70" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I70" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="J70" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v>Start,1C,2B,3B,4C</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A71" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B71" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C71" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="D71" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E71" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="F71" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G71" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="H71" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I71" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="J71" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v>Start,1C,2B,3C,4A</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B72" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C72" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="D72" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E72" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="F72" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G72" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="H72" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I72" s="30" t="s">
-        <v>307</v>
-      </c>
-      <c r="J72" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v>Start,1C,2B,3C,4B</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B73" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C73" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="D73" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E73" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="F73" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G73" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="H73" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I73" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="J73" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v>Start,1C,2B,3C,4C</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B74" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C74" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="D74" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E74" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="F74" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G74" s="30" t="s">
-        <v>304</v>
-      </c>
-      <c r="H74" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I74" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="J74" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v>Start,1C,2C,3A,4A</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B75" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C75" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="D75" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E75" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="F75" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G75" s="30" t="s">
-        <v>304</v>
-      </c>
-      <c r="H75" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I75" s="30" t="s">
-        <v>307</v>
-      </c>
-      <c r="J75" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v>Start,1C,2C,3A,4B</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A76" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B76" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C76" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="D76" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E76" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="F76" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G76" s="30" t="s">
-        <v>304</v>
-      </c>
-      <c r="H76" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I76" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="J76" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v>Start,1C,2C,3A,4C</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B77" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C77" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="D77" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E77" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="F77" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G77" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="H77" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I77" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="J77" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v>Start,1C,2C,3B,4A</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B78" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C78" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="D78" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E78" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="F78" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G78" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="H78" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I78" s="30" t="s">
-        <v>307</v>
-      </c>
-      <c r="J78" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v>Start,1C,2C,3B,4B</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A79" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B79" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C79" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="D79" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E79" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="F79" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G79" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="H79" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I79" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="J79" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v>Start,1C,2C,3B,4C</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A80" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B80" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C80" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="D80" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E80" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="F80" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G80" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="H80" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I80" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="J80" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v>Start,1C,2C,3C,4A</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A81" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B81" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C81" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="D81" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E81" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="F81" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G81" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="H81" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I81" s="30" t="s">
-        <v>307</v>
-      </c>
-      <c r="J81" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v>Start,1C,2C,3C,4B</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A82" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B82" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C82" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="D82" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E82" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="F82" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G82" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="H82" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I82" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="J82" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v>Start,1C,2C,3C,4C</v>
+        <v>510000</v>
+      </c>
+      <c r="O5" s="76">
+        <f t="shared" ref="O5:Q5" si="3">$A2*$B2</f>
+        <v>510000</v>
+      </c>
+      <c r="P5" s="77">
+        <f t="shared" si="3"/>
+        <v>510000</v>
+      </c>
+      <c r="Q5" s="78">
+        <f t="shared" si="3"/>
+        <v>510000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="99">
+        <f t="shared" ref="B6:H6" si="4">SUM(B7:B10)</f>
+        <v>150000</v>
+      </c>
+      <c r="C6" s="76">
+        <f t="shared" si="4"/>
+        <v>150000</v>
+      </c>
+      <c r="D6" s="77">
+        <f t="shared" si="4"/>
+        <v>150000</v>
+      </c>
+      <c r="E6" s="78">
+        <f t="shared" si="4"/>
+        <v>162500</v>
+      </c>
+      <c r="F6" s="76">
+        <f t="shared" si="4"/>
+        <v>156000</v>
+      </c>
+      <c r="G6" s="77">
+        <f t="shared" si="4"/>
+        <v>147500</v>
+      </c>
+      <c r="H6" s="78">
+        <f t="shared" si="4"/>
+        <v>148000</v>
+      </c>
+      <c r="I6" s="76">
+        <f t="shared" ref="I6:K6" si="5">SUM(I7:I10)</f>
+        <v>144000</v>
+      </c>
+      <c r="J6" s="77">
+        <f t="shared" si="5"/>
+        <v>148000</v>
+      </c>
+      <c r="K6" s="78">
+        <f t="shared" si="5"/>
+        <v>149000</v>
+      </c>
+      <c r="L6" s="76">
+        <f t="shared" ref="L6" si="6">SUM(L7:L10)</f>
+        <v>150000</v>
+      </c>
+      <c r="M6" s="77">
+        <f t="shared" ref="M6" si="7">SUM(M7:M10)</f>
+        <v>153750</v>
+      </c>
+      <c r="N6" s="78">
+        <f t="shared" ref="N6" si="8">SUM(N7:N10)</f>
+        <v>142500</v>
+      </c>
+      <c r="O6" s="76">
+        <f t="shared" ref="O6" si="9">SUM(O7:O10)</f>
+        <v>150000</v>
+      </c>
+      <c r="P6" s="77">
+        <f t="shared" ref="P6" si="10">SUM(P7:P10)</f>
+        <v>150000</v>
+      </c>
+      <c r="Q6" s="78">
+        <f t="shared" ref="Q6" si="11">SUM(Q7:Q10)</f>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="60">
+        <v>30000</v>
+      </c>
+      <c r="C7" s="79">
+        <v>30000</v>
+      </c>
+      <c r="D7" s="24">
+        <v>30000</v>
+      </c>
+      <c r="E7" s="80">
+        <v>30000</v>
+      </c>
+      <c r="F7" s="82">
+        <v>36000</v>
+      </c>
+      <c r="G7" s="24">
+        <v>30000</v>
+      </c>
+      <c r="H7" s="80">
+        <v>30000</v>
+      </c>
+      <c r="I7" s="82">
+        <v>39000</v>
+      </c>
+      <c r="J7" s="24">
+        <v>30000</v>
+      </c>
+      <c r="K7" s="80">
+        <v>30000</v>
+      </c>
+      <c r="L7" s="79">
+        <v>30000</v>
+      </c>
+      <c r="M7" s="24">
+        <v>30000</v>
+      </c>
+      <c r="N7" s="80">
+        <v>30000</v>
+      </c>
+      <c r="O7" s="79">
+        <v>30000</v>
+      </c>
+      <c r="P7" s="24">
+        <v>30000</v>
+      </c>
+      <c r="Q7" s="80">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="60">
+        <v>20000</v>
+      </c>
+      <c r="C8" s="79">
+        <v>20000</v>
+      </c>
+      <c r="D8" s="24">
+        <v>20000</v>
+      </c>
+      <c r="E8" s="80">
+        <v>20000</v>
+      </c>
+      <c r="F8" s="79">
+        <v>20000</v>
+      </c>
+      <c r="G8" s="24">
+        <v>20000</v>
+      </c>
+      <c r="H8" s="83">
+        <v>18000</v>
+      </c>
+      <c r="I8" s="94">
+        <v>5000</v>
+      </c>
+      <c r="J8" s="85">
+        <v>18000</v>
+      </c>
+      <c r="K8" s="83">
+        <v>19000</v>
+      </c>
+      <c r="L8" s="79">
+        <v>20000</v>
+      </c>
+      <c r="M8" s="24">
+        <v>20000</v>
+      </c>
+      <c r="N8" s="80">
+        <v>20000</v>
+      </c>
+      <c r="O8" s="79">
+        <v>20000</v>
+      </c>
+      <c r="P8" s="24">
+        <v>20000</v>
+      </c>
+      <c r="Q8" s="80">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="60">
+        <v>75000</v>
+      </c>
+      <c r="C9" s="79">
+        <v>75000</v>
+      </c>
+      <c r="D9" s="24">
+        <v>75000</v>
+      </c>
+      <c r="E9" s="80">
+        <v>75000</v>
+      </c>
+      <c r="F9" s="79">
+        <v>75000</v>
+      </c>
+      <c r="G9" s="24">
+        <v>75000</v>
+      </c>
+      <c r="H9" s="80">
+        <v>75000</v>
+      </c>
+      <c r="I9" s="79">
+        <v>75000</v>
+      </c>
+      <c r="J9" s="24">
+        <v>75000</v>
+      </c>
+      <c r="K9" s="80">
+        <v>75000</v>
+      </c>
+      <c r="L9" s="79">
+        <v>75000</v>
+      </c>
+      <c r="M9" s="84">
+        <v>78750</v>
+      </c>
+      <c r="N9" s="83">
+        <v>67500</v>
+      </c>
+      <c r="O9" s="79">
+        <v>75000</v>
+      </c>
+      <c r="P9" s="24">
+        <v>75000</v>
+      </c>
+      <c r="Q9" s="80">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>272</v>
+      </c>
+      <c r="B10" s="60">
+        <v>25000</v>
+      </c>
+      <c r="C10" s="79">
+        <v>25000</v>
+      </c>
+      <c r="D10" s="24">
+        <v>25000</v>
+      </c>
+      <c r="E10" s="81">
+        <v>37500</v>
+      </c>
+      <c r="F10" s="79">
+        <v>25000</v>
+      </c>
+      <c r="G10" s="85">
+        <v>22500</v>
+      </c>
+      <c r="H10" s="80">
+        <v>25000</v>
+      </c>
+      <c r="I10" s="79">
+        <v>25000</v>
+      </c>
+      <c r="J10" s="24">
+        <v>25000</v>
+      </c>
+      <c r="K10" s="80">
+        <v>25000</v>
+      </c>
+      <c r="L10" s="79">
+        <v>25000</v>
+      </c>
+      <c r="M10" s="24">
+        <v>25000</v>
+      </c>
+      <c r="N10" s="80">
+        <v>25000</v>
+      </c>
+      <c r="O10" s="79">
+        <v>25000</v>
+      </c>
+      <c r="P10" s="24">
+        <v>25000</v>
+      </c>
+      <c r="Q10" s="80">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="59" t="s">
+        <v>274</v>
+      </c>
+      <c r="B11" s="99">
+        <f t="shared" ref="B11:H11" si="12">B5-B6</f>
+        <v>360000</v>
+      </c>
+      <c r="C11" s="76">
+        <f t="shared" si="12"/>
+        <v>360000</v>
+      </c>
+      <c r="D11" s="77">
+        <f t="shared" si="12"/>
+        <v>360000</v>
+      </c>
+      <c r="E11" s="78">
+        <f t="shared" si="12"/>
+        <v>347500</v>
+      </c>
+      <c r="F11" s="76">
+        <f t="shared" si="12"/>
+        <v>354000</v>
+      </c>
+      <c r="G11" s="77">
+        <f t="shared" si="12"/>
+        <v>362500</v>
+      </c>
+      <c r="H11" s="78">
+        <f t="shared" si="12"/>
+        <v>362000</v>
+      </c>
+      <c r="I11" s="76">
+        <f t="shared" ref="I11:K11" si="13">I5-I6</f>
+        <v>366000</v>
+      </c>
+      <c r="J11" s="77">
+        <f t="shared" si="13"/>
+        <v>362000</v>
+      </c>
+      <c r="K11" s="78">
+        <f t="shared" si="13"/>
+        <v>361000</v>
+      </c>
+      <c r="L11" s="76">
+        <f t="shared" ref="L11:N11" si="14">L5-L6</f>
+        <v>360000</v>
+      </c>
+      <c r="M11" s="77">
+        <f t="shared" si="14"/>
+        <v>356250</v>
+      </c>
+      <c r="N11" s="78">
+        <f t="shared" si="14"/>
+        <v>367500</v>
+      </c>
+      <c r="O11" s="76">
+        <f t="shared" ref="O11:Q11" si="15">O5-O6</f>
+        <v>360000</v>
+      </c>
+      <c r="P11" s="77">
+        <f t="shared" si="15"/>
+        <v>360000</v>
+      </c>
+      <c r="Q11" s="78">
+        <f t="shared" si="15"/>
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="59" t="s">
+        <v>275</v>
+      </c>
+      <c r="B12" s="99">
+        <f t="shared" ref="B12:H12" si="16">SUM(B13:B15)</f>
+        <v>300000</v>
+      </c>
+      <c r="C12" s="76">
+        <f t="shared" si="16"/>
+        <v>322500</v>
+      </c>
+      <c r="D12" s="77">
+        <f t="shared" si="16"/>
+        <v>325000</v>
+      </c>
+      <c r="E12" s="78">
+        <f t="shared" si="16"/>
+        <v>285000</v>
+      </c>
+      <c r="F12" s="76">
+        <f t="shared" si="16"/>
+        <v>300000</v>
+      </c>
+      <c r="G12" s="77">
+        <f t="shared" si="16"/>
+        <v>300000</v>
+      </c>
+      <c r="H12" s="78">
+        <f t="shared" si="16"/>
+        <v>300000</v>
+      </c>
+      <c r="I12" s="76">
+        <f t="shared" ref="I12:K12" si="17">SUM(I13:I15)</f>
+        <v>300000</v>
+      </c>
+      <c r="J12" s="77">
+        <f t="shared" si="17"/>
+        <v>320000</v>
+      </c>
+      <c r="K12" s="78">
+        <f t="shared" si="17"/>
+        <v>315000</v>
+      </c>
+      <c r="L12" s="76">
+        <f t="shared" ref="L12" si="18">SUM(L13:L15)</f>
+        <v>300000</v>
+      </c>
+      <c r="M12" s="77">
+        <f t="shared" ref="M12" si="19">SUM(M13:M15)</f>
+        <v>300000</v>
+      </c>
+      <c r="N12" s="78">
+        <f t="shared" ref="N12" si="20">SUM(N13:N15)</f>
+        <v>315000</v>
+      </c>
+      <c r="O12" s="76">
+        <f t="shared" ref="O12" si="21">SUM(O13:O15)</f>
+        <v>300000</v>
+      </c>
+      <c r="P12" s="77">
+        <f t="shared" ref="P12" si="22">SUM(P13:P15)</f>
+        <v>300000</v>
+      </c>
+      <c r="Q12" s="78">
+        <f t="shared" ref="Q12" si="23">SUM(Q13:Q15)</f>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>276</v>
+      </c>
+      <c r="B13" s="60">
+        <v>150000</v>
+      </c>
+      <c r="C13" s="82">
+        <v>172500</v>
+      </c>
+      <c r="D13" s="24">
+        <v>150000</v>
+      </c>
+      <c r="E13" s="83">
+        <v>135000</v>
+      </c>
+      <c r="F13" s="79">
+        <v>150000</v>
+      </c>
+      <c r="G13" s="24">
+        <v>150000</v>
+      </c>
+      <c r="H13" s="80">
+        <v>150000</v>
+      </c>
+      <c r="I13" s="79">
+        <v>150000</v>
+      </c>
+      <c r="J13" s="24">
+        <v>150000</v>
+      </c>
+      <c r="K13" s="81">
+        <v>165000</v>
+      </c>
+      <c r="L13" s="79">
+        <v>150000</v>
+      </c>
+      <c r="M13" s="24">
+        <v>150000</v>
+      </c>
+      <c r="N13" s="81">
+        <v>165000</v>
+      </c>
+      <c r="O13" s="79">
+        <v>150000</v>
+      </c>
+      <c r="P13" s="24">
+        <v>150000</v>
+      </c>
+      <c r="Q13" s="80">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>277</v>
+      </c>
+      <c r="B14" s="60">
+        <v>50000</v>
+      </c>
+      <c r="C14" s="79">
+        <v>50000</v>
+      </c>
+      <c r="D14" s="24">
+        <v>50000</v>
+      </c>
+      <c r="E14" s="80">
+        <v>50000</v>
+      </c>
+      <c r="F14" s="79">
+        <v>50000</v>
+      </c>
+      <c r="G14" s="24">
+        <v>50000</v>
+      </c>
+      <c r="H14" s="80">
+        <v>50000</v>
+      </c>
+      <c r="I14" s="79">
+        <v>50000</v>
+      </c>
+      <c r="J14" s="24">
+        <v>50000</v>
+      </c>
+      <c r="K14" s="80">
+        <v>50000</v>
+      </c>
+      <c r="L14" s="79">
+        <v>50000</v>
+      </c>
+      <c r="M14" s="24">
+        <v>50000</v>
+      </c>
+      <c r="N14" s="80">
+        <v>50000</v>
+      </c>
+      <c r="O14" s="79">
+        <v>50000</v>
+      </c>
+      <c r="P14" s="24">
+        <v>50000</v>
+      </c>
+      <c r="Q14" s="80">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>278</v>
+      </c>
+      <c r="B15" s="60">
+        <v>100000</v>
+      </c>
+      <c r="C15" s="79">
+        <v>100000</v>
+      </c>
+      <c r="D15" s="84">
+        <v>125000</v>
+      </c>
+      <c r="E15" s="80">
+        <v>100000</v>
+      </c>
+      <c r="F15" s="79">
+        <v>100000</v>
+      </c>
+      <c r="G15" s="24">
+        <v>100000</v>
+      </c>
+      <c r="H15" s="80">
+        <v>100000</v>
+      </c>
+      <c r="I15" s="79">
+        <v>100000</v>
+      </c>
+      <c r="J15" s="84">
+        <v>120000</v>
+      </c>
+      <c r="K15" s="80">
+        <v>100000</v>
+      </c>
+      <c r="L15" s="79">
+        <v>100000</v>
+      </c>
+      <c r="M15" s="24">
+        <v>100000</v>
+      </c>
+      <c r="N15" s="80">
+        <v>100000</v>
+      </c>
+      <c r="O15" s="79">
+        <v>100000</v>
+      </c>
+      <c r="P15" s="24">
+        <v>100000</v>
+      </c>
+      <c r="Q15" s="80">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="59" t="s">
+        <v>279</v>
+      </c>
+      <c r="B16" s="99">
+        <f>B11-B12</f>
+        <v>60000</v>
+      </c>
+      <c r="C16" s="76">
+        <f t="shared" ref="C16:H16" si="24">C11-C12</f>
+        <v>37500</v>
+      </c>
+      <c r="D16" s="77">
+        <f t="shared" si="24"/>
+        <v>35000</v>
+      </c>
+      <c r="E16" s="78">
+        <f t="shared" si="24"/>
+        <v>62500</v>
+      </c>
+      <c r="F16" s="76">
+        <f t="shared" si="24"/>
+        <v>54000</v>
+      </c>
+      <c r="G16" s="77">
+        <f t="shared" si="24"/>
+        <v>62500</v>
+      </c>
+      <c r="H16" s="78">
+        <f t="shared" si="24"/>
+        <v>62000</v>
+      </c>
+      <c r="I16" s="76">
+        <f t="shared" ref="I16:K16" si="25">I11-I12</f>
+        <v>66000</v>
+      </c>
+      <c r="J16" s="77">
+        <f t="shared" si="25"/>
+        <v>42000</v>
+      </c>
+      <c r="K16" s="78">
+        <f t="shared" si="25"/>
+        <v>46000</v>
+      </c>
+      <c r="L16" s="76">
+        <f t="shared" ref="L16:N16" si="26">L11-L12</f>
+        <v>60000</v>
+      </c>
+      <c r="M16" s="77">
+        <f t="shared" si="26"/>
+        <v>56250</v>
+      </c>
+      <c r="N16" s="78">
+        <f t="shared" si="26"/>
+        <v>52500</v>
+      </c>
+      <c r="O16" s="76">
+        <f t="shared" ref="O16:Q16" si="27">O11-O12</f>
+        <v>60000</v>
+      </c>
+      <c r="P16" s="77">
+        <f t="shared" si="27"/>
+        <v>60000</v>
+      </c>
+      <c r="Q16" s="78">
+        <f t="shared" si="27"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C17" s="23"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="23"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="23"/>
+      <c r="J17"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="23"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="23"/>
+      <c r="Q17" s="25"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C18" s="23"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="23"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="23"/>
+      <c r="J18"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="23"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="23"/>
+      <c r="Q18" s="25"/>
+    </row>
+    <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="59" t="s">
+        <v>283</v>
+      </c>
+      <c r="B19" s="100">
+        <f>(B16/B5)*100</f>
+        <v>11.76470588235294</v>
+      </c>
+      <c r="C19" s="26">
+        <f>(C16/C5)*100</f>
+        <v>7.3529411764705888</v>
+      </c>
+      <c r="D19" s="27">
+        <f t="shared" ref="D19:E19" si="28">(D16/D5)*100</f>
+        <v>6.8627450980392162</v>
+      </c>
+      <c r="E19" s="28">
+        <f t="shared" si="28"/>
+        <v>12.254901960784313</v>
+      </c>
+      <c r="F19" s="26">
+        <f>(F16/F5)*100</f>
+        <v>10.588235294117647</v>
+      </c>
+      <c r="G19" s="27">
+        <f t="shared" ref="G19:K19" si="29">(G16/G5)*100</f>
+        <v>12.254901960784313</v>
+      </c>
+      <c r="H19" s="28">
+        <f t="shared" si="29"/>
+        <v>12.156862745098039</v>
+      </c>
+      <c r="I19" s="26">
+        <f t="shared" si="29"/>
+        <v>12.941176470588237</v>
+      </c>
+      <c r="J19" s="27">
+        <f t="shared" si="29"/>
+        <v>8.235294117647058</v>
+      </c>
+      <c r="K19" s="28">
+        <f t="shared" si="29"/>
+        <v>9.0196078431372548</v>
+      </c>
+      <c r="L19" s="26">
+        <f t="shared" ref="L19:N19" si="30">(L16/L5)*100</f>
+        <v>11.76470588235294</v>
+      </c>
+      <c r="M19" s="27">
+        <f t="shared" si="30"/>
+        <v>11.029411764705882</v>
+      </c>
+      <c r="N19" s="28">
+        <f t="shared" si="30"/>
+        <v>10.294117647058822</v>
+      </c>
+      <c r="O19" s="26">
+        <f t="shared" ref="O19:Q19" si="31">(O16/O5)*100</f>
+        <v>11.76470588235294</v>
+      </c>
+      <c r="P19" s="27">
+        <f t="shared" si="31"/>
+        <v>11.76470588235294</v>
+      </c>
+      <c r="Q19" s="28">
+        <f t="shared" si="31"/>
+        <v>11.76470588235294</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J61" xr:uid="{51BE0341-022D-45D3-A21C-8DD04DC4C081}"/>
-  <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5240,8 +3457,8 @@
   </sheetPr>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5281,10 +3498,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="99">
+      <c r="A2" s="101">
         <v>1</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="111" t="s">
         <v>172</v>
       </c>
       <c r="C2" s="50" t="s">
@@ -5308,8 +3525,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="99"/>
-      <c r="B3" s="110"/>
+      <c r="A3" s="101"/>
+      <c r="B3" s="112"/>
       <c r="C3" s="41" t="s">
         <v>185</v>
       </c>
@@ -5333,8 +3550,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="99"/>
-      <c r="B4" s="111"/>
+      <c r="A4" s="101"/>
+      <c r="B4" s="113"/>
       <c r="C4" s="86" t="s">
         <v>219</v>
       </c>
@@ -5358,10 +3575,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="99">
+      <c r="A5" s="101">
         <v>2</v>
       </c>
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="108" t="s">
         <v>173</v>
       </c>
       <c r="C5" s="45" t="s">
@@ -5387,8 +3604,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" s="99"/>
-      <c r="B6" s="107"/>
+      <c r="A6" s="101"/>
+      <c r="B6" s="109"/>
       <c r="C6" s="43" t="s">
         <v>232</v>
       </c>
@@ -5412,8 +3629,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="99"/>
-      <c r="B7" s="108"/>
+      <c r="A7" s="101"/>
+      <c r="B7" s="110"/>
       <c r="C7" s="48" t="s">
         <v>194</v>
       </c>
@@ -5435,10 +3652,10 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="99">
+      <c r="A8" s="101">
         <v>3</v>
       </c>
-      <c r="B8" s="109" t="s">
+      <c r="B8" s="111" t="s">
         <v>174</v>
       </c>
       <c r="C8" s="95" t="s">
@@ -5462,8 +3679,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="99"/>
-      <c r="B9" s="110"/>
+      <c r="A9" s="101"/>
+      <c r="B9" s="112"/>
       <c r="C9" s="41" t="s">
         <v>196</v>
       </c>
@@ -5485,8 +3702,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="99"/>
-      <c r="B10" s="111"/>
+      <c r="A10" s="101"/>
+      <c r="B10" s="113"/>
       <c r="C10" s="53" t="s">
         <v>234</v>
       </c>
@@ -5510,10 +3727,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="99">
+      <c r="A11" s="101">
         <v>4</v>
       </c>
-      <c r="B11" s="106" t="s">
+      <c r="B11" s="108" t="s">
         <v>175</v>
       </c>
       <c r="C11" s="95" t="s">
@@ -5539,8 +3756,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="99"/>
-      <c r="B12" s="107"/>
+      <c r="A12" s="101"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="44" t="s">
         <v>238</v>
       </c>
@@ -5564,8 +3781,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="99"/>
-      <c r="B13" s="108"/>
+      <c r="A13" s="101"/>
+      <c r="B13" s="110"/>
       <c r="C13" s="48" t="s">
         <v>239</v>
       </c>
@@ -5587,10 +3804,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="99">
+      <c r="A14" s="101">
         <v>5</v>
       </c>
-      <c r="B14" s="105" t="s">
+      <c r="B14" s="107" t="s">
         <v>176</v>
       </c>
       <c r="C14" s="55" t="s">
@@ -5605,8 +3822,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="99"/>
-      <c r="B15" s="105"/>
+      <c r="A15" s="101"/>
+      <c r="B15" s="107"/>
       <c r="C15" s="41" t="s">
         <v>203</v>
       </c>
@@ -5621,8 +3838,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="99"/>
-      <c r="B16" s="103"/>
+      <c r="A16" s="101"/>
+      <c r="B16" s="105"/>
       <c r="C16" s="53" t="s">
         <v>209</v>
       </c>
@@ -5637,10 +3854,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="99">
+      <c r="A17" s="101">
         <v>6</v>
       </c>
-      <c r="B17" s="100" t="s">
+      <c r="B17" s="102" t="s">
         <v>177</v>
       </c>
       <c r="C17" s="45" t="s">
@@ -5657,8 +3874,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="87" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="99"/>
-      <c r="B18" s="101"/>
+      <c r="A18" s="101"/>
+      <c r="B18" s="103"/>
       <c r="C18" s="48" t="s">
         <v>249</v>
       </c>
@@ -5671,10 +3888,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="99">
+      <c r="A19" s="101">
         <v>7</v>
       </c>
-      <c r="B19" s="102" t="s">
+      <c r="B19" s="104" t="s">
         <v>178</v>
       </c>
       <c r="C19" s="50" t="s">
@@ -5691,8 +3908,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="99"/>
-      <c r="B20" s="103"/>
+      <c r="A20" s="101"/>
+      <c r="B20" s="105"/>
       <c r="C20" s="42" t="s">
         <v>252</v>
       </c>
@@ -5705,10 +3922,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="99">
+      <c r="A21" s="101">
         <v>8</v>
       </c>
-      <c r="B21" s="100" t="s">
+      <c r="B21" s="102" t="s">
         <v>179</v>
       </c>
       <c r="C21" s="45" t="s">
@@ -5725,8 +3942,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="99"/>
-      <c r="B22" s="104"/>
+      <c r="A22" s="101"/>
+      <c r="B22" s="106"/>
       <c r="C22" s="44" t="s">
         <v>256</v>
       </c>
@@ -5737,8 +3954,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="99"/>
-      <c r="B23" s="101"/>
+      <c r="A23" s="101"/>
+      <c r="B23" s="103"/>
       <c r="C23" s="48" t="s">
         <v>257</v>
       </c>
@@ -5749,10 +3966,10 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="99">
+      <c r="A24" s="101">
         <v>9</v>
       </c>
-      <c r="B24" s="102" t="s">
+      <c r="B24" s="104" t="s">
         <v>180</v>
       </c>
       <c r="C24" s="50" t="s">
@@ -5769,8 +3986,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="99"/>
-      <c r="B25" s="105"/>
+      <c r="A25" s="101"/>
+      <c r="B25" s="107"/>
       <c r="C25" s="41" t="s">
         <v>260</v>
       </c>
@@ -5783,8 +4000,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="99"/>
-      <c r="B26" s="103"/>
+      <c r="A26" s="101"/>
+      <c r="B26" s="105"/>
       <c r="C26" s="53" t="s">
         <v>261</v>
       </c>
@@ -5797,10 +4014,10 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="99">
+      <c r="A27" s="101">
         <v>10</v>
       </c>
-      <c r="B27" s="100" t="s">
+      <c r="B27" s="102" t="s">
         <v>267</v>
       </c>
       <c r="C27" s="45" t="s">
@@ -5817,8 +4034,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="99"/>
-      <c r="B28" s="101"/>
+      <c r="A28" s="101"/>
+      <c r="B28" s="103"/>
       <c r="C28" s="48" t="s">
         <v>269</v>
       </c>
@@ -7063,7 +5280,7 @@
         <v>21.568627450980394</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>153</v>
       </c>
@@ -7072,7 +5289,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="38" t="s">
         <v>152</v>
       </c>
@@ -7086,7 +5303,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="38" t="s">
         <v>154</v>
       </c>
@@ -7103,7 +5320,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="38" t="s">
         <v>155</v>
       </c>
@@ -7120,928 +5337,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF1E804-CCC9-4E83-A7C2-B89895379936}">
-  <dimension ref="A1:Q20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.21875" style="30" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.77734375" style="30" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>280</v>
-      </c>
-      <c r="C1" s="66" t="s">
-        <v>281</v>
-      </c>
-      <c r="D1" s="70" t="s">
-        <v>294</v>
-      </c>
-      <c r="E1" s="71" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="67">
-        <v>425</v>
-      </c>
-      <c r="B2" s="68">
-        <v>1200</v>
-      </c>
-      <c r="C2" s="69">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:17" s="72" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="B4" s="72" t="s">
-        <v>296</v>
-      </c>
-      <c r="C4" s="73" t="s">
-        <v>291</v>
-      </c>
-      <c r="D4" s="74" t="s">
-        <v>292</v>
-      </c>
-      <c r="E4" s="75" t="s">
-        <v>293</v>
-      </c>
-      <c r="F4" s="73" t="s">
-        <v>297</v>
-      </c>
-      <c r="G4" s="74" t="s">
-        <v>298</v>
-      </c>
-      <c r="H4" s="75" t="s">
-        <v>300</v>
-      </c>
-      <c r="I4" s="73" t="s">
-        <v>304</v>
-      </c>
-      <c r="J4" s="74" t="s">
-        <v>305</v>
-      </c>
-      <c r="K4" s="75" t="s">
-        <v>299</v>
-      </c>
-      <c r="L4" s="73" t="s">
-        <v>306</v>
-      </c>
-      <c r="M4" s="74" t="s">
-        <v>307</v>
-      </c>
-      <c r="N4" s="75" t="s">
-        <v>308</v>
-      </c>
-      <c r="O4" s="73" t="s">
-        <v>309</v>
-      </c>
-      <c r="P4" s="74" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q4" s="75" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="59" t="s">
-        <v>273</v>
-      </c>
-      <c r="B5" s="61">
-        <f t="shared" ref="B5:H5" si="0">$A2*$B2</f>
-        <v>510000</v>
-      </c>
-      <c r="C5" s="76">
-        <f t="shared" si="0"/>
-        <v>510000</v>
-      </c>
-      <c r="D5" s="77">
-        <f t="shared" si="0"/>
-        <v>510000</v>
-      </c>
-      <c r="E5" s="78">
-        <f t="shared" si="0"/>
-        <v>510000</v>
-      </c>
-      <c r="F5" s="76">
-        <f t="shared" si="0"/>
-        <v>510000</v>
-      </c>
-      <c r="G5" s="77">
-        <f t="shared" si="0"/>
-        <v>510000</v>
-      </c>
-      <c r="H5" s="78">
-        <f t="shared" si="0"/>
-        <v>510000</v>
-      </c>
-      <c r="I5" s="76">
-        <f t="shared" ref="I5:K5" si="1">$A2*$B2</f>
-        <v>510000</v>
-      </c>
-      <c r="J5" s="77">
-        <f t="shared" si="1"/>
-        <v>510000</v>
-      </c>
-      <c r="K5" s="78">
-        <f t="shared" si="1"/>
-        <v>510000</v>
-      </c>
-      <c r="L5" s="76">
-        <f t="shared" ref="L5:N5" si="2">$A2*$B2</f>
-        <v>510000</v>
-      </c>
-      <c r="M5" s="77">
-        <f t="shared" si="2"/>
-        <v>510000</v>
-      </c>
-      <c r="N5" s="78">
-        <f t="shared" si="2"/>
-        <v>510000</v>
-      </c>
-      <c r="O5" s="76">
-        <f t="shared" ref="O5:Q5" si="3">$A2*$B2</f>
-        <v>510000</v>
-      </c>
-      <c r="P5" s="77">
-        <f t="shared" si="3"/>
-        <v>510000</v>
-      </c>
-      <c r="Q5" s="78">
-        <f t="shared" si="3"/>
-        <v>510000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="61">
-        <f t="shared" ref="B6:H6" si="4">SUM(B7:B10)</f>
-        <v>150000</v>
-      </c>
-      <c r="C6" s="76">
-        <f t="shared" si="4"/>
-        <v>150000</v>
-      </c>
-      <c r="D6" s="77">
-        <f t="shared" si="4"/>
-        <v>150000</v>
-      </c>
-      <c r="E6" s="78">
-        <f t="shared" si="4"/>
-        <v>162500</v>
-      </c>
-      <c r="F6" s="76">
-        <f t="shared" si="4"/>
-        <v>156000</v>
-      </c>
-      <c r="G6" s="77">
-        <f t="shared" si="4"/>
-        <v>147500</v>
-      </c>
-      <c r="H6" s="78">
-        <f t="shared" si="4"/>
-        <v>148000</v>
-      </c>
-      <c r="I6" s="76">
-        <f t="shared" ref="I6:K6" si="5">SUM(I7:I10)</f>
-        <v>144000</v>
-      </c>
-      <c r="J6" s="77">
-        <f t="shared" si="5"/>
-        <v>148000</v>
-      </c>
-      <c r="K6" s="78">
-        <f t="shared" si="5"/>
-        <v>149000</v>
-      </c>
-      <c r="L6" s="76">
-        <f t="shared" ref="L6" si="6">SUM(L7:L10)</f>
-        <v>150000</v>
-      </c>
-      <c r="M6" s="77">
-        <f t="shared" ref="M6" si="7">SUM(M7:M10)</f>
-        <v>153750</v>
-      </c>
-      <c r="N6" s="78">
-        <f t="shared" ref="N6" si="8">SUM(N7:N10)</f>
-        <v>142500</v>
-      </c>
-      <c r="O6" s="76">
-        <f t="shared" ref="O6" si="9">SUM(O7:O10)</f>
-        <v>150000</v>
-      </c>
-      <c r="P6" s="77">
-        <f t="shared" ref="P6" si="10">SUM(P7:P10)</f>
-        <v>150000</v>
-      </c>
-      <c r="Q6" s="78">
-        <f t="shared" ref="Q6" si="11">SUM(Q7:Q10)</f>
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B7" s="60">
-        <v>30000</v>
-      </c>
-      <c r="C7" s="79">
-        <v>30000</v>
-      </c>
-      <c r="D7" s="24">
-        <v>30000</v>
-      </c>
-      <c r="E7" s="80">
-        <v>30000</v>
-      </c>
-      <c r="F7" s="82">
-        <v>36000</v>
-      </c>
-      <c r="G7" s="24">
-        <v>30000</v>
-      </c>
-      <c r="H7" s="80">
-        <v>30000</v>
-      </c>
-      <c r="I7" s="82">
-        <v>39000</v>
-      </c>
-      <c r="J7" s="24">
-        <v>30000</v>
-      </c>
-      <c r="K7" s="80">
-        <v>30000</v>
-      </c>
-      <c r="L7" s="79">
-        <v>30000</v>
-      </c>
-      <c r="M7" s="24">
-        <v>30000</v>
-      </c>
-      <c r="N7" s="80">
-        <v>30000</v>
-      </c>
-      <c r="O7" s="79">
-        <v>30000</v>
-      </c>
-      <c r="P7" s="24">
-        <v>30000</v>
-      </c>
-      <c r="Q7" s="80">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B8" s="60">
-        <v>20000</v>
-      </c>
-      <c r="C8" s="79">
-        <v>20000</v>
-      </c>
-      <c r="D8" s="24">
-        <v>20000</v>
-      </c>
-      <c r="E8" s="80">
-        <v>20000</v>
-      </c>
-      <c r="F8" s="79">
-        <v>20000</v>
-      </c>
-      <c r="G8" s="24">
-        <v>20000</v>
-      </c>
-      <c r="H8" s="83">
-        <v>18000</v>
-      </c>
-      <c r="I8" s="94">
-        <v>5000</v>
-      </c>
-      <c r="J8" s="85">
-        <v>18000</v>
-      </c>
-      <c r="K8" s="83">
-        <v>19000</v>
-      </c>
-      <c r="L8" s="79">
-        <v>20000</v>
-      </c>
-      <c r="M8" s="24">
-        <v>20000</v>
-      </c>
-      <c r="N8" s="80">
-        <v>20000</v>
-      </c>
-      <c r="O8" s="79">
-        <v>20000</v>
-      </c>
-      <c r="P8" s="24">
-        <v>20000</v>
-      </c>
-      <c r="Q8" s="80">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B9" s="60">
-        <v>75000</v>
-      </c>
-      <c r="C9" s="79">
-        <v>75000</v>
-      </c>
-      <c r="D9" s="24">
-        <v>75000</v>
-      </c>
-      <c r="E9" s="80">
-        <v>75000</v>
-      </c>
-      <c r="F9" s="79">
-        <v>75000</v>
-      </c>
-      <c r="G9" s="24">
-        <v>75000</v>
-      </c>
-      <c r="H9" s="80">
-        <v>75000</v>
-      </c>
-      <c r="I9" s="79">
-        <v>75000</v>
-      </c>
-      <c r="J9" s="24">
-        <v>75000</v>
-      </c>
-      <c r="K9" s="80">
-        <v>75000</v>
-      </c>
-      <c r="L9" s="79">
-        <v>75000</v>
-      </c>
-      <c r="M9" s="84">
-        <v>78750</v>
-      </c>
-      <c r="N9" s="83">
-        <v>67500</v>
-      </c>
-      <c r="O9" s="79">
-        <v>75000</v>
-      </c>
-      <c r="P9" s="24">
-        <v>75000</v>
-      </c>
-      <c r="Q9" s="80">
-        <v>75000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>272</v>
-      </c>
-      <c r="B10" s="60">
-        <v>25000</v>
-      </c>
-      <c r="C10" s="79">
-        <v>25000</v>
-      </c>
-      <c r="D10" s="24">
-        <v>25000</v>
-      </c>
-      <c r="E10" s="81">
-        <v>37500</v>
-      </c>
-      <c r="F10" s="79">
-        <v>25000</v>
-      </c>
-      <c r="G10" s="85">
-        <v>22500</v>
-      </c>
-      <c r="H10" s="80">
-        <v>25000</v>
-      </c>
-      <c r="I10" s="79">
-        <v>25000</v>
-      </c>
-      <c r="J10" s="24">
-        <v>25000</v>
-      </c>
-      <c r="K10" s="80">
-        <v>25000</v>
-      </c>
-      <c r="L10" s="79">
-        <v>25000</v>
-      </c>
-      <c r="M10" s="24">
-        <v>25000</v>
-      </c>
-      <c r="N10" s="80">
-        <v>25000</v>
-      </c>
-      <c r="O10" s="79">
-        <v>25000</v>
-      </c>
-      <c r="P10" s="24">
-        <v>25000</v>
-      </c>
-      <c r="Q10" s="80">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="59" t="s">
-        <v>274</v>
-      </c>
-      <c r="B11" s="61">
-        <f t="shared" ref="B11:H11" si="12">B5-B6</f>
-        <v>360000</v>
-      </c>
-      <c r="C11" s="76">
-        <f t="shared" si="12"/>
-        <v>360000</v>
-      </c>
-      <c r="D11" s="77">
-        <f t="shared" si="12"/>
-        <v>360000</v>
-      </c>
-      <c r="E11" s="78">
-        <f t="shared" si="12"/>
-        <v>347500</v>
-      </c>
-      <c r="F11" s="76">
-        <f t="shared" si="12"/>
-        <v>354000</v>
-      </c>
-      <c r="G11" s="77">
-        <f t="shared" si="12"/>
-        <v>362500</v>
-      </c>
-      <c r="H11" s="78">
-        <f t="shared" si="12"/>
-        <v>362000</v>
-      </c>
-      <c r="I11" s="76">
-        <f t="shared" ref="I11:K11" si="13">I5-I6</f>
-        <v>366000</v>
-      </c>
-      <c r="J11" s="77">
-        <f t="shared" si="13"/>
-        <v>362000</v>
-      </c>
-      <c r="K11" s="78">
-        <f t="shared" si="13"/>
-        <v>361000</v>
-      </c>
-      <c r="L11" s="76">
-        <f t="shared" ref="L11:N11" si="14">L5-L6</f>
-        <v>360000</v>
-      </c>
-      <c r="M11" s="77">
-        <f t="shared" si="14"/>
-        <v>356250</v>
-      </c>
-      <c r="N11" s="78">
-        <f t="shared" si="14"/>
-        <v>367500</v>
-      </c>
-      <c r="O11" s="76">
-        <f t="shared" ref="O11:Q11" si="15">O5-O6</f>
-        <v>360000</v>
-      </c>
-      <c r="P11" s="77">
-        <f t="shared" si="15"/>
-        <v>360000</v>
-      </c>
-      <c r="Q11" s="78">
-        <f t="shared" si="15"/>
-        <v>360000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="59" t="s">
-        <v>275</v>
-      </c>
-      <c r="B12" s="61">
-        <f t="shared" ref="B12:H12" si="16">SUM(B13:B15)</f>
-        <v>300000</v>
-      </c>
-      <c r="C12" s="76">
-        <f t="shared" si="16"/>
-        <v>322500</v>
-      </c>
-      <c r="D12" s="77">
-        <f t="shared" si="16"/>
-        <v>325000</v>
-      </c>
-      <c r="E12" s="78">
-        <f t="shared" si="16"/>
-        <v>285000</v>
-      </c>
-      <c r="F12" s="76">
-        <f t="shared" si="16"/>
-        <v>300000</v>
-      </c>
-      <c r="G12" s="77">
-        <f t="shared" si="16"/>
-        <v>300000</v>
-      </c>
-      <c r="H12" s="78">
-        <f t="shared" si="16"/>
-        <v>300000</v>
-      </c>
-      <c r="I12" s="76">
-        <f t="shared" ref="I12:K12" si="17">SUM(I13:I15)</f>
-        <v>300000</v>
-      </c>
-      <c r="J12" s="77">
-        <f t="shared" si="17"/>
-        <v>320000</v>
-      </c>
-      <c r="K12" s="78">
-        <f t="shared" si="17"/>
-        <v>315000</v>
-      </c>
-      <c r="L12" s="76">
-        <f t="shared" ref="L12" si="18">SUM(L13:L15)</f>
-        <v>300000</v>
-      </c>
-      <c r="M12" s="77">
-        <f t="shared" ref="M12" si="19">SUM(M13:M15)</f>
-        <v>300000</v>
-      </c>
-      <c r="N12" s="78">
-        <f t="shared" ref="N12" si="20">SUM(N13:N15)</f>
-        <v>315000</v>
-      </c>
-      <c r="O12" s="76">
-        <f t="shared" ref="O12" si="21">SUM(O13:O15)</f>
-        <v>300000</v>
-      </c>
-      <c r="P12" s="77">
-        <f t="shared" ref="P12" si="22">SUM(P13:P15)</f>
-        <v>300000</v>
-      </c>
-      <c r="Q12" s="78">
-        <f t="shared" ref="Q12" si="23">SUM(Q13:Q15)</f>
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>276</v>
-      </c>
-      <c r="B13" s="60">
-        <v>150000</v>
-      </c>
-      <c r="C13" s="82">
-        <v>172500</v>
-      </c>
-      <c r="D13" s="24">
-        <v>150000</v>
-      </c>
-      <c r="E13" s="83">
-        <v>135000</v>
-      </c>
-      <c r="F13" s="79">
-        <v>150000</v>
-      </c>
-      <c r="G13" s="24">
-        <v>150000</v>
-      </c>
-      <c r="H13" s="80">
-        <v>150000</v>
-      </c>
-      <c r="I13" s="79">
-        <v>150000</v>
-      </c>
-      <c r="J13" s="24">
-        <v>150000</v>
-      </c>
-      <c r="K13" s="81">
-        <v>165000</v>
-      </c>
-      <c r="L13" s="79">
-        <v>150000</v>
-      </c>
-      <c r="M13" s="24">
-        <v>150000</v>
-      </c>
-      <c r="N13" s="81">
-        <v>165000</v>
-      </c>
-      <c r="O13" s="79">
-        <v>150000</v>
-      </c>
-      <c r="P13" s="24">
-        <v>150000</v>
-      </c>
-      <c r="Q13" s="80">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>277</v>
-      </c>
-      <c r="B14" s="60">
-        <v>50000</v>
-      </c>
-      <c r="C14" s="79">
-        <v>50000</v>
-      </c>
-      <c r="D14" s="24">
-        <v>50000</v>
-      </c>
-      <c r="E14" s="80">
-        <v>50000</v>
-      </c>
-      <c r="F14" s="79">
-        <v>50000</v>
-      </c>
-      <c r="G14" s="24">
-        <v>50000</v>
-      </c>
-      <c r="H14" s="80">
-        <v>50000</v>
-      </c>
-      <c r="I14" s="79">
-        <v>50000</v>
-      </c>
-      <c r="J14" s="24">
-        <v>50000</v>
-      </c>
-      <c r="K14" s="80">
-        <v>50000</v>
-      </c>
-      <c r="L14" s="79">
-        <v>50000</v>
-      </c>
-      <c r="M14" s="24">
-        <v>50000</v>
-      </c>
-      <c r="N14" s="80">
-        <v>50000</v>
-      </c>
-      <c r="O14" s="79">
-        <v>50000</v>
-      </c>
-      <c r="P14" s="24">
-        <v>50000</v>
-      </c>
-      <c r="Q14" s="80">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>278</v>
-      </c>
-      <c r="B15" s="60">
-        <v>100000</v>
-      </c>
-      <c r="C15" s="79">
-        <v>100000</v>
-      </c>
-      <c r="D15" s="84">
-        <v>125000</v>
-      </c>
-      <c r="E15" s="80">
-        <v>100000</v>
-      </c>
-      <c r="F15" s="79">
-        <v>100000</v>
-      </c>
-      <c r="G15" s="24">
-        <v>100000</v>
-      </c>
-      <c r="H15" s="80">
-        <v>100000</v>
-      </c>
-      <c r="I15" s="79">
-        <v>100000</v>
-      </c>
-      <c r="J15" s="84">
-        <v>120000</v>
-      </c>
-      <c r="K15" s="80">
-        <v>100000</v>
-      </c>
-      <c r="L15" s="79">
-        <v>100000</v>
-      </c>
-      <c r="M15" s="24">
-        <v>100000</v>
-      </c>
-      <c r="N15" s="80">
-        <v>100000</v>
-      </c>
-      <c r="O15" s="79">
-        <v>100000</v>
-      </c>
-      <c r="P15" s="24">
-        <v>100000</v>
-      </c>
-      <c r="Q15" s="80">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="59" t="s">
-        <v>279</v>
-      </c>
-      <c r="B16" s="61">
-        <f t="shared" ref="B16:H16" si="24">B11-B12</f>
-        <v>60000</v>
-      </c>
-      <c r="C16" s="76">
-        <f t="shared" si="24"/>
-        <v>37500</v>
-      </c>
-      <c r="D16" s="77">
-        <f t="shared" si="24"/>
-        <v>35000</v>
-      </c>
-      <c r="E16" s="78">
-        <f t="shared" si="24"/>
-        <v>62500</v>
-      </c>
-      <c r="F16" s="76">
-        <f t="shared" si="24"/>
-        <v>54000</v>
-      </c>
-      <c r="G16" s="77">
-        <f t="shared" si="24"/>
-        <v>62500</v>
-      </c>
-      <c r="H16" s="78">
-        <f t="shared" si="24"/>
-        <v>62000</v>
-      </c>
-      <c r="I16" s="76">
-        <f t="shared" ref="I16:K16" si="25">I11-I12</f>
-        <v>66000</v>
-      </c>
-      <c r="J16" s="77">
-        <f t="shared" si="25"/>
-        <v>42000</v>
-      </c>
-      <c r="K16" s="78">
-        <f t="shared" si="25"/>
-        <v>46000</v>
-      </c>
-      <c r="L16" s="76">
-        <f t="shared" ref="L16:N16" si="26">L11-L12</f>
-        <v>60000</v>
-      </c>
-      <c r="M16" s="77">
-        <f t="shared" si="26"/>
-        <v>56250</v>
-      </c>
-      <c r="N16" s="78">
-        <f t="shared" si="26"/>
-        <v>52500</v>
-      </c>
-      <c r="O16" s="76">
-        <f t="shared" ref="O16:Q16" si="27">O11-O12</f>
-        <v>60000</v>
-      </c>
-      <c r="P16" s="77">
-        <f t="shared" si="27"/>
-        <v>60000</v>
-      </c>
-      <c r="Q16" s="78">
-        <f t="shared" si="27"/>
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C17" s="23"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="23"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="23"/>
-      <c r="J17"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="23"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="23"/>
-      <c r="Q17" s="25"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C18" s="23"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="23"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="23"/>
-      <c r="J18"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="23"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="23"/>
-      <c r="Q18" s="25"/>
-    </row>
-    <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="59" t="s">
-        <v>283</v>
-      </c>
-      <c r="B19">
-        <f>(B16/B5)*100</f>
-        <v>11.76470588235294</v>
-      </c>
-      <c r="C19" s="26">
-        <f>(C16/C5)*100</f>
-        <v>7.3529411764705888</v>
-      </c>
-      <c r="D19" s="27">
-        <f t="shared" ref="D19:E19" si="28">(D16/D5)*100</f>
-        <v>6.8627450980392162</v>
-      </c>
-      <c r="E19" s="28">
-        <f t="shared" si="28"/>
-        <v>12.254901960784313</v>
-      </c>
-      <c r="F19" s="26">
-        <f>(F16/F5)*100</f>
-        <v>10.588235294117647</v>
-      </c>
-      <c r="G19" s="27">
-        <f t="shared" ref="G19:K19" si="29">(G16/G5)*100</f>
-        <v>12.254901960784313</v>
-      </c>
-      <c r="H19" s="28">
-        <f t="shared" si="29"/>
-        <v>12.156862745098039</v>
-      </c>
-      <c r="I19" s="26">
-        <f t="shared" si="29"/>
-        <v>12.941176470588237</v>
-      </c>
-      <c r="J19" s="27">
-        <f t="shared" si="29"/>
-        <v>8.235294117647058</v>
-      </c>
-      <c r="K19" s="28">
-        <f t="shared" si="29"/>
-        <v>9.0196078431372548</v>
-      </c>
-      <c r="L19" s="26">
-        <f t="shared" ref="L19:N19" si="30">(L16/L5)*100</f>
-        <v>11.76470588235294</v>
-      </c>
-      <c r="M19" s="27">
-        <f t="shared" si="30"/>
-        <v>11.029411764705882</v>
-      </c>
-      <c r="N19" s="28">
-        <f t="shared" si="30"/>
-        <v>10.294117647058822</v>
-      </c>
-      <c r="O19" s="26">
-        <f t="shared" ref="O19:Q19" si="31">(O16/O5)*100</f>
-        <v>11.76470588235294</v>
-      </c>
-      <c r="P19" s="27">
-        <f t="shared" si="31"/>
-        <v>11.76470588235294</v>
-      </c>
-      <c r="Q19" s="28">
-        <f t="shared" si="31"/>
-        <v>11.76470588235294</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>282</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20D33E56-2853-4F13-BBDD-45B1A76680BC}">
   <dimension ref="A1:L17"/>
   <sheetViews>
@@ -8288,4 +5583,2716 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51BE0341-022D-45D3-A21C-8DD04DC4C081}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:J82"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.44140625" style="30" customWidth="1"/>
+    <col min="2" max="2" width="1.44140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="1.44140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" style="30" customWidth="1"/>
+    <col min="6" max="6" width="1.44140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="1.44140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" style="30" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" style="30" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J1" s="30" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="J2" s="30" t="str">
+        <f>_xlfn.CONCAT(A2:I2)</f>
+        <v>Start,1A,2A,3A,4A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="J3" s="30" t="str">
+        <f t="shared" ref="J3:J28" si="0">_xlfn.CONCAT(A3:I3)</f>
+        <v>Start,1A,2A,3A,4B</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="J4" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>Start,1A,2A,3A,4C</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="J5" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>Start,1A,2A,3B,4A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="J6" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>Start,1A,2A,3B,4B</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="J7" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>Start,1A,2A,3B,4C</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="J8" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>Start,1A,2A,3C,4A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="J9" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>Start,1A,2A,3C,4B</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="J10" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>Start,1A,2A,3C,4C</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="J11" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>Start,1A,2B,3A,4A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="J12" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>Start,1A,2B,3A,4B</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="J13" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>Start,1A,2B,3A,4C</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="J14" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>Start,1A,2B,3B,4A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="J15" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>Start,1A,2B,3B,4B</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="J16" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>Start,1A,2B,3B,4C</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="J17" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>Start,1A,2B,3C,4A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="J18" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>Start,1A,2B,3C,4B</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="J19" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>Start,1A,2B,3C,4C</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="J20" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>Start,1A,2C,3A,4A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="J21" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>Start,1A,2C,3A,4B</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I22" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="J22" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>Start,1A,2C,3A,4C</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I23" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="J23" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>Start,1A,2C,3B,4A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I24" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="J24" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>Start,1A,2C,3B,4B</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I25" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="J25" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>Start,1A,2C,3B,4C</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I26" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="J26" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>Start,1A,2C,3C,4A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="J27" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>Start,1A,2C,3C,4B</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I28" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="J28" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>Start,1A,2C,3C,4C</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I29" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="J29" s="30" t="str">
+        <f>_xlfn.CONCAT(A29:I29)</f>
+        <v>Start,1B,2A,3A,4A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="F30" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G30" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="H30" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I30" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="J30" s="30" t="str">
+        <f t="shared" ref="J30:J55" si="1">_xlfn.CONCAT(A30:I30)</f>
+        <v>Start,1B,2A,3A,4B</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="H31" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I31" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="J31" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Start,1B,2A,3A,4C</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="H32" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I32" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="J32" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Start,1B,2A,3B,4A</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="F33" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="H33" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I33" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="J33" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Start,1B,2A,3B,4B</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="F34" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G34" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="H34" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I34" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="J34" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Start,1B,2A,3B,4C</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G35" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="H35" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I35" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="J35" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Start,1B,2A,3C,4A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="F36" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G36" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="H36" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I36" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="J36" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Start,1B,2A,3C,4B</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G37" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="H37" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I37" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="J37" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Start,1B,2A,3C,4C</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="F38" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G38" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="H38" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I38" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="J38" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Start,1B,2B,3A,4A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="F39" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G39" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="H39" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I39" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="J39" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Start,1B,2B,3A,4B</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="F40" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G40" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="H40" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I40" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="J40" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Start,1B,2B,3A,4C</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E41" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="F41" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G41" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="H41" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I41" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="J41" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Start,1B,2B,3B,4A</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="F42" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G42" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="H42" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I42" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="J42" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Start,1B,2B,3B,4B</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E43" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="F43" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G43" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="H43" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I43" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="J43" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Start,1B,2B,3B,4C</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="F44" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G44" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="H44" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I44" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="J44" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Start,1B,2B,3C,4A</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="F45" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G45" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="H45" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I45" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="J45" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Start,1B,2B,3C,4B</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="F46" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G46" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="H46" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I46" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="J46" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Start,1B,2B,3C,4C</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E47" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="F47" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G47" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="H47" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I47" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="J47" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Start,1B,2C,3A,4A</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="D48" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E48" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="F48" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G48" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="H48" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I48" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="J48" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Start,1B,2C,3A,4B</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E49" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="F49" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G49" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="H49" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I49" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="J49" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Start,1B,2C,3A,4C</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="D50" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E50" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="F50" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G50" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="H50" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I50" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="J50" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Start,1B,2C,3B,4A</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E51" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="F51" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G51" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="H51" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I51" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="J51" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Start,1B,2C,3B,4B</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B52" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="D52" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E52" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="F52" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G52" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="H52" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I52" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="J52" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Start,1B,2C,3B,4C</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E53" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="F53" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G53" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="H53" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I53" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="J53" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Start,1B,2C,3C,4A</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="D54" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E54" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="F54" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G54" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="H54" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I54" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="J54" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Start,1B,2C,3C,4B</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B55" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C55" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="D55" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E55" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="F55" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G55" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="H55" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I55" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="J55" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Start,1B,2C,3C,4C</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B56" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="D56" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E56" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="F56" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G56" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="H56" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I56" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="J56" s="30" t="str">
+        <f>_xlfn.CONCAT(A56:I56)</f>
+        <v>Start,1C,2A,3A,4A</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B57" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="D57" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E57" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="F57" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G57" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="H57" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I57" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="J57" s="30" t="str">
+        <f t="shared" ref="J57:J82" si="2">_xlfn.CONCAT(A57:I57)</f>
+        <v>Start,1C,2A,3A,4B</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B58" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="D58" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E58" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="F58" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G58" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="H58" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I58" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="J58" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>Start,1C,2A,3A,4C</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B59" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="D59" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E59" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="F59" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G59" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="H59" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I59" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="J59" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>Start,1C,2A,3B,4A</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B60" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C60" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="D60" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E60" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="F60" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G60" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="H60" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I60" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="J60" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>Start,1C,2A,3B,4B</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B61" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C61" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="D61" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E61" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="F61" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G61" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="H61" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I61" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="J61" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>Start,1C,2A,3B,4C</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B62" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C62" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="D62" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E62" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="F62" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G62" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="H62" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I62" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="J62" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>Start,1C,2A,3C,4A</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B63" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="D63" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E63" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="F63" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G63" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="H63" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I63" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="J63" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>Start,1C,2A,3C,4B</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B64" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C64" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="D64" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E64" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="F64" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G64" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="H64" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I64" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="J64" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>Start,1C,2A,3C,4C</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B65" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C65" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="D65" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E65" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="F65" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G65" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="H65" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I65" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="J65" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>Start,1C,2B,3A,4A</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B66" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C66" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="D66" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E66" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="F66" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G66" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="H66" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I66" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="J66" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>Start,1C,2B,3A,4B</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B67" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C67" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="D67" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E67" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="F67" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G67" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="H67" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I67" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="J67" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>Start,1C,2B,3A,4C</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B68" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C68" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="D68" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E68" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="F68" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G68" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="H68" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I68" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="J68" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>Start,1C,2B,3B,4A</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B69" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C69" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="D69" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E69" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="F69" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G69" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="H69" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I69" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="J69" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>Start,1C,2B,3B,4B</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B70" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C70" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="D70" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E70" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="F70" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G70" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="H70" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I70" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="J70" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>Start,1C,2B,3B,4C</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B71" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C71" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="D71" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E71" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="F71" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G71" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="H71" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I71" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="J71" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>Start,1C,2B,3C,4A</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B72" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C72" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="D72" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E72" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="F72" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G72" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="H72" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I72" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="J72" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>Start,1C,2B,3C,4B</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B73" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C73" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="D73" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E73" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="F73" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G73" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="H73" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I73" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="J73" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>Start,1C,2B,3C,4C</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B74" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C74" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="D74" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E74" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="F74" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G74" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="H74" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I74" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="J74" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>Start,1C,2C,3A,4A</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B75" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C75" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="D75" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E75" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="F75" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G75" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="H75" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I75" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="J75" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>Start,1C,2C,3A,4B</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B76" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C76" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="D76" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E76" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="F76" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G76" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="H76" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I76" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="J76" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>Start,1C,2C,3A,4C</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B77" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C77" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="D77" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E77" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="F77" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G77" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="H77" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I77" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="J77" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>Start,1C,2C,3B,4A</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B78" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C78" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="D78" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E78" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="F78" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G78" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="H78" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I78" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="J78" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>Start,1C,2C,3B,4B</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B79" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C79" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="D79" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E79" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="F79" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G79" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="H79" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I79" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="J79" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>Start,1C,2C,3B,4C</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B80" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C80" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="D80" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E80" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="F80" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G80" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="H80" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I80" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="J80" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>Start,1C,2C,3C,4A</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B81" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C81" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="D81" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E81" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="F81" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G81" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="H81" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I81" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="J81" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>Start,1C,2C,3C,4B</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B82" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C82" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="D82" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E82" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="F82" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G82" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="H82" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I82" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="J82" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>Start,1C,2C,3C,4C</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J61" xr:uid="{51BE0341-022D-45D3-A21C-8DD04DC4C081}"/>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/logic&wireframe.xlsx
+++ b/logic&wireframe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leget\.vscode\Project1-Game_On!\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5563D2B3-051C-4B14-BBD6-2367509FDC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B653FBF-C393-4381-91D9-219E68889485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22632" yWindow="2160" windowWidth="10992" windowHeight="8892" firstSheet="9" activeTab="9" xr2:uid="{E50A2355-E4AA-4DEF-98AA-AC6A4FB464C4}"/>
+    <workbookView xWindow="22932" yWindow="936" windowWidth="11016" windowHeight="18696" firstSheet="9" activeTab="9" xr2:uid="{E50A2355-E4AA-4DEF-98AA-AC6A4FB464C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1712,7 +1712,31 @@
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1724,31 +1748,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2530,8 +2530,8 @@
   </sheetPr>
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3457,7 +3457,7 @@
   </sheetPr>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
@@ -3498,10 +3498,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="101">
+      <c r="A2" s="104">
         <v>1</v>
       </c>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="101" t="s">
         <v>172</v>
       </c>
       <c r="C2" s="50" t="s">
@@ -3525,8 +3525,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="101"/>
-      <c r="B3" s="112"/>
+      <c r="A3" s="104"/>
+      <c r="B3" s="102"/>
       <c r="C3" s="41" t="s">
         <v>185</v>
       </c>
@@ -3550,8 +3550,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="101"/>
-      <c r="B4" s="113"/>
+      <c r="A4" s="104"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="86" t="s">
         <v>219</v>
       </c>
@@ -3575,10 +3575,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="101">
+      <c r="A5" s="104">
         <v>2</v>
       </c>
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="105" t="s">
         <v>173</v>
       </c>
       <c r="C5" s="45" t="s">
@@ -3604,8 +3604,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" s="101"/>
-      <c r="B6" s="109"/>
+      <c r="A6" s="104"/>
+      <c r="B6" s="106"/>
       <c r="C6" s="43" t="s">
         <v>232</v>
       </c>
@@ -3629,8 +3629,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="101"/>
-      <c r="B7" s="110"/>
+      <c r="A7" s="104"/>
+      <c r="B7" s="107"/>
       <c r="C7" s="48" t="s">
         <v>194</v>
       </c>
@@ -3652,10 +3652,10 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="101">
+      <c r="A8" s="104">
         <v>3</v>
       </c>
-      <c r="B8" s="111" t="s">
+      <c r="B8" s="101" t="s">
         <v>174</v>
       </c>
       <c r="C8" s="95" t="s">
@@ -3679,8 +3679,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="101"/>
-      <c r="B9" s="112"/>
+      <c r="A9" s="104"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="41" t="s">
         <v>196</v>
       </c>
@@ -3702,8 +3702,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="101"/>
-      <c r="B10" s="113"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="53" t="s">
         <v>234</v>
       </c>
@@ -3727,10 +3727,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="101">
+      <c r="A11" s="104">
         <v>4</v>
       </c>
-      <c r="B11" s="108" t="s">
+      <c r="B11" s="105" t="s">
         <v>175</v>
       </c>
       <c r="C11" s="95" t="s">
@@ -3756,8 +3756,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="101"/>
-      <c r="B12" s="109"/>
+      <c r="A12" s="104"/>
+      <c r="B12" s="106"/>
       <c r="C12" s="44" t="s">
         <v>238</v>
       </c>
@@ -3781,8 +3781,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="101"/>
-      <c r="B13" s="110"/>
+      <c r="A13" s="104"/>
+      <c r="B13" s="107"/>
       <c r="C13" s="48" t="s">
         <v>239</v>
       </c>
@@ -3804,10 +3804,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="101">
+      <c r="A14" s="104">
         <v>5</v>
       </c>
-      <c r="B14" s="107" t="s">
+      <c r="B14" s="108" t="s">
         <v>176</v>
       </c>
       <c r="C14" s="55" t="s">
@@ -3822,8 +3822,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="101"/>
-      <c r="B15" s="107"/>
+      <c r="A15" s="104"/>
+      <c r="B15" s="108"/>
       <c r="C15" s="41" t="s">
         <v>203</v>
       </c>
@@ -3838,8 +3838,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="101"/>
-      <c r="B16" s="105"/>
+      <c r="A16" s="104"/>
+      <c r="B16" s="109"/>
       <c r="C16" s="53" t="s">
         <v>209</v>
       </c>
@@ -3854,10 +3854,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="101">
+      <c r="A17" s="104">
         <v>6</v>
       </c>
-      <c r="B17" s="102" t="s">
+      <c r="B17" s="110" t="s">
         <v>177</v>
       </c>
       <c r="C17" s="45" t="s">
@@ -3874,8 +3874,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="87" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="101"/>
-      <c r="B18" s="103"/>
+      <c r="A18" s="104"/>
+      <c r="B18" s="111"/>
       <c r="C18" s="48" t="s">
         <v>249</v>
       </c>
@@ -3888,10 +3888,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="101">
+      <c r="A19" s="104">
         <v>7</v>
       </c>
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="112" t="s">
         <v>178</v>
       </c>
       <c r="C19" s="50" t="s">
@@ -3908,8 +3908,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="101"/>
-      <c r="B20" s="105"/>
+      <c r="A20" s="104"/>
+      <c r="B20" s="109"/>
       <c r="C20" s="42" t="s">
         <v>252</v>
       </c>
@@ -3922,10 +3922,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="101">
+      <c r="A21" s="104">
         <v>8</v>
       </c>
-      <c r="B21" s="102" t="s">
+      <c r="B21" s="110" t="s">
         <v>179</v>
       </c>
       <c r="C21" s="45" t="s">
@@ -3942,8 +3942,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="101"/>
-      <c r="B22" s="106"/>
+      <c r="A22" s="104"/>
+      <c r="B22" s="113"/>
       <c r="C22" s="44" t="s">
         <v>256</v>
       </c>
@@ -3954,8 +3954,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="101"/>
-      <c r="B23" s="103"/>
+      <c r="A23" s="104"/>
+      <c r="B23" s="111"/>
       <c r="C23" s="48" t="s">
         <v>257</v>
       </c>
@@ -3966,10 +3966,10 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="101">
+      <c r="A24" s="104">
         <v>9</v>
       </c>
-      <c r="B24" s="104" t="s">
+      <c r="B24" s="112" t="s">
         <v>180</v>
       </c>
       <c r="C24" s="50" t="s">
@@ -3986,8 +3986,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="101"/>
-      <c r="B25" s="107"/>
+      <c r="A25" s="104"/>
+      <c r="B25" s="108"/>
       <c r="C25" s="41" t="s">
         <v>260</v>
       </c>
@@ -4000,8 +4000,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="101"/>
-      <c r="B26" s="105"/>
+      <c r="A26" s="104"/>
+      <c r="B26" s="109"/>
       <c r="C26" s="53" t="s">
         <v>261</v>
       </c>
@@ -4014,10 +4014,10 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="101">
+      <c r="A27" s="104">
         <v>10</v>
       </c>
-      <c r="B27" s="102" t="s">
+      <c r="B27" s="110" t="s">
         <v>267</v>
       </c>
       <c r="C27" s="45" t="s">
@@ -4034,8 +4034,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="101"/>
-      <c r="B28" s="103"/>
+      <c r="A28" s="104"/>
+      <c r="B28" s="111"/>
       <c r="C28" s="48" t="s">
         <v>269</v>
       </c>
@@ -4052,18 +4052,6 @@
   </sheetData>
   <autoFilter ref="A1:I28" xr:uid="{F795A1BF-E94F-412D-BBCC-0F81FBDBA90C}"/>
   <mergeCells count="20">
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="A19:A20"/>
@@ -4072,6 +4060,18 @@
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/logic&wireframe.xlsx
+++ b/logic&wireframe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leget\.vscode\Project1-Game_On!\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B653FBF-C393-4381-91D9-219E68889485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDADBC0F-77F7-40AA-B745-AFAD45BC17F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="936" windowWidth="11016" windowHeight="18696" firstSheet="9" activeTab="9" xr2:uid="{E50A2355-E4AA-4DEF-98AA-AC6A4FB464C4}"/>
+    <workbookView xWindow="22932" yWindow="936" windowWidth="11016" windowHeight="18696" firstSheet="9" activeTab="9" xr2:uid="{13D35128-FD96-467D-8061-8EC5A7FF3607}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,8 +49,90 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Christopher Legette</author>
+  </authors>
+  <commentList>
+    <comment ref="F38" authorId="0" shapeId="0" xr:uid="{9CA8C5EF-1A67-4E10-ACA7-2AAF0AFC979E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Christopher Legette:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+increased by 20%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H39" authorId="0" shapeId="0" xr:uid="{D2261CB1-D579-4C32-A574-EA6872FEDD5E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Christopher Legette:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+decreased by 10%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G41" authorId="0" shapeId="0" xr:uid="{885D36FF-DA79-4AB6-A9EC-EDCE1315A09F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Christopher Legette:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+decreased by 10%</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="350">
   <si>
     <t>Operating Profit Margin = Operating Income / Net Sales Revenue</t>
   </si>
@@ -1050,6 +1132,75 @@
   </si>
   <si>
     <t>,</t>
+  </si>
+  <si>
+    <t>statementStart</t>
+  </si>
+  <si>
+    <t>statementOne</t>
+  </si>
+  <si>
+    <t>statementTwo</t>
+  </si>
+  <si>
+    <t>statementThree</t>
+  </si>
+  <si>
+    <t>statementFour</t>
+  </si>
+  <si>
+    <t>statementFive</t>
+  </si>
+  <si>
+    <t>statementSix</t>
+  </si>
+  <si>
+    <t>statementSeven</t>
+  </si>
+  <si>
+    <t>statementEight</t>
+  </si>
+  <si>
+    <t>1C + 2C decision</t>
+  </si>
+  <si>
+    <t>1C + 2B decision</t>
+  </si>
+  <si>
+    <t>1C + 2A decision</t>
+  </si>
+  <si>
+    <t>statementNine</t>
+  </si>
+  <si>
+    <t>statementTen</t>
+  </si>
+  <si>
+    <t>statementEleven</t>
+  </si>
+  <si>
+    <t>statementTwelve</t>
+  </si>
+  <si>
+    <t>statementThirteen</t>
+  </si>
+  <si>
+    <t>statementFourteen</t>
+  </si>
+  <si>
+    <t>statementFifteen</t>
+  </si>
+  <si>
+    <t>statementSixteen</t>
+  </si>
+  <si>
+    <t>2b+3A decision</t>
+  </si>
+  <si>
+    <t>2b+3Bdecision</t>
+  </si>
+  <si>
+    <t>2b+3Cdecision</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1211,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1106,6 +1257,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1145,7 +1309,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1466,13 +1630,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1712,16 +1913,25 @@
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1733,24 +1943,29 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -2143,6 +2358,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2524,14 +2743,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF1E804-CCC9-4E83-A7C2-B89895379936}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF1E804-CCC9-4E83-A7C2-B89895379936}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2539,14 +2758,16 @@
     <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.21875" style="30" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.77734375" style="30" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" hidden="1" customWidth="1"/>
+    <col min="6" max="8" width="14.33203125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" style="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.77734375" style="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.21875" style="30" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -3444,9 +3665,462 @@
         <v>282</v>
       </c>
     </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>327</v>
+      </c>
+      <c r="C24" t="s">
+        <v>328</v>
+      </c>
+      <c r="D24" t="s">
+        <v>329</v>
+      </c>
+      <c r="E24" t="s">
+        <v>330</v>
+      </c>
+      <c r="F24" t="s">
+        <v>332</v>
+      </c>
+      <c r="G24" t="s">
+        <v>333</v>
+      </c>
+      <c r="H24" t="s">
+        <v>334</v>
+      </c>
+      <c r="I24" t="s">
+        <v>339</v>
+      </c>
+      <c r="J24" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="K24" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="L24" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="M24" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="N24" s="30" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>331</v>
+      </c>
+      <c r="G28" t="s">
+        <v>335</v>
+      </c>
+      <c r="J28" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="M28" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="33" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="F33" t="s">
+        <v>338</v>
+      </c>
+      <c r="G33" t="s">
+        <v>337</v>
+      </c>
+      <c r="H33" t="s">
+        <v>336</v>
+      </c>
+      <c r="I33" t="s">
+        <v>347</v>
+      </c>
+      <c r="J33" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="K33" s="30" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="34" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="4:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="F35" s="116" t="s">
+        <v>293</v>
+      </c>
+      <c r="G35" s="75" t="s">
+        <v>293</v>
+      </c>
+      <c r="H35" s="75" t="s">
+        <v>293</v>
+      </c>
+      <c r="I35" s="75" t="s">
+        <v>298</v>
+      </c>
+      <c r="J35" s="75" t="s">
+        <v>298</v>
+      </c>
+      <c r="K35" s="75" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="36" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D36" s="59" t="s">
+        <v>273</v>
+      </c>
+      <c r="F36" s="117">
+        <v>510000</v>
+      </c>
+      <c r="G36" s="78">
+        <v>510000</v>
+      </c>
+      <c r="H36" s="78">
+        <v>510000</v>
+      </c>
+      <c r="I36" s="78">
+        <v>510000</v>
+      </c>
+      <c r="J36" s="78">
+        <v>510000</v>
+      </c>
+      <c r="K36" s="78">
+        <v>510000</v>
+      </c>
+    </row>
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D37" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="117">
+        <f>SUM(F38:F41)</f>
+        <v>168500</v>
+      </c>
+      <c r="G37" s="78">
+        <f>SUM(G38:G41)</f>
+        <v>158750</v>
+      </c>
+      <c r="H37" s="78">
+        <f>SUM(H38:H41)</f>
+        <v>160500</v>
+      </c>
+      <c r="I37" s="78">
+        <f>SUM(I38:I41)</f>
+        <v>152750</v>
+      </c>
+      <c r="J37" s="78">
+        <f>SUM(J38:J41)</f>
+        <v>158750</v>
+      </c>
+      <c r="K37" s="78">
+        <f>SUM(K38:K41)</f>
+        <v>158750</v>
+      </c>
+    </row>
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>149</v>
+      </c>
+      <c r="F38" s="123">
+        <v>36000</v>
+      </c>
+      <c r="G38" s="80">
+        <v>30000</v>
+      </c>
+      <c r="H38" s="80">
+        <v>30000</v>
+      </c>
+      <c r="I38" s="81">
+        <v>39000</v>
+      </c>
+      <c r="J38" s="80">
+        <v>30000</v>
+      </c>
+      <c r="K38" s="80">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>150</v>
+      </c>
+      <c r="F39" s="118">
+        <v>20000</v>
+      </c>
+      <c r="G39" s="80">
+        <v>20000</v>
+      </c>
+      <c r="H39" s="83">
+        <v>18000</v>
+      </c>
+      <c r="I39" s="83">
+        <v>5000</v>
+      </c>
+      <c r="J39" s="80">
+        <v>20000</v>
+      </c>
+      <c r="K39" s="80">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>151</v>
+      </c>
+      <c r="F40" s="118">
+        <v>75000</v>
+      </c>
+      <c r="G40" s="80">
+        <v>75000</v>
+      </c>
+      <c r="H40" s="80">
+        <v>75000</v>
+      </c>
+      <c r="I40" s="80">
+        <v>75000</v>
+      </c>
+      <c r="J40" s="80">
+        <v>75000</v>
+      </c>
+      <c r="K40" s="80">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>272</v>
+      </c>
+      <c r="F41" s="119">
+        <v>37500</v>
+      </c>
+      <c r="G41" s="83">
+        <v>33750</v>
+      </c>
+      <c r="H41" s="114">
+        <v>37500</v>
+      </c>
+      <c r="I41" s="114">
+        <v>33750</v>
+      </c>
+      <c r="J41" s="114">
+        <v>33750</v>
+      </c>
+      <c r="K41" s="114">
+        <v>33750</v>
+      </c>
+    </row>
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D42" s="59" t="s">
+        <v>274</v>
+      </c>
+      <c r="F42" s="120">
+        <f>F36-F37</f>
+        <v>341500</v>
+      </c>
+      <c r="G42" s="115">
+        <f>G36-G37</f>
+        <v>351250</v>
+      </c>
+      <c r="H42" s="115">
+        <f>H36-H37</f>
+        <v>349500</v>
+      </c>
+      <c r="I42" s="115">
+        <f>I36-I37</f>
+        <v>357250</v>
+      </c>
+      <c r="J42" s="115">
+        <f>J36-J37</f>
+        <v>351250</v>
+      </c>
+      <c r="K42" s="115">
+        <f>K36-K37</f>
+        <v>351250</v>
+      </c>
+    </row>
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D43" s="59" t="s">
+        <v>275</v>
+      </c>
+      <c r="F43" s="120">
+        <f>SUM(F44:F46)</f>
+        <v>285000</v>
+      </c>
+      <c r="G43" s="115">
+        <f>SUM(G44:G46)</f>
+        <v>285000</v>
+      </c>
+      <c r="H43" s="115">
+        <f>SUM(H44:H46)</f>
+        <v>285000</v>
+      </c>
+      <c r="I43" s="115">
+        <f>SUM(I44:I46)</f>
+        <v>285000</v>
+      </c>
+      <c r="J43" s="115">
+        <f>SUM(J44:J46)</f>
+        <v>285000</v>
+      </c>
+      <c r="K43" s="115">
+        <f>SUM(K44:K46)</f>
+        <v>285000</v>
+      </c>
+    </row>
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>276</v>
+      </c>
+      <c r="F44" s="119">
+        <v>135000</v>
+      </c>
+      <c r="G44" s="114">
+        <v>135000</v>
+      </c>
+      <c r="H44" s="114">
+        <v>135000</v>
+      </c>
+      <c r="I44" s="114">
+        <v>135000</v>
+      </c>
+      <c r="J44" s="114">
+        <v>135000</v>
+      </c>
+      <c r="K44" s="114">
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>277</v>
+      </c>
+      <c r="F45" s="118">
+        <v>50000</v>
+      </c>
+      <c r="G45" s="80">
+        <v>50000</v>
+      </c>
+      <c r="H45" s="80">
+        <v>50000</v>
+      </c>
+      <c r="I45" s="80">
+        <v>50000</v>
+      </c>
+      <c r="J45" s="80">
+        <v>50000</v>
+      </c>
+      <c r="K45" s="80">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
+        <v>278</v>
+      </c>
+      <c r="F46" s="118">
+        <v>100000</v>
+      </c>
+      <c r="G46" s="80">
+        <v>100000</v>
+      </c>
+      <c r="H46" s="80">
+        <v>100000</v>
+      </c>
+      <c r="I46" s="80">
+        <v>100000</v>
+      </c>
+      <c r="J46" s="80">
+        <v>100000</v>
+      </c>
+      <c r="K46" s="80">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D47" s="59" t="s">
+        <v>279</v>
+      </c>
+      <c r="F47" s="117">
+        <f>F42-F43</f>
+        <v>56500</v>
+      </c>
+      <c r="G47" s="78">
+        <f>G42-G43</f>
+        <v>66250</v>
+      </c>
+      <c r="H47" s="78">
+        <f>H42-H43</f>
+        <v>64500</v>
+      </c>
+      <c r="I47" s="78">
+        <f>I42-I43</f>
+        <v>72250</v>
+      </c>
+      <c r="J47" s="78">
+        <f>J42-J43</f>
+        <v>66250</v>
+      </c>
+      <c r="K47" s="78">
+        <f>K42-K43</f>
+        <v>66250</v>
+      </c>
+    </row>
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="F48" s="121"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+    </row>
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="F49" s="121"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+    </row>
+    <row r="50" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D50" s="59" t="s">
+        <v>283</v>
+      </c>
+      <c r="F50" s="122">
+        <f>(F47/F36)*100</f>
+        <v>11.078431372549019</v>
+      </c>
+      <c r="G50" s="124">
+        <f>(G47/G36)*100</f>
+        <v>12.990196078431374</v>
+      </c>
+      <c r="H50" s="28">
+        <f>(H47/H36)*100</f>
+        <v>12.647058823529411</v>
+      </c>
+      <c r="I50" s="125">
+        <f>(I47/I36)*100</f>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="J50" s="125">
+        <f>(J47/J36)*100</f>
+        <v>12.990196078431374</v>
+      </c>
+      <c r="K50" s="125">
+        <f>(K47/K36)*100</f>
+        <v>12.990196078431374</v>
+      </c>
+    </row>
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D51" t="s">
+        <v>282</v>
+      </c>
+      <c r="G51" t="s">
+        <v>298</v>
+      </c>
+      <c r="I51" t="s">
+        <v>304</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3457,15 +4131,16 @@
   </sheetPr>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="19.88671875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="27.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.88671875" style="6" customWidth="1"/>
+    <col min="4" max="5" width="19.88671875" style="6" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="27.21875" style="6" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="24.44140625" style="6" customWidth="1"/>
     <col min="8" max="8" width="10.44140625" style="62" customWidth="1"/>
     <col min="9" max="16384" width="31.5546875" style="6"/>
@@ -3498,10 +4173,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="104">
+      <c r="A2" s="101">
         <v>1</v>
       </c>
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="111" t="s">
         <v>172</v>
       </c>
       <c r="C2" s="50" t="s">
@@ -3525,8 +4200,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="104"/>
-      <c r="B3" s="102"/>
+      <c r="A3" s="101"/>
+      <c r="B3" s="112"/>
       <c r="C3" s="41" t="s">
         <v>185</v>
       </c>
@@ -3550,8 +4225,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="104"/>
-      <c r="B4" s="103"/>
+      <c r="A4" s="101"/>
+      <c r="B4" s="113"/>
       <c r="C4" s="86" t="s">
         <v>219</v>
       </c>
@@ -3575,10 +4250,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="104">
+      <c r="A5" s="101">
         <v>2</v>
       </c>
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="108" t="s">
         <v>173</v>
       </c>
       <c r="C5" s="45" t="s">
@@ -3604,8 +4279,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" s="104"/>
-      <c r="B6" s="106"/>
+      <c r="A6" s="101"/>
+      <c r="B6" s="109"/>
       <c r="C6" s="43" t="s">
         <v>232</v>
       </c>
@@ -3629,8 +4304,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="104"/>
-      <c r="B7" s="107"/>
+      <c r="A7" s="101"/>
+      <c r="B7" s="110"/>
       <c r="C7" s="48" t="s">
         <v>194</v>
       </c>
@@ -3652,10 +4327,10 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="104">
+      <c r="A8" s="101">
         <v>3</v>
       </c>
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="111" t="s">
         <v>174</v>
       </c>
       <c r="C8" s="95" t="s">
@@ -3679,8 +4354,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="104"/>
-      <c r="B9" s="102"/>
+      <c r="A9" s="101"/>
+      <c r="B9" s="112"/>
       <c r="C9" s="41" t="s">
         <v>196</v>
       </c>
@@ -3702,8 +4377,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="104"/>
-      <c r="B10" s="103"/>
+      <c r="A10" s="101"/>
+      <c r="B10" s="113"/>
       <c r="C10" s="53" t="s">
         <v>234</v>
       </c>
@@ -3727,10 +4402,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="104">
+      <c r="A11" s="101">
         <v>4</v>
       </c>
-      <c r="B11" s="105" t="s">
+      <c r="B11" s="108" t="s">
         <v>175</v>
       </c>
       <c r="C11" s="95" t="s">
@@ -3756,8 +4431,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="104"/>
-      <c r="B12" s="106"/>
+      <c r="A12" s="101"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="44" t="s">
         <v>238</v>
       </c>
@@ -3781,8 +4456,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="104"/>
-      <c r="B13" s="107"/>
+      <c r="A13" s="101"/>
+      <c r="B13" s="110"/>
       <c r="C13" s="48" t="s">
         <v>239</v>
       </c>
@@ -3804,10 +4479,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="104">
+      <c r="A14" s="101">
         <v>5</v>
       </c>
-      <c r="B14" s="108" t="s">
+      <c r="B14" s="107" t="s">
         <v>176</v>
       </c>
       <c r="C14" s="55" t="s">
@@ -3822,8 +4497,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="104"/>
-      <c r="B15" s="108"/>
+      <c r="A15" s="101"/>
+      <c r="B15" s="107"/>
       <c r="C15" s="41" t="s">
         <v>203</v>
       </c>
@@ -3838,8 +4513,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="104"/>
-      <c r="B16" s="109"/>
+      <c r="A16" s="101"/>
+      <c r="B16" s="105"/>
       <c r="C16" s="53" t="s">
         <v>209</v>
       </c>
@@ -3854,10 +4529,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="104">
+      <c r="A17" s="101">
         <v>6</v>
       </c>
-      <c r="B17" s="110" t="s">
+      <c r="B17" s="102" t="s">
         <v>177</v>
       </c>
       <c r="C17" s="45" t="s">
@@ -3874,8 +4549,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="87" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="104"/>
-      <c r="B18" s="111"/>
+      <c r="A18" s="101"/>
+      <c r="B18" s="103"/>
       <c r="C18" s="48" t="s">
         <v>249</v>
       </c>
@@ -3888,10 +4563,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="104">
+      <c r="A19" s="101">
         <v>7</v>
       </c>
-      <c r="B19" s="112" t="s">
+      <c r="B19" s="104" t="s">
         <v>178</v>
       </c>
       <c r="C19" s="50" t="s">
@@ -3908,8 +4583,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="104"/>
-      <c r="B20" s="109"/>
+      <c r="A20" s="101"/>
+      <c r="B20" s="105"/>
       <c r="C20" s="42" t="s">
         <v>252</v>
       </c>
@@ -3922,10 +4597,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="104">
+      <c r="A21" s="101">
         <v>8</v>
       </c>
-      <c r="B21" s="110" t="s">
+      <c r="B21" s="102" t="s">
         <v>179</v>
       </c>
       <c r="C21" s="45" t="s">
@@ -3942,8 +4617,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="104"/>
-      <c r="B22" s="113"/>
+      <c r="A22" s="101"/>
+      <c r="B22" s="106"/>
       <c r="C22" s="44" t="s">
         <v>256</v>
       </c>
@@ -3954,8 +4629,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="104"/>
-      <c r="B23" s="111"/>
+      <c r="A23" s="101"/>
+      <c r="B23" s="103"/>
       <c r="C23" s="48" t="s">
         <v>257</v>
       </c>
@@ -3966,10 +4641,10 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="104">
+      <c r="A24" s="101">
         <v>9</v>
       </c>
-      <c r="B24" s="112" t="s">
+      <c r="B24" s="104" t="s">
         <v>180</v>
       </c>
       <c r="C24" s="50" t="s">
@@ -3986,8 +4661,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="104"/>
-      <c r="B25" s="108"/>
+      <c r="A25" s="101"/>
+      <c r="B25" s="107"/>
       <c r="C25" s="41" t="s">
         <v>260</v>
       </c>
@@ -4000,8 +4675,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="104"/>
-      <c r="B26" s="109"/>
+      <c r="A26" s="101"/>
+      <c r="B26" s="105"/>
       <c r="C26" s="53" t="s">
         <v>261</v>
       </c>
@@ -4014,10 +4689,10 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="104">
+      <c r="A27" s="101">
         <v>10</v>
       </c>
-      <c r="B27" s="110" t="s">
+      <c r="B27" s="102" t="s">
         <v>267</v>
       </c>
       <c r="C27" s="45" t="s">
@@ -4034,8 +4709,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="104"/>
-      <c r="B28" s="111"/>
+      <c r="A28" s="101"/>
+      <c r="B28" s="103"/>
       <c r="C28" s="48" t="s">
         <v>269</v>
       </c>
@@ -4052,6 +4727,18 @@
   </sheetData>
   <autoFilter ref="A1:I28" xr:uid="{F795A1BF-E94F-412D-BBCC-0F81FBDBA90C}"/>
   <mergeCells count="20">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="A19:A20"/>
@@ -4060,18 +4747,6 @@
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="B24:B26"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5125,9 +5800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F92265-B1A9-4A6B-9451-B2FD069BB4E5}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5340,7 +6013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20D33E56-2853-4F13-BBDD-45B1A76680BC}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5592,9 +6265,7 @@
   </sheetPr>
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/logic&wireframe.xlsx
+++ b/logic&wireframe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leget\.vscode\Project1-Game_On!\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDADBC0F-77F7-40AA-B745-AFAD45BC17F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39527987-36CD-4E28-AEE9-BC70DABFB2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="936" windowWidth="11016" windowHeight="18696" firstSheet="9" activeTab="9" xr2:uid="{13D35128-FD96-467D-8061-8EC5A7FF3607}"/>
+    <workbookView xWindow="22932" yWindow="936" windowWidth="11016" windowHeight="18696" firstSheet="9" activeTab="9" xr2:uid="{7735C213-E26F-4731-B858-5CCC1FD62CA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,13 @@
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
     <sheet name="Template" sheetId="11" r:id="rId8"/>
     <sheet name="Possible Outcomes" sheetId="12" r:id="rId9"/>
-    <sheet name="Numbers Test" sheetId="10" r:id="rId10"/>
-    <sheet name="Scenarios|Decisions" sheetId="9" r:id="rId11"/>
+    <sheet name="Scenarios|Decisions" sheetId="9" r:id="rId10"/>
+    <sheet name="Numbers Test" sheetId="10" r:id="rId11"/>
+    <sheet name="Game Sequence" sheetId="13" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Possible Outcomes'!$A$1:$J$42</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Scenarios|Decisions'!$A$1:$I$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Scenarios|Decisions'!$A$1:$I$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -131,8 +132,114 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Christopher Legette</author>
+  </authors>
+  <commentList>
+    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{0538FCBB-A426-4C9A-8061-4413F0544579}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Christopher Legette:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+decreased by 10%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C28" authorId="0" shapeId="0" xr:uid="{66106701-652B-4C0B-9037-767B8DB9716F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Christopher Legette:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+increased by 20%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C49" authorId="0" shapeId="0" xr:uid="{194D01A8-332F-4FA8-9BF5-2B7632337ABC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Christopher Legette:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+decreased by 10%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C65" authorId="0" shapeId="0" xr:uid="{F0133D4F-6D08-4C11-BACD-43A9E114B76D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Christopher Legette:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+decreased by 10%</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="352">
   <si>
     <t>Operating Profit Margin = Operating Income / Net Sales Revenue</t>
   </si>
@@ -1109,9 +1216,6 @@
 10%</t>
   </si>
   <si>
-    <t>Factory Labor decreases</t>
-  </si>
-  <si>
     <t>Factory Labor ultimately decreases because of less rework</t>
   </si>
   <si>
@@ -1201,6 +1305,16 @@
   </si>
   <si>
     <t>2b+3Cdecision</t>
+  </si>
+  <si>
+    <t>Increase</t>
+  </si>
+  <si>
+    <t>Decrease</t>
+  </si>
+  <si>
+    <t>Factory Labor decreases
+Indirect Labor increases</t>
   </si>
 </sst>
 </file>
@@ -1211,7 +1325,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1270,8 +1384,44 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1305,6 +1455,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1673,7 +1829,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1913,6 +2069,77 @@
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1952,20 +2179,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -2358,8 +2571,249 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>439420</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>135890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>668020</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>97790</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Arrow: Down 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C7AD4CA-3BF7-6531-D506-FE5A01C4E608}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2376170" y="4066540"/>
+          <a:ext cx="228600" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>321310</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>138430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>549910</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>100330</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Arrow: Down 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A09FCCD9-2325-4492-B630-AAC02A47857D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4715510" y="4069080"/>
+          <a:ext cx="228600" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>300990</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>529590</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Arrow: Down 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37782C0F-9206-469A-9515-4255E60D1673}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3336290" y="4071620"/>
+          <a:ext cx="228600" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>322580</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>547370</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Arrow: Down 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B26F4B7-496C-48DA-82D2-AFCDEC4F0825}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5059680" y="4071620"/>
+          <a:ext cx="224790" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2743,1395 +3197,13 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF1E804-CCC9-4E83-A7C2-B89895379936}">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:Q51"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" hidden="1" customWidth="1"/>
-    <col min="6" max="8" width="14.33203125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.21875" style="30" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.77734375" style="30" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.21875" style="30" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>280</v>
-      </c>
-      <c r="C1" s="66" t="s">
-        <v>281</v>
-      </c>
-      <c r="D1" s="70" t="s">
-        <v>294</v>
-      </c>
-      <c r="E1" s="71" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="67">
-        <v>425</v>
-      </c>
-      <c r="B2" s="68">
-        <v>1200</v>
-      </c>
-      <c r="C2" s="69">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:17" s="72" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="B4" s="72" t="s">
-        <v>296</v>
-      </c>
-      <c r="C4" s="73" t="s">
-        <v>291</v>
-      </c>
-      <c r="D4" s="74" t="s">
-        <v>292</v>
-      </c>
-      <c r="E4" s="75" t="s">
-        <v>293</v>
-      </c>
-      <c r="F4" s="73" t="s">
-        <v>297</v>
-      </c>
-      <c r="G4" s="74" t="s">
-        <v>298</v>
-      </c>
-      <c r="H4" s="75" t="s">
-        <v>300</v>
-      </c>
-      <c r="I4" s="73" t="s">
-        <v>304</v>
-      </c>
-      <c r="J4" s="74" t="s">
-        <v>305</v>
-      </c>
-      <c r="K4" s="75" t="s">
-        <v>299</v>
-      </c>
-      <c r="L4" s="73" t="s">
-        <v>306</v>
-      </c>
-      <c r="M4" s="74" t="s">
-        <v>307</v>
-      </c>
-      <c r="N4" s="75" t="s">
-        <v>308</v>
-      </c>
-      <c r="O4" s="73" t="s">
-        <v>309</v>
-      </c>
-      <c r="P4" s="74" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q4" s="75" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="59" t="s">
-        <v>273</v>
-      </c>
-      <c r="B5" s="61">
-        <f t="shared" ref="B5:H5" si="0">$A2*$B2</f>
-        <v>510000</v>
-      </c>
-      <c r="C5" s="76">
-        <f t="shared" si="0"/>
-        <v>510000</v>
-      </c>
-      <c r="D5" s="77">
-        <f t="shared" si="0"/>
-        <v>510000</v>
-      </c>
-      <c r="E5" s="78">
-        <f t="shared" si="0"/>
-        <v>510000</v>
-      </c>
-      <c r="F5" s="76">
-        <f t="shared" si="0"/>
-        <v>510000</v>
-      </c>
-      <c r="G5" s="77">
-        <f t="shared" si="0"/>
-        <v>510000</v>
-      </c>
-      <c r="H5" s="78">
-        <f t="shared" si="0"/>
-        <v>510000</v>
-      </c>
-      <c r="I5" s="76">
-        <f t="shared" ref="I5:K5" si="1">$A2*$B2</f>
-        <v>510000</v>
-      </c>
-      <c r="J5" s="77">
-        <f t="shared" si="1"/>
-        <v>510000</v>
-      </c>
-      <c r="K5" s="78">
-        <f t="shared" si="1"/>
-        <v>510000</v>
-      </c>
-      <c r="L5" s="76">
-        <f t="shared" ref="L5:N5" si="2">$A2*$B2</f>
-        <v>510000</v>
-      </c>
-      <c r="M5" s="77">
-        <f t="shared" si="2"/>
-        <v>510000</v>
-      </c>
-      <c r="N5" s="78">
-        <f t="shared" si="2"/>
-        <v>510000</v>
-      </c>
-      <c r="O5" s="76">
-        <f t="shared" ref="O5:Q5" si="3">$A2*$B2</f>
-        <v>510000</v>
-      </c>
-      <c r="P5" s="77">
-        <f t="shared" si="3"/>
-        <v>510000</v>
-      </c>
-      <c r="Q5" s="78">
-        <f t="shared" si="3"/>
-        <v>510000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="99">
-        <f t="shared" ref="B6:H6" si="4">SUM(B7:B10)</f>
-        <v>150000</v>
-      </c>
-      <c r="C6" s="76">
-        <f t="shared" si="4"/>
-        <v>150000</v>
-      </c>
-      <c r="D6" s="77">
-        <f t="shared" si="4"/>
-        <v>150000</v>
-      </c>
-      <c r="E6" s="78">
-        <f t="shared" si="4"/>
-        <v>162500</v>
-      </c>
-      <c r="F6" s="76">
-        <f t="shared" si="4"/>
-        <v>156000</v>
-      </c>
-      <c r="G6" s="77">
-        <f t="shared" si="4"/>
-        <v>147500</v>
-      </c>
-      <c r="H6" s="78">
-        <f t="shared" si="4"/>
-        <v>148000</v>
-      </c>
-      <c r="I6" s="76">
-        <f t="shared" ref="I6:K6" si="5">SUM(I7:I10)</f>
-        <v>144000</v>
-      </c>
-      <c r="J6" s="77">
-        <f t="shared" si="5"/>
-        <v>148000</v>
-      </c>
-      <c r="K6" s="78">
-        <f t="shared" si="5"/>
-        <v>149000</v>
-      </c>
-      <c r="L6" s="76">
-        <f t="shared" ref="L6" si="6">SUM(L7:L10)</f>
-        <v>150000</v>
-      </c>
-      <c r="M6" s="77">
-        <f t="shared" ref="M6" si="7">SUM(M7:M10)</f>
-        <v>153750</v>
-      </c>
-      <c r="N6" s="78">
-        <f t="shared" ref="N6" si="8">SUM(N7:N10)</f>
-        <v>142500</v>
-      </c>
-      <c r="O6" s="76">
-        <f t="shared" ref="O6" si="9">SUM(O7:O10)</f>
-        <v>150000</v>
-      </c>
-      <c r="P6" s="77">
-        <f t="shared" ref="P6" si="10">SUM(P7:P10)</f>
-        <v>150000</v>
-      </c>
-      <c r="Q6" s="78">
-        <f t="shared" ref="Q6" si="11">SUM(Q7:Q10)</f>
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B7" s="60">
-        <v>30000</v>
-      </c>
-      <c r="C7" s="79">
-        <v>30000</v>
-      </c>
-      <c r="D7" s="24">
-        <v>30000</v>
-      </c>
-      <c r="E7" s="80">
-        <v>30000</v>
-      </c>
-      <c r="F7" s="82">
-        <v>36000</v>
-      </c>
-      <c r="G7" s="24">
-        <v>30000</v>
-      </c>
-      <c r="H7" s="80">
-        <v>30000</v>
-      </c>
-      <c r="I7" s="82">
-        <v>39000</v>
-      </c>
-      <c r="J7" s="24">
-        <v>30000</v>
-      </c>
-      <c r="K7" s="80">
-        <v>30000</v>
-      </c>
-      <c r="L7" s="79">
-        <v>30000</v>
-      </c>
-      <c r="M7" s="24">
-        <v>30000</v>
-      </c>
-      <c r="N7" s="80">
-        <v>30000</v>
-      </c>
-      <c r="O7" s="79">
-        <v>30000</v>
-      </c>
-      <c r="P7" s="24">
-        <v>30000</v>
-      </c>
-      <c r="Q7" s="80">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B8" s="60">
-        <v>20000</v>
-      </c>
-      <c r="C8" s="79">
-        <v>20000</v>
-      </c>
-      <c r="D8" s="24">
-        <v>20000</v>
-      </c>
-      <c r="E8" s="80">
-        <v>20000</v>
-      </c>
-      <c r="F8" s="79">
-        <v>20000</v>
-      </c>
-      <c r="G8" s="24">
-        <v>20000</v>
-      </c>
-      <c r="H8" s="83">
-        <v>18000</v>
-      </c>
-      <c r="I8" s="94">
-        <v>5000</v>
-      </c>
-      <c r="J8" s="85">
-        <v>18000</v>
-      </c>
-      <c r="K8" s="83">
-        <v>19000</v>
-      </c>
-      <c r="L8" s="79">
-        <v>20000</v>
-      </c>
-      <c r="M8" s="24">
-        <v>20000</v>
-      </c>
-      <c r="N8" s="80">
-        <v>20000</v>
-      </c>
-      <c r="O8" s="79">
-        <v>20000</v>
-      </c>
-      <c r="P8" s="24">
-        <v>20000</v>
-      </c>
-      <c r="Q8" s="80">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B9" s="60">
-        <v>75000</v>
-      </c>
-      <c r="C9" s="79">
-        <v>75000</v>
-      </c>
-      <c r="D9" s="24">
-        <v>75000</v>
-      </c>
-      <c r="E9" s="80">
-        <v>75000</v>
-      </c>
-      <c r="F9" s="79">
-        <v>75000</v>
-      </c>
-      <c r="G9" s="24">
-        <v>75000</v>
-      </c>
-      <c r="H9" s="80">
-        <v>75000</v>
-      </c>
-      <c r="I9" s="79">
-        <v>75000</v>
-      </c>
-      <c r="J9" s="24">
-        <v>75000</v>
-      </c>
-      <c r="K9" s="80">
-        <v>75000</v>
-      </c>
-      <c r="L9" s="79">
-        <v>75000</v>
-      </c>
-      <c r="M9" s="84">
-        <v>78750</v>
-      </c>
-      <c r="N9" s="83">
-        <v>67500</v>
-      </c>
-      <c r="O9" s="79">
-        <v>75000</v>
-      </c>
-      <c r="P9" s="24">
-        <v>75000</v>
-      </c>
-      <c r="Q9" s="80">
-        <v>75000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>272</v>
-      </c>
-      <c r="B10" s="60">
-        <v>25000</v>
-      </c>
-      <c r="C10" s="79">
-        <v>25000</v>
-      </c>
-      <c r="D10" s="24">
-        <v>25000</v>
-      </c>
-      <c r="E10" s="81">
-        <v>37500</v>
-      </c>
-      <c r="F10" s="79">
-        <v>25000</v>
-      </c>
-      <c r="G10" s="85">
-        <v>22500</v>
-      </c>
-      <c r="H10" s="80">
-        <v>25000</v>
-      </c>
-      <c r="I10" s="79">
-        <v>25000</v>
-      </c>
-      <c r="J10" s="24">
-        <v>25000</v>
-      </c>
-      <c r="K10" s="80">
-        <v>25000</v>
-      </c>
-      <c r="L10" s="79">
-        <v>25000</v>
-      </c>
-      <c r="M10" s="24">
-        <v>25000</v>
-      </c>
-      <c r="N10" s="80">
-        <v>25000</v>
-      </c>
-      <c r="O10" s="79">
-        <v>25000</v>
-      </c>
-      <c r="P10" s="24">
-        <v>25000</v>
-      </c>
-      <c r="Q10" s="80">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="59" t="s">
-        <v>274</v>
-      </c>
-      <c r="B11" s="99">
-        <f t="shared" ref="B11:H11" si="12">B5-B6</f>
-        <v>360000</v>
-      </c>
-      <c r="C11" s="76">
-        <f t="shared" si="12"/>
-        <v>360000</v>
-      </c>
-      <c r="D11" s="77">
-        <f t="shared" si="12"/>
-        <v>360000</v>
-      </c>
-      <c r="E11" s="78">
-        <f t="shared" si="12"/>
-        <v>347500</v>
-      </c>
-      <c r="F11" s="76">
-        <f t="shared" si="12"/>
-        <v>354000</v>
-      </c>
-      <c r="G11" s="77">
-        <f t="shared" si="12"/>
-        <v>362500</v>
-      </c>
-      <c r="H11" s="78">
-        <f t="shared" si="12"/>
-        <v>362000</v>
-      </c>
-      <c r="I11" s="76">
-        <f t="shared" ref="I11:K11" si="13">I5-I6</f>
-        <v>366000</v>
-      </c>
-      <c r="J11" s="77">
-        <f t="shared" si="13"/>
-        <v>362000</v>
-      </c>
-      <c r="K11" s="78">
-        <f t="shared" si="13"/>
-        <v>361000</v>
-      </c>
-      <c r="L11" s="76">
-        <f t="shared" ref="L11:N11" si="14">L5-L6</f>
-        <v>360000</v>
-      </c>
-      <c r="M11" s="77">
-        <f t="shared" si="14"/>
-        <v>356250</v>
-      </c>
-      <c r="N11" s="78">
-        <f t="shared" si="14"/>
-        <v>367500</v>
-      </c>
-      <c r="O11" s="76">
-        <f t="shared" ref="O11:Q11" si="15">O5-O6</f>
-        <v>360000</v>
-      </c>
-      <c r="P11" s="77">
-        <f t="shared" si="15"/>
-        <v>360000</v>
-      </c>
-      <c r="Q11" s="78">
-        <f t="shared" si="15"/>
-        <v>360000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="59" t="s">
-        <v>275</v>
-      </c>
-      <c r="B12" s="99">
-        <f t="shared" ref="B12:H12" si="16">SUM(B13:B15)</f>
-        <v>300000</v>
-      </c>
-      <c r="C12" s="76">
-        <f t="shared" si="16"/>
-        <v>322500</v>
-      </c>
-      <c r="D12" s="77">
-        <f t="shared" si="16"/>
-        <v>325000</v>
-      </c>
-      <c r="E12" s="78">
-        <f t="shared" si="16"/>
-        <v>285000</v>
-      </c>
-      <c r="F12" s="76">
-        <f t="shared" si="16"/>
-        <v>300000</v>
-      </c>
-      <c r="G12" s="77">
-        <f t="shared" si="16"/>
-        <v>300000</v>
-      </c>
-      <c r="H12" s="78">
-        <f t="shared" si="16"/>
-        <v>300000</v>
-      </c>
-      <c r="I12" s="76">
-        <f t="shared" ref="I12:K12" si="17">SUM(I13:I15)</f>
-        <v>300000</v>
-      </c>
-      <c r="J12" s="77">
-        <f t="shared" si="17"/>
-        <v>320000</v>
-      </c>
-      <c r="K12" s="78">
-        <f t="shared" si="17"/>
-        <v>315000</v>
-      </c>
-      <c r="L12" s="76">
-        <f t="shared" ref="L12" si="18">SUM(L13:L15)</f>
-        <v>300000</v>
-      </c>
-      <c r="M12" s="77">
-        <f t="shared" ref="M12" si="19">SUM(M13:M15)</f>
-        <v>300000</v>
-      </c>
-      <c r="N12" s="78">
-        <f t="shared" ref="N12" si="20">SUM(N13:N15)</f>
-        <v>315000</v>
-      </c>
-      <c r="O12" s="76">
-        <f t="shared" ref="O12" si="21">SUM(O13:O15)</f>
-        <v>300000</v>
-      </c>
-      <c r="P12" s="77">
-        <f t="shared" ref="P12" si="22">SUM(P13:P15)</f>
-        <v>300000</v>
-      </c>
-      <c r="Q12" s="78">
-        <f t="shared" ref="Q12" si="23">SUM(Q13:Q15)</f>
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>276</v>
-      </c>
-      <c r="B13" s="60">
-        <v>150000</v>
-      </c>
-      <c r="C13" s="82">
-        <v>172500</v>
-      </c>
-      <c r="D13" s="24">
-        <v>150000</v>
-      </c>
-      <c r="E13" s="83">
-        <v>135000</v>
-      </c>
-      <c r="F13" s="79">
-        <v>150000</v>
-      </c>
-      <c r="G13" s="24">
-        <v>150000</v>
-      </c>
-      <c r="H13" s="80">
-        <v>150000</v>
-      </c>
-      <c r="I13" s="79">
-        <v>150000</v>
-      </c>
-      <c r="J13" s="24">
-        <v>150000</v>
-      </c>
-      <c r="K13" s="81">
-        <v>165000</v>
-      </c>
-      <c r="L13" s="79">
-        <v>150000</v>
-      </c>
-      <c r="M13" s="24">
-        <v>150000</v>
-      </c>
-      <c r="N13" s="81">
-        <v>165000</v>
-      </c>
-      <c r="O13" s="79">
-        <v>150000</v>
-      </c>
-      <c r="P13" s="24">
-        <v>150000</v>
-      </c>
-      <c r="Q13" s="80">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>277</v>
-      </c>
-      <c r="B14" s="60">
-        <v>50000</v>
-      </c>
-      <c r="C14" s="79">
-        <v>50000</v>
-      </c>
-      <c r="D14" s="24">
-        <v>50000</v>
-      </c>
-      <c r="E14" s="80">
-        <v>50000</v>
-      </c>
-      <c r="F14" s="79">
-        <v>50000</v>
-      </c>
-      <c r="G14" s="24">
-        <v>50000</v>
-      </c>
-      <c r="H14" s="80">
-        <v>50000</v>
-      </c>
-      <c r="I14" s="79">
-        <v>50000</v>
-      </c>
-      <c r="J14" s="24">
-        <v>50000</v>
-      </c>
-      <c r="K14" s="80">
-        <v>50000</v>
-      </c>
-      <c r="L14" s="79">
-        <v>50000</v>
-      </c>
-      <c r="M14" s="24">
-        <v>50000</v>
-      </c>
-      <c r="N14" s="80">
-        <v>50000</v>
-      </c>
-      <c r="O14" s="79">
-        <v>50000</v>
-      </c>
-      <c r="P14" s="24">
-        <v>50000</v>
-      </c>
-      <c r="Q14" s="80">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>278</v>
-      </c>
-      <c r="B15" s="60">
-        <v>100000</v>
-      </c>
-      <c r="C15" s="79">
-        <v>100000</v>
-      </c>
-      <c r="D15" s="84">
-        <v>125000</v>
-      </c>
-      <c r="E15" s="80">
-        <v>100000</v>
-      </c>
-      <c r="F15" s="79">
-        <v>100000</v>
-      </c>
-      <c r="G15" s="24">
-        <v>100000</v>
-      </c>
-      <c r="H15" s="80">
-        <v>100000</v>
-      </c>
-      <c r="I15" s="79">
-        <v>100000</v>
-      </c>
-      <c r="J15" s="84">
-        <v>120000</v>
-      </c>
-      <c r="K15" s="80">
-        <v>100000</v>
-      </c>
-      <c r="L15" s="79">
-        <v>100000</v>
-      </c>
-      <c r="M15" s="24">
-        <v>100000</v>
-      </c>
-      <c r="N15" s="80">
-        <v>100000</v>
-      </c>
-      <c r="O15" s="79">
-        <v>100000</v>
-      </c>
-      <c r="P15" s="24">
-        <v>100000</v>
-      </c>
-      <c r="Q15" s="80">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="59" t="s">
-        <v>279</v>
-      </c>
-      <c r="B16" s="99">
-        <f>B11-B12</f>
-        <v>60000</v>
-      </c>
-      <c r="C16" s="76">
-        <f t="shared" ref="C16:H16" si="24">C11-C12</f>
-        <v>37500</v>
-      </c>
-      <c r="D16" s="77">
-        <f t="shared" si="24"/>
-        <v>35000</v>
-      </c>
-      <c r="E16" s="78">
-        <f t="shared" si="24"/>
-        <v>62500</v>
-      </c>
-      <c r="F16" s="76">
-        <f t="shared" si="24"/>
-        <v>54000</v>
-      </c>
-      <c r="G16" s="77">
-        <f t="shared" si="24"/>
-        <v>62500</v>
-      </c>
-      <c r="H16" s="78">
-        <f t="shared" si="24"/>
-        <v>62000</v>
-      </c>
-      <c r="I16" s="76">
-        <f t="shared" ref="I16:K16" si="25">I11-I12</f>
-        <v>66000</v>
-      </c>
-      <c r="J16" s="77">
-        <f t="shared" si="25"/>
-        <v>42000</v>
-      </c>
-      <c r="K16" s="78">
-        <f t="shared" si="25"/>
-        <v>46000</v>
-      </c>
-      <c r="L16" s="76">
-        <f t="shared" ref="L16:N16" si="26">L11-L12</f>
-        <v>60000</v>
-      </c>
-      <c r="M16" s="77">
-        <f t="shared" si="26"/>
-        <v>56250</v>
-      </c>
-      <c r="N16" s="78">
-        <f t="shared" si="26"/>
-        <v>52500</v>
-      </c>
-      <c r="O16" s="76">
-        <f t="shared" ref="O16:Q16" si="27">O11-O12</f>
-        <v>60000</v>
-      </c>
-      <c r="P16" s="77">
-        <f t="shared" si="27"/>
-        <v>60000</v>
-      </c>
-      <c r="Q16" s="78">
-        <f t="shared" si="27"/>
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C17" s="23"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="23"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="23"/>
-      <c r="J17"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="23"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="23"/>
-      <c r="Q17" s="25"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C18" s="23"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="23"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="23"/>
-      <c r="J18"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="23"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="23"/>
-      <c r="Q18" s="25"/>
-    </row>
-    <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="59" t="s">
-        <v>283</v>
-      </c>
-      <c r="B19" s="100">
-        <f>(B16/B5)*100</f>
-        <v>11.76470588235294</v>
-      </c>
-      <c r="C19" s="26">
-        <f>(C16/C5)*100</f>
-        <v>7.3529411764705888</v>
-      </c>
-      <c r="D19" s="27">
-        <f t="shared" ref="D19:E19" si="28">(D16/D5)*100</f>
-        <v>6.8627450980392162</v>
-      </c>
-      <c r="E19" s="28">
-        <f t="shared" si="28"/>
-        <v>12.254901960784313</v>
-      </c>
-      <c r="F19" s="26">
-        <f>(F16/F5)*100</f>
-        <v>10.588235294117647</v>
-      </c>
-      <c r="G19" s="27">
-        <f t="shared" ref="G19:K19" si="29">(G16/G5)*100</f>
-        <v>12.254901960784313</v>
-      </c>
-      <c r="H19" s="28">
-        <f t="shared" si="29"/>
-        <v>12.156862745098039</v>
-      </c>
-      <c r="I19" s="26">
-        <f t="shared" si="29"/>
-        <v>12.941176470588237</v>
-      </c>
-      <c r="J19" s="27">
-        <f t="shared" si="29"/>
-        <v>8.235294117647058</v>
-      </c>
-      <c r="K19" s="28">
-        <f t="shared" si="29"/>
-        <v>9.0196078431372548</v>
-      </c>
-      <c r="L19" s="26">
-        <f t="shared" ref="L19:N19" si="30">(L16/L5)*100</f>
-        <v>11.76470588235294</v>
-      </c>
-      <c r="M19" s="27">
-        <f t="shared" si="30"/>
-        <v>11.029411764705882</v>
-      </c>
-      <c r="N19" s="28">
-        <f t="shared" si="30"/>
-        <v>10.294117647058822</v>
-      </c>
-      <c r="O19" s="26">
-        <f t="shared" ref="O19:Q19" si="31">(O16/O5)*100</f>
-        <v>11.76470588235294</v>
-      </c>
-      <c r="P19" s="27">
-        <f t="shared" si="31"/>
-        <v>11.76470588235294</v>
-      </c>
-      <c r="Q19" s="28">
-        <f t="shared" si="31"/>
-        <v>11.76470588235294</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>327</v>
-      </c>
-      <c r="C24" t="s">
-        <v>328</v>
-      </c>
-      <c r="D24" t="s">
-        <v>329</v>
-      </c>
-      <c r="E24" t="s">
-        <v>330</v>
-      </c>
-      <c r="F24" t="s">
-        <v>332</v>
-      </c>
-      <c r="G24" t="s">
-        <v>333</v>
-      </c>
-      <c r="H24" t="s">
-        <v>334</v>
-      </c>
-      <c r="I24" t="s">
-        <v>339</v>
-      </c>
-      <c r="J24" s="30" t="s">
-        <v>340</v>
-      </c>
-      <c r="K24" s="30" t="s">
-        <v>341</v>
-      </c>
-      <c r="L24" s="30" t="s">
-        <v>343</v>
-      </c>
-      <c r="M24" s="30" t="s">
-        <v>344</v>
-      </c>
-      <c r="N24" s="30" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D28" t="s">
-        <v>331</v>
-      </c>
-      <c r="G28" t="s">
-        <v>335</v>
-      </c>
-      <c r="J28" s="30" t="s">
-        <v>342</v>
-      </c>
-      <c r="M28" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="F33" t="s">
-        <v>338</v>
-      </c>
-      <c r="G33" t="s">
-        <v>337</v>
-      </c>
-      <c r="H33" t="s">
-        <v>336</v>
-      </c>
-      <c r="I33" t="s">
-        <v>347</v>
-      </c>
-      <c r="J33" s="30" t="s">
-        <v>348</v>
-      </c>
-      <c r="K33" s="30" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="34" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="35" spans="4:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="F35" s="116" t="s">
-        <v>293</v>
-      </c>
-      <c r="G35" s="75" t="s">
-        <v>293</v>
-      </c>
-      <c r="H35" s="75" t="s">
-        <v>293</v>
-      </c>
-      <c r="I35" s="75" t="s">
-        <v>298</v>
-      </c>
-      <c r="J35" s="75" t="s">
-        <v>298</v>
-      </c>
-      <c r="K35" s="75" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D36" s="59" t="s">
-        <v>273</v>
-      </c>
-      <c r="F36" s="117">
-        <v>510000</v>
-      </c>
-      <c r="G36" s="78">
-        <v>510000</v>
-      </c>
-      <c r="H36" s="78">
-        <v>510000</v>
-      </c>
-      <c r="I36" s="78">
-        <v>510000</v>
-      </c>
-      <c r="J36" s="78">
-        <v>510000</v>
-      </c>
-      <c r="K36" s="78">
-        <v>510000</v>
-      </c>
-    </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D37" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" s="117">
-        <f>SUM(F38:F41)</f>
-        <v>168500</v>
-      </c>
-      <c r="G37" s="78">
-        <f>SUM(G38:G41)</f>
-        <v>158750</v>
-      </c>
-      <c r="H37" s="78">
-        <f>SUM(H38:H41)</f>
-        <v>160500</v>
-      </c>
-      <c r="I37" s="78">
-        <f>SUM(I38:I41)</f>
-        <v>152750</v>
-      </c>
-      <c r="J37" s="78">
-        <f>SUM(J38:J41)</f>
-        <v>158750</v>
-      </c>
-      <c r="K37" s="78">
-        <f>SUM(K38:K41)</f>
-        <v>158750</v>
-      </c>
-    </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D38" t="s">
-        <v>149</v>
-      </c>
-      <c r="F38" s="123">
-        <v>36000</v>
-      </c>
-      <c r="G38" s="80">
-        <v>30000</v>
-      </c>
-      <c r="H38" s="80">
-        <v>30000</v>
-      </c>
-      <c r="I38" s="81">
-        <v>39000</v>
-      </c>
-      <c r="J38" s="80">
-        <v>30000</v>
-      </c>
-      <c r="K38" s="80">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D39" t="s">
-        <v>150</v>
-      </c>
-      <c r="F39" s="118">
-        <v>20000</v>
-      </c>
-      <c r="G39" s="80">
-        <v>20000</v>
-      </c>
-      <c r="H39" s="83">
-        <v>18000</v>
-      </c>
-      <c r="I39" s="83">
-        <v>5000</v>
-      </c>
-      <c r="J39" s="80">
-        <v>20000</v>
-      </c>
-      <c r="K39" s="80">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D40" t="s">
-        <v>151</v>
-      </c>
-      <c r="F40" s="118">
-        <v>75000</v>
-      </c>
-      <c r="G40" s="80">
-        <v>75000</v>
-      </c>
-      <c r="H40" s="80">
-        <v>75000</v>
-      </c>
-      <c r="I40" s="80">
-        <v>75000</v>
-      </c>
-      <c r="J40" s="80">
-        <v>75000</v>
-      </c>
-      <c r="K40" s="80">
-        <v>75000</v>
-      </c>
-    </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D41" t="s">
-        <v>272</v>
-      </c>
-      <c r="F41" s="119">
-        <v>37500</v>
-      </c>
-      <c r="G41" s="83">
-        <v>33750</v>
-      </c>
-      <c r="H41" s="114">
-        <v>37500</v>
-      </c>
-      <c r="I41" s="114">
-        <v>33750</v>
-      </c>
-      <c r="J41" s="114">
-        <v>33750</v>
-      </c>
-      <c r="K41" s="114">
-        <v>33750</v>
-      </c>
-    </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D42" s="59" t="s">
-        <v>274</v>
-      </c>
-      <c r="F42" s="120">
-        <f>F36-F37</f>
-        <v>341500</v>
-      </c>
-      <c r="G42" s="115">
-        <f>G36-G37</f>
-        <v>351250</v>
-      </c>
-      <c r="H42" s="115">
-        <f>H36-H37</f>
-        <v>349500</v>
-      </c>
-      <c r="I42" s="115">
-        <f>I36-I37</f>
-        <v>357250</v>
-      </c>
-      <c r="J42" s="115">
-        <f>J36-J37</f>
-        <v>351250</v>
-      </c>
-      <c r="K42" s="115">
-        <f>K36-K37</f>
-        <v>351250</v>
-      </c>
-    </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D43" s="59" t="s">
-        <v>275</v>
-      </c>
-      <c r="F43" s="120">
-        <f>SUM(F44:F46)</f>
-        <v>285000</v>
-      </c>
-      <c r="G43" s="115">
-        <f>SUM(G44:G46)</f>
-        <v>285000</v>
-      </c>
-      <c r="H43" s="115">
-        <f>SUM(H44:H46)</f>
-        <v>285000</v>
-      </c>
-      <c r="I43" s="115">
-        <f>SUM(I44:I46)</f>
-        <v>285000</v>
-      </c>
-      <c r="J43" s="115">
-        <f>SUM(J44:J46)</f>
-        <v>285000</v>
-      </c>
-      <c r="K43" s="115">
-        <f>SUM(K44:K46)</f>
-        <v>285000</v>
-      </c>
-    </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D44" t="s">
-        <v>276</v>
-      </c>
-      <c r="F44" s="119">
-        <v>135000</v>
-      </c>
-      <c r="G44" s="114">
-        <v>135000</v>
-      </c>
-      <c r="H44" s="114">
-        <v>135000</v>
-      </c>
-      <c r="I44" s="114">
-        <v>135000</v>
-      </c>
-      <c r="J44" s="114">
-        <v>135000</v>
-      </c>
-      <c r="K44" s="114">
-        <v>135000</v>
-      </c>
-    </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D45" t="s">
-        <v>277</v>
-      </c>
-      <c r="F45" s="118">
-        <v>50000</v>
-      </c>
-      <c r="G45" s="80">
-        <v>50000</v>
-      </c>
-      <c r="H45" s="80">
-        <v>50000</v>
-      </c>
-      <c r="I45" s="80">
-        <v>50000</v>
-      </c>
-      <c r="J45" s="80">
-        <v>50000</v>
-      </c>
-      <c r="K45" s="80">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D46" t="s">
-        <v>278</v>
-      </c>
-      <c r="F46" s="118">
-        <v>100000</v>
-      </c>
-      <c r="G46" s="80">
-        <v>100000</v>
-      </c>
-      <c r="H46" s="80">
-        <v>100000</v>
-      </c>
-      <c r="I46" s="80">
-        <v>100000</v>
-      </c>
-      <c r="J46" s="80">
-        <v>100000</v>
-      </c>
-      <c r="K46" s="80">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D47" s="59" t="s">
-        <v>279</v>
-      </c>
-      <c r="F47" s="117">
-        <f>F42-F43</f>
-        <v>56500</v>
-      </c>
-      <c r="G47" s="78">
-        <f>G42-G43</f>
-        <v>66250</v>
-      </c>
-      <c r="H47" s="78">
-        <f>H42-H43</f>
-        <v>64500</v>
-      </c>
-      <c r="I47" s="78">
-        <f>I42-I43</f>
-        <v>72250</v>
-      </c>
-      <c r="J47" s="78">
-        <f>J42-J43</f>
-        <v>66250</v>
-      </c>
-      <c r="K47" s="78">
-        <f>K42-K43</f>
-        <v>66250</v>
-      </c>
-    </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="F48" s="121"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-    </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="F49" s="121"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="25"/>
-    </row>
-    <row r="50" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D50" s="59" t="s">
-        <v>283</v>
-      </c>
-      <c r="F50" s="122">
-        <f>(F47/F36)*100</f>
-        <v>11.078431372549019</v>
-      </c>
-      <c r="G50" s="124">
-        <f>(G47/G36)*100</f>
-        <v>12.990196078431374</v>
-      </c>
-      <c r="H50" s="28">
-        <f>(H47/H36)*100</f>
-        <v>12.647058823529411</v>
-      </c>
-      <c r="I50" s="125">
-        <f>(I47/I36)*100</f>
-        <v>14.166666666666666</v>
-      </c>
-      <c r="J50" s="125">
-        <f>(J47/J36)*100</f>
-        <v>12.990196078431374</v>
-      </c>
-      <c r="K50" s="125">
-        <f>(K47/K36)*100</f>
-        <v>12.990196078431374</v>
-      </c>
-    </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D51" t="s">
-        <v>282</v>
-      </c>
-      <c r="G51" t="s">
-        <v>298</v>
-      </c>
-      <c r="I51" t="s">
-        <v>304</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F795A1BF-E94F-412D-BBCC-0F81FBDBA90C}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -4173,10 +3245,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="101">
+      <c r="A2" s="138">
         <v>1</v>
       </c>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="148" t="s">
         <v>172</v>
       </c>
       <c r="C2" s="50" t="s">
@@ -4200,8 +3272,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="101"/>
-      <c r="B3" s="112"/>
+      <c r="A3" s="138"/>
+      <c r="B3" s="149"/>
       <c r="C3" s="41" t="s">
         <v>185</v>
       </c>
@@ -4225,8 +3297,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="101"/>
-      <c r="B4" s="113"/>
+      <c r="A4" s="138"/>
+      <c r="B4" s="150"/>
       <c r="C4" s="86" t="s">
         <v>219</v>
       </c>
@@ -4250,10 +3322,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="101">
+      <c r="A5" s="138">
         <v>2</v>
       </c>
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="145" t="s">
         <v>173</v>
       </c>
       <c r="C5" s="45" t="s">
@@ -4279,8 +3351,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" s="101"/>
-      <c r="B6" s="109"/>
+      <c r="A6" s="138"/>
+      <c r="B6" s="146"/>
       <c r="C6" s="43" t="s">
         <v>232</v>
       </c>
@@ -4304,8 +3376,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="101"/>
-      <c r="B7" s="110"/>
+      <c r="A7" s="138"/>
+      <c r="B7" s="147"/>
       <c r="C7" s="48" t="s">
         <v>194</v>
       </c>
@@ -4327,10 +3399,10 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="101">
+      <c r="A8" s="138">
         <v>3</v>
       </c>
-      <c r="B8" s="111" t="s">
+      <c r="B8" s="148" t="s">
         <v>174</v>
       </c>
       <c r="C8" s="95" t="s">
@@ -4354,8 +3426,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="101"/>
-      <c r="B9" s="112"/>
+      <c r="A9" s="138"/>
+      <c r="B9" s="149"/>
       <c r="C9" s="41" t="s">
         <v>196</v>
       </c>
@@ -4377,8 +3449,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="101"/>
-      <c r="B10" s="113"/>
+      <c r="A10" s="138"/>
+      <c r="B10" s="150"/>
       <c r="C10" s="53" t="s">
         <v>234</v>
       </c>
@@ -4402,10 +3474,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="101">
+      <c r="A11" s="138">
         <v>4</v>
       </c>
-      <c r="B11" s="108" t="s">
+      <c r="B11" s="145" t="s">
         <v>175</v>
       </c>
       <c r="C11" s="95" t="s">
@@ -4415,24 +3487,24 @@
         <v>199</v>
       </c>
       <c r="E11" s="95" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F11" s="95" t="s">
         <v>242</v>
       </c>
       <c r="G11" s="95" t="s">
-        <v>319</v>
-      </c>
-      <c r="H11" s="96">
-        <v>0</v>
+        <v>351</v>
+      </c>
+      <c r="H11" s="96" t="s">
+        <v>317</v>
       </c>
       <c r="I11" s="51">
         <v>11.76470588235294</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="101"/>
-      <c r="B12" s="109"/>
+      <c r="A12" s="138"/>
+      <c r="B12" s="146"/>
       <c r="C12" s="44" t="s">
         <v>238</v>
       </c>
@@ -4440,13 +3512,13 @@
         <v>200</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F12" s="44" t="s">
         <v>251</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H12" s="98">
         <v>0.05</v>
@@ -4456,8 +3528,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="101"/>
-      <c r="B13" s="110"/>
+      <c r="A13" s="138"/>
+      <c r="B13" s="147"/>
       <c r="C13" s="48" t="s">
         <v>239</v>
       </c>
@@ -4469,7 +3541,7 @@
         <v>241</v>
       </c>
       <c r="G13" s="48" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H13" s="93" t="s">
         <v>315</v>
@@ -4479,10 +3551,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="101">
+      <c r="A14" s="138">
         <v>5</v>
       </c>
-      <c r="B14" s="107" t="s">
+      <c r="B14" s="144" t="s">
         <v>176</v>
       </c>
       <c r="C14" s="55" t="s">
@@ -4497,8 +3569,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="101"/>
-      <c r="B15" s="107"/>
+      <c r="A15" s="138"/>
+      <c r="B15" s="144"/>
       <c r="C15" s="41" t="s">
         <v>203</v>
       </c>
@@ -4513,8 +3585,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="101"/>
-      <c r="B16" s="105"/>
+      <c r="A16" s="138"/>
+      <c r="B16" s="142"/>
       <c r="C16" s="53" t="s">
         <v>209</v>
       </c>
@@ -4529,10 +3601,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="101">
+      <c r="A17" s="138">
         <v>6</v>
       </c>
-      <c r="B17" s="102" t="s">
+      <c r="B17" s="139" t="s">
         <v>177</v>
       </c>
       <c r="C17" s="45" t="s">
@@ -4549,8 +3621,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="87" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="101"/>
-      <c r="B18" s="103"/>
+      <c r="A18" s="138"/>
+      <c r="B18" s="140"/>
       <c r="C18" s="48" t="s">
         <v>249</v>
       </c>
@@ -4563,10 +3635,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="101">
+      <c r="A19" s="138">
         <v>7</v>
       </c>
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="141" t="s">
         <v>178</v>
       </c>
       <c r="C19" s="50" t="s">
@@ -4583,8 +3655,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="101"/>
-      <c r="B20" s="105"/>
+      <c r="A20" s="138"/>
+      <c r="B20" s="142"/>
       <c r="C20" s="42" t="s">
         <v>252</v>
       </c>
@@ -4597,10 +3669,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="101">
+      <c r="A21" s="138">
         <v>8</v>
       </c>
-      <c r="B21" s="102" t="s">
+      <c r="B21" s="139" t="s">
         <v>179</v>
       </c>
       <c r="C21" s="45" t="s">
@@ -4617,8 +3689,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="101"/>
-      <c r="B22" s="106"/>
+      <c r="A22" s="138"/>
+      <c r="B22" s="143"/>
       <c r="C22" s="44" t="s">
         <v>256</v>
       </c>
@@ -4629,8 +3701,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="101"/>
-      <c r="B23" s="103"/>
+      <c r="A23" s="138"/>
+      <c r="B23" s="140"/>
       <c r="C23" s="48" t="s">
         <v>257</v>
       </c>
@@ -4641,10 +3713,10 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="101">
+      <c r="A24" s="138">
         <v>9</v>
       </c>
-      <c r="B24" s="104" t="s">
+      <c r="B24" s="141" t="s">
         <v>180</v>
       </c>
       <c r="C24" s="50" t="s">
@@ -4661,8 +3733,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="101"/>
-      <c r="B25" s="107"/>
+      <c r="A25" s="138"/>
+      <c r="B25" s="144"/>
       <c r="C25" s="41" t="s">
         <v>260</v>
       </c>
@@ -4675,8 +3747,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="101"/>
-      <c r="B26" s="105"/>
+      <c r="A26" s="138"/>
+      <c r="B26" s="142"/>
       <c r="C26" s="53" t="s">
         <v>261</v>
       </c>
@@ -4689,10 +3761,10 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="101">
+      <c r="A27" s="138">
         <v>10</v>
       </c>
-      <c r="B27" s="102" t="s">
+      <c r="B27" s="139" t="s">
         <v>267</v>
       </c>
       <c r="C27" s="45" t="s">
@@ -4709,8 +3781,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="101"/>
-      <c r="B28" s="103"/>
+      <c r="A28" s="138"/>
+      <c r="B28" s="140"/>
       <c r="C28" s="48" t="s">
         <v>269</v>
       </c>
@@ -4749,6 +3821,2588 @@
     <mergeCell ref="B24:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF1E804-CCC9-4E83-A7C2-B89895379936}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:Q51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" style="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.77734375" style="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.21875" style="30" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>281</v>
+      </c>
+      <c r="D1" s="70" t="s">
+        <v>294</v>
+      </c>
+      <c r="E1" s="71" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="67">
+        <v>425</v>
+      </c>
+      <c r="B2" s="68">
+        <v>1200</v>
+      </c>
+      <c r="C2" s="69">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:17" s="72" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B4" s="72" t="s">
+        <v>296</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>291</v>
+      </c>
+      <c r="D4" s="74" t="s">
+        <v>292</v>
+      </c>
+      <c r="E4" s="75" t="s">
+        <v>293</v>
+      </c>
+      <c r="F4" s="73" t="s">
+        <v>297</v>
+      </c>
+      <c r="G4" s="74" t="s">
+        <v>298</v>
+      </c>
+      <c r="H4" s="75" t="s">
+        <v>300</v>
+      </c>
+      <c r="I4" s="73" t="s">
+        <v>304</v>
+      </c>
+      <c r="J4" s="74" t="s">
+        <v>305</v>
+      </c>
+      <c r="K4" s="75" t="s">
+        <v>299</v>
+      </c>
+      <c r="L4" s="73" t="s">
+        <v>306</v>
+      </c>
+      <c r="M4" s="74" t="s">
+        <v>307</v>
+      </c>
+      <c r="N4" s="75" t="s">
+        <v>308</v>
+      </c>
+      <c r="O4" s="73" t="s">
+        <v>309</v>
+      </c>
+      <c r="P4" s="74" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q4" s="75" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="59" t="s">
+        <v>273</v>
+      </c>
+      <c r="B5" s="61">
+        <f t="shared" ref="B5:H5" si="0">$A2*$B2</f>
+        <v>510000</v>
+      </c>
+      <c r="C5" s="76">
+        <f t="shared" si="0"/>
+        <v>510000</v>
+      </c>
+      <c r="D5" s="77">
+        <f t="shared" si="0"/>
+        <v>510000</v>
+      </c>
+      <c r="E5" s="78">
+        <f t="shared" si="0"/>
+        <v>510000</v>
+      </c>
+      <c r="F5" s="76">
+        <f t="shared" si="0"/>
+        <v>510000</v>
+      </c>
+      <c r="G5" s="77">
+        <f t="shared" si="0"/>
+        <v>510000</v>
+      </c>
+      <c r="H5" s="78">
+        <f t="shared" si="0"/>
+        <v>510000</v>
+      </c>
+      <c r="I5" s="76">
+        <f t="shared" ref="I5:K5" si="1">$A2*$B2</f>
+        <v>510000</v>
+      </c>
+      <c r="J5" s="77">
+        <f t="shared" si="1"/>
+        <v>510000</v>
+      </c>
+      <c r="K5" s="78">
+        <f t="shared" si="1"/>
+        <v>510000</v>
+      </c>
+      <c r="L5" s="76">
+        <f t="shared" ref="L5:N5" si="2">$A2*$B2</f>
+        <v>510000</v>
+      </c>
+      <c r="M5" s="77">
+        <f t="shared" si="2"/>
+        <v>510000</v>
+      </c>
+      <c r="N5" s="78">
+        <f t="shared" si="2"/>
+        <v>510000</v>
+      </c>
+      <c r="O5" s="76">
+        <f t="shared" ref="O5:Q5" si="3">$A2*$B2</f>
+        <v>510000</v>
+      </c>
+      <c r="P5" s="77">
+        <f t="shared" si="3"/>
+        <v>510000</v>
+      </c>
+      <c r="Q5" s="78">
+        <f t="shared" si="3"/>
+        <v>510000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="99">
+        <f t="shared" ref="B6:H6" si="4">SUM(B7:B10)</f>
+        <v>150000</v>
+      </c>
+      <c r="C6" s="76">
+        <f t="shared" si="4"/>
+        <v>150000</v>
+      </c>
+      <c r="D6" s="77">
+        <f t="shared" si="4"/>
+        <v>150000</v>
+      </c>
+      <c r="E6" s="78">
+        <f t="shared" si="4"/>
+        <v>162500</v>
+      </c>
+      <c r="F6" s="76">
+        <f t="shared" si="4"/>
+        <v>156000</v>
+      </c>
+      <c r="G6" s="77">
+        <f t="shared" si="4"/>
+        <v>147500</v>
+      </c>
+      <c r="H6" s="78">
+        <f t="shared" si="4"/>
+        <v>148000</v>
+      </c>
+      <c r="I6" s="76">
+        <f t="shared" ref="I6:K6" si="5">SUM(I7:I10)</f>
+        <v>144000</v>
+      </c>
+      <c r="J6" s="77">
+        <f t="shared" si="5"/>
+        <v>148000</v>
+      </c>
+      <c r="K6" s="78">
+        <f t="shared" si="5"/>
+        <v>149000</v>
+      </c>
+      <c r="L6" s="76">
+        <f t="shared" ref="L6" si="6">SUM(L7:L10)</f>
+        <v>150000</v>
+      </c>
+      <c r="M6" s="77">
+        <f t="shared" ref="M6" si="7">SUM(M7:M10)</f>
+        <v>153750</v>
+      </c>
+      <c r="N6" s="78">
+        <f t="shared" ref="N6" si="8">SUM(N7:N10)</f>
+        <v>142500</v>
+      </c>
+      <c r="O6" s="76">
+        <f t="shared" ref="O6" si="9">SUM(O7:O10)</f>
+        <v>150000</v>
+      </c>
+      <c r="P6" s="77">
+        <f t="shared" ref="P6" si="10">SUM(P7:P10)</f>
+        <v>150000</v>
+      </c>
+      <c r="Q6" s="78">
+        <f t="shared" ref="Q6" si="11">SUM(Q7:Q10)</f>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="60">
+        <v>30000</v>
+      </c>
+      <c r="C7" s="79">
+        <v>30000</v>
+      </c>
+      <c r="D7" s="24">
+        <v>30000</v>
+      </c>
+      <c r="E7" s="80">
+        <v>30000</v>
+      </c>
+      <c r="F7" s="82">
+        <v>36000</v>
+      </c>
+      <c r="G7" s="24">
+        <v>30000</v>
+      </c>
+      <c r="H7" s="80">
+        <v>30000</v>
+      </c>
+      <c r="I7" s="82">
+        <v>39000</v>
+      </c>
+      <c r="J7" s="24">
+        <v>30000</v>
+      </c>
+      <c r="K7" s="80">
+        <v>30000</v>
+      </c>
+      <c r="L7" s="79">
+        <v>30000</v>
+      </c>
+      <c r="M7" s="24">
+        <v>30000</v>
+      </c>
+      <c r="N7" s="80">
+        <v>30000</v>
+      </c>
+      <c r="O7" s="79">
+        <v>30000</v>
+      </c>
+      <c r="P7" s="24">
+        <v>30000</v>
+      </c>
+      <c r="Q7" s="80">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="60">
+        <v>20000</v>
+      </c>
+      <c r="C8" s="79">
+        <v>20000</v>
+      </c>
+      <c r="D8" s="24">
+        <v>20000</v>
+      </c>
+      <c r="E8" s="80">
+        <v>20000</v>
+      </c>
+      <c r="F8" s="79">
+        <v>20000</v>
+      </c>
+      <c r="G8" s="24">
+        <v>20000</v>
+      </c>
+      <c r="H8" s="83">
+        <v>18000</v>
+      </c>
+      <c r="I8" s="94">
+        <v>5000</v>
+      </c>
+      <c r="J8" s="85">
+        <v>18000</v>
+      </c>
+      <c r="K8" s="83">
+        <v>19000</v>
+      </c>
+      <c r="L8" s="79">
+        <v>20000</v>
+      </c>
+      <c r="M8" s="24">
+        <v>20000</v>
+      </c>
+      <c r="N8" s="80">
+        <v>20000</v>
+      </c>
+      <c r="O8" s="79">
+        <v>20000</v>
+      </c>
+      <c r="P8" s="24">
+        <v>20000</v>
+      </c>
+      <c r="Q8" s="80">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="60">
+        <v>75000</v>
+      </c>
+      <c r="C9" s="79">
+        <v>75000</v>
+      </c>
+      <c r="D9" s="24">
+        <v>75000</v>
+      </c>
+      <c r="E9" s="80">
+        <v>75000</v>
+      </c>
+      <c r="F9" s="79">
+        <v>75000</v>
+      </c>
+      <c r="G9" s="24">
+        <v>75000</v>
+      </c>
+      <c r="H9" s="80">
+        <v>75000</v>
+      </c>
+      <c r="I9" s="79">
+        <v>75000</v>
+      </c>
+      <c r="J9" s="24">
+        <v>75000</v>
+      </c>
+      <c r="K9" s="80">
+        <v>75000</v>
+      </c>
+      <c r="L9" s="79">
+        <v>75000</v>
+      </c>
+      <c r="M9" s="84">
+        <v>78750</v>
+      </c>
+      <c r="N9" s="83">
+        <v>67500</v>
+      </c>
+      <c r="O9" s="79">
+        <v>75000</v>
+      </c>
+      <c r="P9" s="24">
+        <v>75000</v>
+      </c>
+      <c r="Q9" s="80">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>272</v>
+      </c>
+      <c r="B10" s="60">
+        <v>25000</v>
+      </c>
+      <c r="C10" s="79">
+        <v>25000</v>
+      </c>
+      <c r="D10" s="24">
+        <v>25000</v>
+      </c>
+      <c r="E10" s="81">
+        <v>37500</v>
+      </c>
+      <c r="F10" s="79">
+        <v>25000</v>
+      </c>
+      <c r="G10" s="85">
+        <v>22500</v>
+      </c>
+      <c r="H10" s="80">
+        <v>25000</v>
+      </c>
+      <c r="I10" s="79">
+        <v>25000</v>
+      </c>
+      <c r="J10" s="24">
+        <v>25000</v>
+      </c>
+      <c r="K10" s="80">
+        <v>25000</v>
+      </c>
+      <c r="L10" s="79">
+        <v>25000</v>
+      </c>
+      <c r="M10" s="24">
+        <v>25000</v>
+      </c>
+      <c r="N10" s="80">
+        <v>25000</v>
+      </c>
+      <c r="O10" s="79">
+        <v>25000</v>
+      </c>
+      <c r="P10" s="24">
+        <v>25000</v>
+      </c>
+      <c r="Q10" s="80">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="59" t="s">
+        <v>274</v>
+      </c>
+      <c r="B11" s="99">
+        <f t="shared" ref="B11:H11" si="12">B5-B6</f>
+        <v>360000</v>
+      </c>
+      <c r="C11" s="76">
+        <f t="shared" si="12"/>
+        <v>360000</v>
+      </c>
+      <c r="D11" s="77">
+        <f t="shared" si="12"/>
+        <v>360000</v>
+      </c>
+      <c r="E11" s="78">
+        <f t="shared" si="12"/>
+        <v>347500</v>
+      </c>
+      <c r="F11" s="76">
+        <f t="shared" si="12"/>
+        <v>354000</v>
+      </c>
+      <c r="G11" s="77">
+        <f t="shared" si="12"/>
+        <v>362500</v>
+      </c>
+      <c r="H11" s="78">
+        <f t="shared" si="12"/>
+        <v>362000</v>
+      </c>
+      <c r="I11" s="76">
+        <f t="shared" ref="I11:K11" si="13">I5-I6</f>
+        <v>366000</v>
+      </c>
+      <c r="J11" s="77">
+        <f t="shared" si="13"/>
+        <v>362000</v>
+      </c>
+      <c r="K11" s="78">
+        <f t="shared" si="13"/>
+        <v>361000</v>
+      </c>
+      <c r="L11" s="76">
+        <f t="shared" ref="L11:N11" si="14">L5-L6</f>
+        <v>360000</v>
+      </c>
+      <c r="M11" s="77">
+        <f t="shared" si="14"/>
+        <v>356250</v>
+      </c>
+      <c r="N11" s="78">
+        <f t="shared" si="14"/>
+        <v>367500</v>
+      </c>
+      <c r="O11" s="76">
+        <f t="shared" ref="O11:Q11" si="15">O5-O6</f>
+        <v>360000</v>
+      </c>
+      <c r="P11" s="77">
+        <f t="shared" si="15"/>
+        <v>360000</v>
+      </c>
+      <c r="Q11" s="78">
+        <f t="shared" si="15"/>
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="59" t="s">
+        <v>275</v>
+      </c>
+      <c r="B12" s="99">
+        <f t="shared" ref="B12:H12" si="16">SUM(B13:B15)</f>
+        <v>300000</v>
+      </c>
+      <c r="C12" s="76">
+        <f t="shared" si="16"/>
+        <v>322500</v>
+      </c>
+      <c r="D12" s="77">
+        <f t="shared" si="16"/>
+        <v>325000</v>
+      </c>
+      <c r="E12" s="78">
+        <f t="shared" si="16"/>
+        <v>285000</v>
+      </c>
+      <c r="F12" s="76">
+        <f t="shared" si="16"/>
+        <v>300000</v>
+      </c>
+      <c r="G12" s="77">
+        <f t="shared" si="16"/>
+        <v>300000</v>
+      </c>
+      <c r="H12" s="78">
+        <f t="shared" si="16"/>
+        <v>300000</v>
+      </c>
+      <c r="I12" s="76">
+        <f t="shared" ref="I12:K12" si="17">SUM(I13:I15)</f>
+        <v>300000</v>
+      </c>
+      <c r="J12" s="77">
+        <f t="shared" si="17"/>
+        <v>320000</v>
+      </c>
+      <c r="K12" s="78">
+        <f t="shared" si="17"/>
+        <v>315000</v>
+      </c>
+      <c r="L12" s="76">
+        <f t="shared" ref="L12" si="18">SUM(L13:L15)</f>
+        <v>300000</v>
+      </c>
+      <c r="M12" s="77">
+        <f t="shared" ref="M12" si="19">SUM(M13:M15)</f>
+        <v>300000</v>
+      </c>
+      <c r="N12" s="78">
+        <f t="shared" ref="N12" si="20">SUM(N13:N15)</f>
+        <v>315000</v>
+      </c>
+      <c r="O12" s="76">
+        <f t="shared" ref="O12" si="21">SUM(O13:O15)</f>
+        <v>300000</v>
+      </c>
+      <c r="P12" s="77">
+        <f t="shared" ref="P12" si="22">SUM(P13:P15)</f>
+        <v>300000</v>
+      </c>
+      <c r="Q12" s="78">
+        <f t="shared" ref="Q12" si="23">SUM(Q13:Q15)</f>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>276</v>
+      </c>
+      <c r="B13" s="60">
+        <v>150000</v>
+      </c>
+      <c r="C13" s="82">
+        <v>172500</v>
+      </c>
+      <c r="D13" s="24">
+        <v>150000</v>
+      </c>
+      <c r="E13" s="83">
+        <v>135000</v>
+      </c>
+      <c r="F13" s="79">
+        <v>150000</v>
+      </c>
+      <c r="G13" s="24">
+        <v>150000</v>
+      </c>
+      <c r="H13" s="80">
+        <v>150000</v>
+      </c>
+      <c r="I13" s="79">
+        <v>150000</v>
+      </c>
+      <c r="J13" s="24">
+        <v>150000</v>
+      </c>
+      <c r="K13" s="81">
+        <v>165000</v>
+      </c>
+      <c r="L13" s="79">
+        <v>150000</v>
+      </c>
+      <c r="M13" s="24">
+        <v>150000</v>
+      </c>
+      <c r="N13" s="81">
+        <v>165000</v>
+      </c>
+      <c r="O13" s="79">
+        <v>150000</v>
+      </c>
+      <c r="P13" s="24">
+        <v>150000</v>
+      </c>
+      <c r="Q13" s="80">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>277</v>
+      </c>
+      <c r="B14" s="60">
+        <v>50000</v>
+      </c>
+      <c r="C14" s="79">
+        <v>50000</v>
+      </c>
+      <c r="D14" s="24">
+        <v>50000</v>
+      </c>
+      <c r="E14" s="80">
+        <v>50000</v>
+      </c>
+      <c r="F14" s="79">
+        <v>50000</v>
+      </c>
+      <c r="G14" s="24">
+        <v>50000</v>
+      </c>
+      <c r="H14" s="80">
+        <v>50000</v>
+      </c>
+      <c r="I14" s="79">
+        <v>50000</v>
+      </c>
+      <c r="J14" s="24">
+        <v>50000</v>
+      </c>
+      <c r="K14" s="80">
+        <v>50000</v>
+      </c>
+      <c r="L14" s="79">
+        <v>50000</v>
+      </c>
+      <c r="M14" s="24">
+        <v>50000</v>
+      </c>
+      <c r="N14" s="80">
+        <v>50000</v>
+      </c>
+      <c r="O14" s="79">
+        <v>50000</v>
+      </c>
+      <c r="P14" s="24">
+        <v>50000</v>
+      </c>
+      <c r="Q14" s="80">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>278</v>
+      </c>
+      <c r="B15" s="60">
+        <v>100000</v>
+      </c>
+      <c r="C15" s="79">
+        <v>100000</v>
+      </c>
+      <c r="D15" s="84">
+        <v>125000</v>
+      </c>
+      <c r="E15" s="80">
+        <v>100000</v>
+      </c>
+      <c r="F15" s="79">
+        <v>100000</v>
+      </c>
+      <c r="G15" s="24">
+        <v>100000</v>
+      </c>
+      <c r="H15" s="80">
+        <v>100000</v>
+      </c>
+      <c r="I15" s="79">
+        <v>100000</v>
+      </c>
+      <c r="J15" s="84">
+        <v>120000</v>
+      </c>
+      <c r="K15" s="80">
+        <v>100000</v>
+      </c>
+      <c r="L15" s="79">
+        <v>100000</v>
+      </c>
+      <c r="M15" s="24">
+        <v>100000</v>
+      </c>
+      <c r="N15" s="80">
+        <v>100000</v>
+      </c>
+      <c r="O15" s="79">
+        <v>100000</v>
+      </c>
+      <c r="P15" s="24">
+        <v>100000</v>
+      </c>
+      <c r="Q15" s="80">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="59" t="s">
+        <v>279</v>
+      </c>
+      <c r="B16" s="99">
+        <f>B11-B12</f>
+        <v>60000</v>
+      </c>
+      <c r="C16" s="76">
+        <f t="shared" ref="C16:H16" si="24">C11-C12</f>
+        <v>37500</v>
+      </c>
+      <c r="D16" s="77">
+        <f t="shared" si="24"/>
+        <v>35000</v>
+      </c>
+      <c r="E16" s="78">
+        <f t="shared" si="24"/>
+        <v>62500</v>
+      </c>
+      <c r="F16" s="76">
+        <f t="shared" si="24"/>
+        <v>54000</v>
+      </c>
+      <c r="G16" s="77">
+        <f t="shared" si="24"/>
+        <v>62500</v>
+      </c>
+      <c r="H16" s="78">
+        <f t="shared" si="24"/>
+        <v>62000</v>
+      </c>
+      <c r="I16" s="76">
+        <f t="shared" ref="I16:K16" si="25">I11-I12</f>
+        <v>66000</v>
+      </c>
+      <c r="J16" s="77">
+        <f t="shared" si="25"/>
+        <v>42000</v>
+      </c>
+      <c r="K16" s="78">
+        <f t="shared" si="25"/>
+        <v>46000</v>
+      </c>
+      <c r="L16" s="76">
+        <f t="shared" ref="L16:N16" si="26">L11-L12</f>
+        <v>60000</v>
+      </c>
+      <c r="M16" s="77">
+        <f t="shared" si="26"/>
+        <v>56250</v>
+      </c>
+      <c r="N16" s="78">
+        <f t="shared" si="26"/>
+        <v>52500</v>
+      </c>
+      <c r="O16" s="76">
+        <f t="shared" ref="O16:Q16" si="27">O11-O12</f>
+        <v>60000</v>
+      </c>
+      <c r="P16" s="77">
+        <f t="shared" si="27"/>
+        <v>60000</v>
+      </c>
+      <c r="Q16" s="78">
+        <f t="shared" si="27"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C17" s="23"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="23"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="23"/>
+      <c r="J17"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="23"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="23"/>
+      <c r="Q17" s="25"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C18" s="23"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="23"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="23"/>
+      <c r="J18"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="23"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="23"/>
+      <c r="Q18" s="25"/>
+    </row>
+    <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="59" t="s">
+        <v>283</v>
+      </c>
+      <c r="B19" s="100">
+        <f>(B16/B5)*100</f>
+        <v>11.76470588235294</v>
+      </c>
+      <c r="C19" s="26">
+        <f>(C16/C5)*100</f>
+        <v>7.3529411764705888</v>
+      </c>
+      <c r="D19" s="27">
+        <f t="shared" ref="D19:E19" si="28">(D16/D5)*100</f>
+        <v>6.8627450980392162</v>
+      </c>
+      <c r="E19" s="28">
+        <f t="shared" si="28"/>
+        <v>12.254901960784313</v>
+      </c>
+      <c r="F19" s="26">
+        <f>(F16/F5)*100</f>
+        <v>10.588235294117647</v>
+      </c>
+      <c r="G19" s="27">
+        <f t="shared" ref="G19:K19" si="29">(G16/G5)*100</f>
+        <v>12.254901960784313</v>
+      </c>
+      <c r="H19" s="28">
+        <f t="shared" si="29"/>
+        <v>12.156862745098039</v>
+      </c>
+      <c r="I19" s="26">
+        <f t="shared" si="29"/>
+        <v>12.941176470588237</v>
+      </c>
+      <c r="J19" s="27">
+        <f t="shared" si="29"/>
+        <v>8.235294117647058</v>
+      </c>
+      <c r="K19" s="28">
+        <f t="shared" si="29"/>
+        <v>9.0196078431372548</v>
+      </c>
+      <c r="L19" s="26">
+        <f t="shared" ref="L19:N19" si="30">(L16/L5)*100</f>
+        <v>11.76470588235294</v>
+      </c>
+      <c r="M19" s="27">
+        <f t="shared" si="30"/>
+        <v>11.029411764705882</v>
+      </c>
+      <c r="N19" s="28">
+        <f t="shared" si="30"/>
+        <v>10.294117647058822</v>
+      </c>
+      <c r="O19" s="26">
+        <f t="shared" ref="O19:Q19" si="31">(O16/O5)*100</f>
+        <v>11.76470588235294</v>
+      </c>
+      <c r="P19" s="27">
+        <f t="shared" si="31"/>
+        <v>11.76470588235294</v>
+      </c>
+      <c r="Q19" s="28">
+        <f t="shared" si="31"/>
+        <v>11.76470588235294</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>326</v>
+      </c>
+      <c r="C24" t="s">
+        <v>327</v>
+      </c>
+      <c r="D24" t="s">
+        <v>328</v>
+      </c>
+      <c r="E24" t="s">
+        <v>329</v>
+      </c>
+      <c r="F24" t="s">
+        <v>331</v>
+      </c>
+      <c r="G24" t="s">
+        <v>332</v>
+      </c>
+      <c r="H24" t="s">
+        <v>333</v>
+      </c>
+      <c r="I24" t="s">
+        <v>338</v>
+      </c>
+      <c r="J24" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="K24" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="L24" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="M24" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="N24" s="30" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>330</v>
+      </c>
+      <c r="G28" t="s">
+        <v>334</v>
+      </c>
+      <c r="J28" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="M28" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="33" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="F33" t="s">
+        <v>337</v>
+      </c>
+      <c r="G33" t="s">
+        <v>336</v>
+      </c>
+      <c r="H33" t="s">
+        <v>335</v>
+      </c>
+      <c r="I33" t="s">
+        <v>346</v>
+      </c>
+      <c r="J33" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="K33" s="30" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="34" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="4:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="F35" s="103" t="s">
+        <v>293</v>
+      </c>
+      <c r="G35" s="75" t="s">
+        <v>293</v>
+      </c>
+      <c r="H35" s="75" t="s">
+        <v>293</v>
+      </c>
+      <c r="I35" s="75" t="s">
+        <v>298</v>
+      </c>
+      <c r="J35" s="75" t="s">
+        <v>298</v>
+      </c>
+      <c r="K35" s="75" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="36" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D36" s="59" t="s">
+        <v>273</v>
+      </c>
+      <c r="F36" s="104">
+        <v>510000</v>
+      </c>
+      <c r="G36" s="78">
+        <v>510000</v>
+      </c>
+      <c r="H36" s="78">
+        <v>510000</v>
+      </c>
+      <c r="I36" s="78">
+        <v>510000</v>
+      </c>
+      <c r="J36" s="78">
+        <v>510000</v>
+      </c>
+      <c r="K36" s="78">
+        <v>510000</v>
+      </c>
+    </row>
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D37" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="104">
+        <f t="shared" ref="F37:K37" si="32">SUM(F38:F41)</f>
+        <v>168500</v>
+      </c>
+      <c r="G37" s="78">
+        <f t="shared" si="32"/>
+        <v>158750</v>
+      </c>
+      <c r="H37" s="78">
+        <f t="shared" si="32"/>
+        <v>160500</v>
+      </c>
+      <c r="I37" s="78">
+        <f t="shared" si="32"/>
+        <v>152750</v>
+      </c>
+      <c r="J37" s="78">
+        <f t="shared" si="32"/>
+        <v>158750</v>
+      </c>
+      <c r="K37" s="78">
+        <f t="shared" si="32"/>
+        <v>158750</v>
+      </c>
+    </row>
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>149</v>
+      </c>
+      <c r="F38" s="110">
+        <v>36000</v>
+      </c>
+      <c r="G38" s="80">
+        <v>30000</v>
+      </c>
+      <c r="H38" s="80">
+        <v>30000</v>
+      </c>
+      <c r="I38" s="81">
+        <v>39000</v>
+      </c>
+      <c r="J38" s="80">
+        <v>30000</v>
+      </c>
+      <c r="K38" s="80">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>150</v>
+      </c>
+      <c r="F39" s="105">
+        <v>20000</v>
+      </c>
+      <c r="G39" s="80">
+        <v>20000</v>
+      </c>
+      <c r="H39" s="83">
+        <v>18000</v>
+      </c>
+      <c r="I39" s="83">
+        <v>5000</v>
+      </c>
+      <c r="J39" s="80">
+        <v>20000</v>
+      </c>
+      <c r="K39" s="80">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>151</v>
+      </c>
+      <c r="F40" s="105">
+        <v>75000</v>
+      </c>
+      <c r="G40" s="80">
+        <v>75000</v>
+      </c>
+      <c r="H40" s="80">
+        <v>75000</v>
+      </c>
+      <c r="I40" s="80">
+        <v>75000</v>
+      </c>
+      <c r="J40" s="80">
+        <v>75000</v>
+      </c>
+      <c r="K40" s="80">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>272</v>
+      </c>
+      <c r="F41" s="106">
+        <v>37500</v>
+      </c>
+      <c r="G41" s="83">
+        <v>33750</v>
+      </c>
+      <c r="H41" s="101">
+        <v>37500</v>
+      </c>
+      <c r="I41" s="101">
+        <v>33750</v>
+      </c>
+      <c r="J41" s="101">
+        <v>33750</v>
+      </c>
+      <c r="K41" s="101">
+        <v>33750</v>
+      </c>
+    </row>
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D42" s="59" t="s">
+        <v>274</v>
+      </c>
+      <c r="F42" s="107">
+        <f t="shared" ref="F42:K42" si="33">F36-F37</f>
+        <v>341500</v>
+      </c>
+      <c r="G42" s="102">
+        <f t="shared" si="33"/>
+        <v>351250</v>
+      </c>
+      <c r="H42" s="102">
+        <f t="shared" si="33"/>
+        <v>349500</v>
+      </c>
+      <c r="I42" s="102">
+        <f t="shared" si="33"/>
+        <v>357250</v>
+      </c>
+      <c r="J42" s="102">
+        <f t="shared" si="33"/>
+        <v>351250</v>
+      </c>
+      <c r="K42" s="102">
+        <f t="shared" si="33"/>
+        <v>351250</v>
+      </c>
+    </row>
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D43" s="59" t="s">
+        <v>275</v>
+      </c>
+      <c r="F43" s="107">
+        <f t="shared" ref="F43:K43" si="34">SUM(F44:F46)</f>
+        <v>285000</v>
+      </c>
+      <c r="G43" s="102">
+        <f t="shared" si="34"/>
+        <v>285000</v>
+      </c>
+      <c r="H43" s="102">
+        <f t="shared" si="34"/>
+        <v>285000</v>
+      </c>
+      <c r="I43" s="102">
+        <f t="shared" si="34"/>
+        <v>285000</v>
+      </c>
+      <c r="J43" s="102">
+        <f t="shared" si="34"/>
+        <v>285000</v>
+      </c>
+      <c r="K43" s="102">
+        <f t="shared" si="34"/>
+        <v>285000</v>
+      </c>
+    </row>
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>276</v>
+      </c>
+      <c r="F44" s="106">
+        <v>135000</v>
+      </c>
+      <c r="G44" s="101">
+        <v>135000</v>
+      </c>
+      <c r="H44" s="101">
+        <v>135000</v>
+      </c>
+      <c r="I44" s="101">
+        <v>135000</v>
+      </c>
+      <c r="J44" s="101">
+        <v>135000</v>
+      </c>
+      <c r="K44" s="101">
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>277</v>
+      </c>
+      <c r="F45" s="105">
+        <v>50000</v>
+      </c>
+      <c r="G45" s="80">
+        <v>50000</v>
+      </c>
+      <c r="H45" s="80">
+        <v>50000</v>
+      </c>
+      <c r="I45" s="80">
+        <v>50000</v>
+      </c>
+      <c r="J45" s="80">
+        <v>50000</v>
+      </c>
+      <c r="K45" s="80">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
+        <v>278</v>
+      </c>
+      <c r="F46" s="105">
+        <v>100000</v>
+      </c>
+      <c r="G46" s="80">
+        <v>100000</v>
+      </c>
+      <c r="H46" s="80">
+        <v>100000</v>
+      </c>
+      <c r="I46" s="80">
+        <v>100000</v>
+      </c>
+      <c r="J46" s="80">
+        <v>100000</v>
+      </c>
+      <c r="K46" s="80">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D47" s="59" t="s">
+        <v>279</v>
+      </c>
+      <c r="F47" s="104">
+        <f t="shared" ref="F47:K47" si="35">F42-F43</f>
+        <v>56500</v>
+      </c>
+      <c r="G47" s="78">
+        <f t="shared" si="35"/>
+        <v>66250</v>
+      </c>
+      <c r="H47" s="78">
+        <f t="shared" si="35"/>
+        <v>64500</v>
+      </c>
+      <c r="I47" s="78">
+        <f t="shared" si="35"/>
+        <v>72250</v>
+      </c>
+      <c r="J47" s="78">
+        <f t="shared" si="35"/>
+        <v>66250</v>
+      </c>
+      <c r="K47" s="78">
+        <f t="shared" si="35"/>
+        <v>66250</v>
+      </c>
+    </row>
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="F48" s="108"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+    </row>
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="F49" s="108"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+    </row>
+    <row r="50" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D50" s="59" t="s">
+        <v>283</v>
+      </c>
+      <c r="F50" s="109">
+        <f t="shared" ref="F50:K50" si="36">(F47/F36)*100</f>
+        <v>11.078431372549019</v>
+      </c>
+      <c r="G50" s="111">
+        <f t="shared" si="36"/>
+        <v>12.990196078431374</v>
+      </c>
+      <c r="H50" s="28">
+        <f t="shared" si="36"/>
+        <v>12.647058823529411</v>
+      </c>
+      <c r="I50" s="28">
+        <f t="shared" si="36"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="J50" s="28">
+        <f t="shared" si="36"/>
+        <v>12.990196078431374</v>
+      </c>
+      <c r="K50" s="28">
+        <f t="shared" si="36"/>
+        <v>12.990196078431374</v>
+      </c>
+    </row>
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D51" t="s">
+        <v>282</v>
+      </c>
+      <c r="G51" t="s">
+        <v>298</v>
+      </c>
+      <c r="I51" t="s">
+        <v>304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB04E3D0-D4B4-47B9-AE20-5868DF0A5CCB}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:F77"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.21875" style="115" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="115" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.44140625" style="115" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.77734375" style="115"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="112" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="113" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" s="114"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="116">
+        <v>425</v>
+      </c>
+      <c r="B2" s="117">
+        <v>1200</v>
+      </c>
+      <c r="C2" s="118"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="125" t="s">
+        <v>349</v>
+      </c>
+      <c r="C3" s="124" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="119"/>
+      <c r="B5" s="131" t="s">
+        <v>296</v>
+      </c>
+      <c r="C5" s="103" t="s">
+        <v>293</v>
+      </c>
+      <c r="D5" s="75" t="s">
+        <v>298</v>
+      </c>
+      <c r="E5" s="103" t="s">
+        <v>304</v>
+      </c>
+      <c r="F5" s="103" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="120" t="s">
+        <v>273</v>
+      </c>
+      <c r="B6" s="132">
+        <f>$A2*$B2</f>
+        <v>510000</v>
+      </c>
+      <c r="C6" s="107">
+        <f>$A2*$B2</f>
+        <v>510000</v>
+      </c>
+      <c r="D6" s="78">
+        <v>510000</v>
+      </c>
+      <c r="E6" s="107">
+        <v>510000</v>
+      </c>
+      <c r="F6" s="107">
+        <v>510000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="132">
+        <f t="shared" ref="B7" si="0">SUM(B8:B11)</f>
+        <v>150000</v>
+      </c>
+      <c r="C7" s="107">
+        <f>SUM(C8:C11)</f>
+        <v>162500</v>
+      </c>
+      <c r="D7" s="78">
+        <f t="shared" ref="D7:F7" si="1">SUM(D8:D11)</f>
+        <v>158750</v>
+      </c>
+      <c r="E7" s="107">
+        <f t="shared" si="1"/>
+        <v>152750</v>
+      </c>
+      <c r="F7" s="107">
+        <f t="shared" si="1"/>
+        <v>145250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="115" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="133">
+        <v>30000</v>
+      </c>
+      <c r="C8" s="106">
+        <v>30000</v>
+      </c>
+      <c r="D8" s="80">
+        <v>30000</v>
+      </c>
+      <c r="E8" s="128">
+        <v>39000</v>
+      </c>
+      <c r="F8" s="106">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="115" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="133">
+        <v>20000</v>
+      </c>
+      <c r="C9" s="106">
+        <v>20000</v>
+      </c>
+      <c r="D9" s="80">
+        <v>20000</v>
+      </c>
+      <c r="E9" s="129">
+        <v>5000</v>
+      </c>
+      <c r="F9" s="106">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="115" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="133">
+        <v>75000</v>
+      </c>
+      <c r="C10" s="106">
+        <v>75000</v>
+      </c>
+      <c r="D10" s="80">
+        <v>75000</v>
+      </c>
+      <c r="E10" s="106">
+        <v>75000</v>
+      </c>
+      <c r="F10" s="129">
+        <v>67500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="115" t="s">
+        <v>272</v>
+      </c>
+      <c r="B11" s="133">
+        <v>25000</v>
+      </c>
+      <c r="C11" s="128">
+        <v>37500</v>
+      </c>
+      <c r="D11" s="130">
+        <v>33750</v>
+      </c>
+      <c r="E11" s="106">
+        <v>33750</v>
+      </c>
+      <c r="F11" s="106">
+        <v>33750</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="120" t="s">
+        <v>274</v>
+      </c>
+      <c r="B12" s="132">
+        <f t="shared" ref="B12" si="2">B6-B7</f>
+        <v>360000</v>
+      </c>
+      <c r="C12" s="107">
+        <f>C6-C7</f>
+        <v>347500</v>
+      </c>
+      <c r="D12" s="102">
+        <f t="shared" ref="D12:F12" si="3">D6-D7</f>
+        <v>351250</v>
+      </c>
+      <c r="E12" s="107">
+        <f t="shared" si="3"/>
+        <v>357250</v>
+      </c>
+      <c r="F12" s="107">
+        <f t="shared" si="3"/>
+        <v>364750</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="120" t="s">
+        <v>275</v>
+      </c>
+      <c r="B13" s="132">
+        <f t="shared" ref="B13" si="4">SUM(B14:B16)</f>
+        <v>300000</v>
+      </c>
+      <c r="C13" s="107">
+        <f>SUM(C14:C16)</f>
+        <v>285000</v>
+      </c>
+      <c r="D13" s="102">
+        <f t="shared" ref="D13:F13" si="5">SUM(D14:D16)</f>
+        <v>285000</v>
+      </c>
+      <c r="E13" s="107">
+        <f t="shared" si="5"/>
+        <v>285000</v>
+      </c>
+      <c r="F13" s="107">
+        <f t="shared" si="5"/>
+        <v>291750</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="115" t="s">
+        <v>276</v>
+      </c>
+      <c r="B14" s="133">
+        <v>150000</v>
+      </c>
+      <c r="C14" s="129">
+        <v>135000</v>
+      </c>
+      <c r="D14" s="101">
+        <v>135000</v>
+      </c>
+      <c r="E14" s="106">
+        <v>135000</v>
+      </c>
+      <c r="F14" s="128">
+        <v>141750</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="115" t="s">
+        <v>277</v>
+      </c>
+      <c r="B15" s="133">
+        <v>50000</v>
+      </c>
+      <c r="C15" s="106">
+        <v>50000</v>
+      </c>
+      <c r="D15" s="80">
+        <v>50000</v>
+      </c>
+      <c r="E15" s="106">
+        <v>50000</v>
+      </c>
+      <c r="F15" s="106">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="115" t="s">
+        <v>278</v>
+      </c>
+      <c r="B16" s="133">
+        <v>100000</v>
+      </c>
+      <c r="C16" s="106">
+        <v>100000</v>
+      </c>
+      <c r="D16" s="80">
+        <v>100000</v>
+      </c>
+      <c r="E16" s="106">
+        <v>100000</v>
+      </c>
+      <c r="F16" s="106">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="120" t="s">
+        <v>279</v>
+      </c>
+      <c r="B17" s="132">
+        <f>B12-B13</f>
+        <v>60000</v>
+      </c>
+      <c r="C17" s="107">
+        <f>C12-C13</f>
+        <v>62500</v>
+      </c>
+      <c r="D17" s="78">
+        <f t="shared" ref="D17:F17" si="6">D12-D13</f>
+        <v>66250</v>
+      </c>
+      <c r="E17" s="107">
+        <f t="shared" si="6"/>
+        <v>72250</v>
+      </c>
+      <c r="F17" s="107">
+        <f t="shared" si="6"/>
+        <v>73000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="134"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="134"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="108"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="120" t="s">
+        <v>283</v>
+      </c>
+      <c r="B20" s="134">
+        <f>(B17/B6)*100</f>
+        <v>11.76470588235294</v>
+      </c>
+      <c r="C20" s="108">
+        <f>(C17/C6)*100</f>
+        <v>12.254901960784313</v>
+      </c>
+      <c r="D20" s="25">
+        <f t="shared" ref="D20:F20" si="7">(D17/D6)*100</f>
+        <v>12.990196078431374</v>
+      </c>
+      <c r="E20" s="137">
+        <f t="shared" si="7"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="F20" s="137">
+        <f t="shared" si="7"/>
+        <v>14.313725490196077</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="115" t="s">
+        <v>282</v>
+      </c>
+      <c r="B21" s="135"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="135"/>
+      <c r="F21" s="135"/>
+    </row>
+    <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B25" s="72" t="s">
+        <v>291</v>
+      </c>
+      <c r="C25" s="72" t="s">
+        <v>297</v>
+      </c>
+      <c r="D25" s="72" t="s">
+        <v>304</v>
+      </c>
+      <c r="E25" s="72" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="120" t="s">
+        <v>273</v>
+      </c>
+      <c r="B26" s="122">
+        <f>$A2*$B2</f>
+        <v>510000</v>
+      </c>
+      <c r="C26" s="77">
+        <v>510000</v>
+      </c>
+      <c r="D26" s="122">
+        <v>510000</v>
+      </c>
+      <c r="E26" s="122">
+        <v>510000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="122">
+        <f>SUM(B28:B31)</f>
+        <v>150000</v>
+      </c>
+      <c r="C27" s="77">
+        <f t="shared" ref="C27:E27" si="8">SUM(C28:C31)</f>
+        <v>168500</v>
+      </c>
+      <c r="D27" s="122">
+        <f t="shared" si="8"/>
+        <v>152750</v>
+      </c>
+      <c r="E27" s="122">
+        <f t="shared" si="8"/>
+        <v>145250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="115" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" s="123">
+        <v>30000</v>
+      </c>
+      <c r="C28" s="127">
+        <v>36000</v>
+      </c>
+      <c r="D28" s="127">
+        <v>39000</v>
+      </c>
+      <c r="E28" s="123">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="115" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" s="123">
+        <v>20000</v>
+      </c>
+      <c r="C29" s="24">
+        <v>20000</v>
+      </c>
+      <c r="D29" s="126">
+        <v>5000</v>
+      </c>
+      <c r="E29" s="123">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="115" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30" s="123">
+        <v>75000</v>
+      </c>
+      <c r="C30" s="24">
+        <v>75000</v>
+      </c>
+      <c r="D30" s="123">
+        <v>75000</v>
+      </c>
+      <c r="E30" s="126">
+        <v>67500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="115" t="s">
+        <v>272</v>
+      </c>
+      <c r="B31" s="123">
+        <v>25000</v>
+      </c>
+      <c r="C31" s="123">
+        <v>37500</v>
+      </c>
+      <c r="D31" s="123">
+        <v>33750</v>
+      </c>
+      <c r="E31" s="123">
+        <v>33750</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="120" t="s">
+        <v>274</v>
+      </c>
+      <c r="B32" s="122">
+        <f>B26-B27</f>
+        <v>360000</v>
+      </c>
+      <c r="C32" s="122">
+        <f t="shared" ref="C32:E32" si="9">C26-C27</f>
+        <v>341500</v>
+      </c>
+      <c r="D32" s="122">
+        <f t="shared" si="9"/>
+        <v>357250</v>
+      </c>
+      <c r="E32" s="122">
+        <f t="shared" si="9"/>
+        <v>364750</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="120" t="s">
+        <v>275</v>
+      </c>
+      <c r="B33" s="122">
+        <f>SUM(B34:B36)</f>
+        <v>322500</v>
+      </c>
+      <c r="C33" s="122">
+        <f t="shared" ref="C33:E33" si="10">SUM(C34:C36)</f>
+        <v>285000</v>
+      </c>
+      <c r="D33" s="122">
+        <f t="shared" si="10"/>
+        <v>285000</v>
+      </c>
+      <c r="E33" s="122">
+        <f t="shared" si="10"/>
+        <v>291750</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="115" t="s">
+        <v>276</v>
+      </c>
+      <c r="B34" s="127">
+        <v>172500</v>
+      </c>
+      <c r="C34" s="123">
+        <v>135000</v>
+      </c>
+      <c r="D34" s="123">
+        <v>135000</v>
+      </c>
+      <c r="E34" s="127">
+        <v>141750</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="115" t="s">
+        <v>277</v>
+      </c>
+      <c r="B35" s="123">
+        <v>50000</v>
+      </c>
+      <c r="C35" s="24">
+        <v>50000</v>
+      </c>
+      <c r="D35" s="123">
+        <v>50000</v>
+      </c>
+      <c r="E35" s="123">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="115" t="s">
+        <v>278</v>
+      </c>
+      <c r="B36" s="123">
+        <v>100000</v>
+      </c>
+      <c r="C36" s="24">
+        <v>100000</v>
+      </c>
+      <c r="D36" s="123">
+        <v>100000</v>
+      </c>
+      <c r="E36" s="123">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="120" t="s">
+        <v>279</v>
+      </c>
+      <c r="B37" s="122">
+        <f t="shared" ref="B37" si="11">B32-B33</f>
+        <v>37500</v>
+      </c>
+      <c r="C37" s="77">
+        <f t="shared" ref="C37:E37" si="12">C32-C33</f>
+        <v>56500</v>
+      </c>
+      <c r="D37" s="122">
+        <f t="shared" si="12"/>
+        <v>72250</v>
+      </c>
+      <c r="E37" s="122">
+        <f t="shared" si="12"/>
+        <v>73000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="120" t="s">
+        <v>283</v>
+      </c>
+      <c r="B40">
+        <f>(B37/B26)*100</f>
+        <v>7.3529411764705888</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ref="C40:E40" si="13">(C37/C26)*100</f>
+        <v>11.078431372549019</v>
+      </c>
+      <c r="D40" s="136">
+        <f t="shared" si="13"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="E40" s="136">
+        <f t="shared" si="13"/>
+        <v>14.313725490196077</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="115" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B43" s="72" t="s">
+        <v>292</v>
+      </c>
+      <c r="C43" s="72" t="s">
+        <v>298</v>
+      </c>
+      <c r="D43" s="72" t="s">
+        <v>305</v>
+      </c>
+      <c r="E43" s="72" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="120" t="s">
+        <v>273</v>
+      </c>
+      <c r="B44" s="122">
+        <f>$A2*$B2</f>
+        <v>510000</v>
+      </c>
+      <c r="C44" s="77">
+        <v>510000</v>
+      </c>
+      <c r="D44" s="122">
+        <v>510000</v>
+      </c>
+      <c r="E44" s="122">
+        <v>510000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="122">
+        <f>SUM(B46:B49)</f>
+        <v>150000</v>
+      </c>
+      <c r="C45" s="77">
+        <f t="shared" ref="C45:E45" si="14">SUM(C46:C49)</f>
+        <v>158750</v>
+      </c>
+      <c r="D45" s="122">
+        <f t="shared" si="14"/>
+        <v>156750</v>
+      </c>
+      <c r="E45" s="122">
+        <f t="shared" si="14"/>
+        <v>156500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="115" t="s">
+        <v>149</v>
+      </c>
+      <c r="B46" s="123">
+        <v>30000</v>
+      </c>
+      <c r="C46" s="24">
+        <v>30000</v>
+      </c>
+      <c r="D46" s="123">
+        <v>30000</v>
+      </c>
+      <c r="E46" s="123">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="115" t="s">
+        <v>150</v>
+      </c>
+      <c r="B47" s="123">
+        <v>20000</v>
+      </c>
+      <c r="C47" s="24">
+        <v>20000</v>
+      </c>
+      <c r="D47" s="126">
+        <v>18000</v>
+      </c>
+      <c r="E47" s="123">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="115" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="123">
+        <v>75000</v>
+      </c>
+      <c r="C48" s="24">
+        <v>75000</v>
+      </c>
+      <c r="D48" s="123">
+        <v>75000</v>
+      </c>
+      <c r="E48" s="127">
+        <v>78750</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="115" t="s">
+        <v>272</v>
+      </c>
+      <c r="B49" s="123">
+        <v>25000</v>
+      </c>
+      <c r="C49" s="126">
+        <v>33750</v>
+      </c>
+      <c r="D49" s="123">
+        <v>33750</v>
+      </c>
+      <c r="E49" s="123">
+        <v>33750</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="120" t="s">
+        <v>274</v>
+      </c>
+      <c r="B50" s="122">
+        <f>B44-B45</f>
+        <v>360000</v>
+      </c>
+      <c r="C50" s="122">
+        <f t="shared" ref="C50:E50" si="15">C44-C45</f>
+        <v>351250</v>
+      </c>
+      <c r="D50" s="122">
+        <f t="shared" si="15"/>
+        <v>353250</v>
+      </c>
+      <c r="E50" s="122">
+        <f t="shared" si="15"/>
+        <v>353500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="120" t="s">
+        <v>275</v>
+      </c>
+      <c r="B51" s="122">
+        <f>SUM(B52:B54)</f>
+        <v>325000</v>
+      </c>
+      <c r="C51" s="122">
+        <f t="shared" ref="C51:E51" si="16">SUM(C52:C54)</f>
+        <v>285000</v>
+      </c>
+      <c r="D51" s="122">
+        <f t="shared" si="16"/>
+        <v>305000</v>
+      </c>
+      <c r="E51" s="122">
+        <f t="shared" si="16"/>
+        <v>285000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="115" t="s">
+        <v>276</v>
+      </c>
+      <c r="B52" s="123">
+        <v>150000</v>
+      </c>
+      <c r="C52" s="123">
+        <v>135000</v>
+      </c>
+      <c r="D52" s="123">
+        <v>135000</v>
+      </c>
+      <c r="E52" s="123">
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="115" t="s">
+        <v>277</v>
+      </c>
+      <c r="B53" s="123">
+        <v>50000</v>
+      </c>
+      <c r="C53" s="24">
+        <v>50000</v>
+      </c>
+      <c r="D53" s="123">
+        <v>50000</v>
+      </c>
+      <c r="E53" s="123">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="115" t="s">
+        <v>278</v>
+      </c>
+      <c r="B54" s="127">
+        <v>125000</v>
+      </c>
+      <c r="C54" s="24">
+        <v>100000</v>
+      </c>
+      <c r="D54" s="127">
+        <v>120000</v>
+      </c>
+      <c r="E54" s="123">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="120" t="s">
+        <v>279</v>
+      </c>
+      <c r="B55" s="122">
+        <f>B50-B51</f>
+        <v>35000</v>
+      </c>
+      <c r="C55" s="77">
+        <f t="shared" ref="C55:E55" si="17">C50-C51</f>
+        <v>66250</v>
+      </c>
+      <c r="D55" s="122">
+        <f t="shared" si="17"/>
+        <v>48250</v>
+      </c>
+      <c r="E55" s="122">
+        <f t="shared" si="17"/>
+        <v>68500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="120" t="s">
+        <v>283</v>
+      </c>
+      <c r="B58">
+        <f>(B55/B44)*100</f>
+        <v>6.8627450980392162</v>
+      </c>
+      <c r="C58" s="136">
+        <f t="shared" ref="C58:E58" si="18">(C55/C44)*100</f>
+        <v>12.990196078431374</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="18"/>
+        <v>9.4607843137254903</v>
+      </c>
+      <c r="E58" s="121">
+        <f t="shared" si="18"/>
+        <v>13.431372549019608</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="115" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B60" s="72" t="s">
+        <v>293</v>
+      </c>
+      <c r="C60" s="72" t="s">
+        <v>300</v>
+      </c>
+      <c r="D60" s="72" t="s">
+        <v>299</v>
+      </c>
+      <c r="E60" s="72" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B61" s="72"/>
+      <c r="C61" s="72"/>
+      <c r="D61" s="72"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="120" t="s">
+        <v>273</v>
+      </c>
+      <c r="B62" s="122">
+        <v>510000</v>
+      </c>
+      <c r="C62" s="77">
+        <v>510000</v>
+      </c>
+      <c r="D62" s="122">
+        <v>510000</v>
+      </c>
+      <c r="E62" s="122">
+        <v>510000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" s="122">
+        <v>162500</v>
+      </c>
+      <c r="C63" s="77">
+        <f t="shared" ref="C63:D63" si="19">SUM(C64:C67)</f>
+        <v>160500</v>
+      </c>
+      <c r="D63" s="122">
+        <f t="shared" si="19"/>
+        <v>157750</v>
+      </c>
+      <c r="E63" s="122">
+        <f t="shared" ref="E63" si="20">SUM(E64:E67)</f>
+        <v>145250</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="115" t="s">
+        <v>149</v>
+      </c>
+      <c r="B64" s="123">
+        <v>30000</v>
+      </c>
+      <c r="C64" s="24">
+        <v>30000</v>
+      </c>
+      <c r="D64" s="123">
+        <v>30000</v>
+      </c>
+      <c r="E64" s="123">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="115" t="s">
+        <v>150</v>
+      </c>
+      <c r="B65" s="123">
+        <v>20000</v>
+      </c>
+      <c r="C65" s="126">
+        <v>18000</v>
+      </c>
+      <c r="D65" s="126">
+        <v>19000</v>
+      </c>
+      <c r="E65" s="123">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="115" t="s">
+        <v>151</v>
+      </c>
+      <c r="B66" s="123">
+        <v>75000</v>
+      </c>
+      <c r="C66" s="24">
+        <v>75000</v>
+      </c>
+      <c r="D66" s="123">
+        <v>75000</v>
+      </c>
+      <c r="E66" s="126">
+        <v>67500</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="115" t="s">
+        <v>272</v>
+      </c>
+      <c r="B67" s="127">
+        <v>37500</v>
+      </c>
+      <c r="C67" s="123">
+        <v>37500</v>
+      </c>
+      <c r="D67" s="123">
+        <v>33750</v>
+      </c>
+      <c r="E67" s="123">
+        <v>33750</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="120" t="s">
+        <v>274</v>
+      </c>
+      <c r="B68" s="122">
+        <v>347500</v>
+      </c>
+      <c r="C68" s="122">
+        <f t="shared" ref="C68:D68" si="21">C62-C63</f>
+        <v>349500</v>
+      </c>
+      <c r="D68" s="122">
+        <f t="shared" si="21"/>
+        <v>352250</v>
+      </c>
+      <c r="E68" s="122">
+        <f t="shared" ref="E68" si="22">E62-E63</f>
+        <v>364750</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="120" t="s">
+        <v>275</v>
+      </c>
+      <c r="B69" s="122">
+        <v>285000</v>
+      </c>
+      <c r="C69" s="122">
+        <f t="shared" ref="C69:D69" si="23">SUM(C70:C72)</f>
+        <v>285000</v>
+      </c>
+      <c r="D69" s="122">
+        <f t="shared" si="23"/>
+        <v>298500</v>
+      </c>
+      <c r="E69" s="122">
+        <f t="shared" ref="E69" si="24">SUM(E70:E72)</f>
+        <v>298500</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="115" t="s">
+        <v>276</v>
+      </c>
+      <c r="B70" s="126">
+        <v>135000</v>
+      </c>
+      <c r="C70" s="123">
+        <v>135000</v>
+      </c>
+      <c r="D70" s="127">
+        <v>148500</v>
+      </c>
+      <c r="E70" s="127">
+        <v>148500</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="115" t="s">
+        <v>277</v>
+      </c>
+      <c r="B71" s="123">
+        <v>50000</v>
+      </c>
+      <c r="C71" s="24">
+        <v>50000</v>
+      </c>
+      <c r="D71" s="123">
+        <v>50000</v>
+      </c>
+      <c r="E71" s="123">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="115" t="s">
+        <v>278</v>
+      </c>
+      <c r="B72" s="123">
+        <v>100000</v>
+      </c>
+      <c r="C72" s="24">
+        <v>100000</v>
+      </c>
+      <c r="D72" s="123">
+        <v>100000</v>
+      </c>
+      <c r="E72" s="123">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="120" t="s">
+        <v>279</v>
+      </c>
+      <c r="B73" s="122">
+        <v>62500</v>
+      </c>
+      <c r="C73" s="77">
+        <f t="shared" ref="C73:D73" si="25">C68-C69</f>
+        <v>64500</v>
+      </c>
+      <c r="D73" s="122">
+        <f t="shared" si="25"/>
+        <v>53750</v>
+      </c>
+      <c r="E73" s="122">
+        <f t="shared" ref="E73" si="26">E68-E69</f>
+        <v>66250</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="120" t="s">
+        <v>283</v>
+      </c>
+      <c r="B76" s="136">
+        <v>12.254901960784313</v>
+      </c>
+      <c r="C76">
+        <f t="shared" ref="C76:D76" si="27">(C73/C62)*100</f>
+        <v>12.647058823529411</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="27"/>
+        <v>10.53921568627451</v>
+      </c>
+      <c r="E76" s="121">
+        <f t="shared" ref="E76" si="28">(E73/E62)*100</f>
+        <v>12.990196078431374</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="115" t="s">
+        <v>282</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -6265,7 +7919,9 @@
   </sheetPr>
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6283,33 +7939,33 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J1" s="30" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>291</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E2" s="30" t="s">
         <v>297</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G2" s="30" t="s">
         <v>304</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I2" s="30" t="s">
         <v>306</v>
@@ -6321,28 +7977,28 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>291</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E3" s="30" t="s">
         <v>297</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G3" s="30" t="s">
         <v>304</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I3" s="30" t="s">
         <v>307</v>
@@ -6354,28 +8010,28 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>291</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E4" s="30" t="s">
         <v>297</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G4" s="30" t="s">
         <v>304</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I4" s="30" t="s">
         <v>308</v>
@@ -6387,28 +8043,28 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>291</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E5" s="30" t="s">
         <v>297</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G5" s="30" t="s">
         <v>305</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I5" s="30" t="s">
         <v>306</v>
@@ -6420,28 +8076,28 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>291</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E6" s="30" t="s">
         <v>297</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G6" s="30" t="s">
         <v>305</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I6" s="30" t="s">
         <v>307</v>
@@ -6453,28 +8109,28 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>291</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E7" s="30" t="s">
         <v>297</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G7" s="30" t="s">
         <v>305</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I7" s="30" t="s">
         <v>308</v>
@@ -6486,28 +8142,28 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C8" s="30" t="s">
         <v>291</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>297</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G8" s="30" t="s">
         <v>299</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I8" s="30" t="s">
         <v>306</v>
@@ -6519,28 +8175,28 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C9" s="30" t="s">
         <v>291</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>297</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G9" s="30" t="s">
         <v>299</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I9" s="30" t="s">
         <v>307</v>
@@ -6552,28 +8208,28 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C10" s="30" t="s">
         <v>291</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>297</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G10" s="30" t="s">
         <v>299</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I10" s="30" t="s">
         <v>308</v>
@@ -6585,28 +8241,28 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>291</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>298</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G11" s="30" t="s">
         <v>304</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I11" s="30" t="s">
         <v>306</v>
@@ -6618,28 +8274,28 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>291</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>298</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G12" s="30" t="s">
         <v>304</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I12" s="30" t="s">
         <v>307</v>
@@ -6651,28 +8307,28 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C13" s="30" t="s">
         <v>291</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>298</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G13" s="30" t="s">
         <v>304</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I13" s="30" t="s">
         <v>308</v>
@@ -6684,28 +8340,28 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C14" s="30" t="s">
         <v>291</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>298</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G14" s="30" t="s">
         <v>305</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I14" s="30" t="s">
         <v>306</v>
@@ -6717,28 +8373,28 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C15" s="30" t="s">
         <v>291</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E15" s="30" t="s">
         <v>298</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G15" s="30" t="s">
         <v>305</v>
       </c>
       <c r="H15" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I15" s="30" t="s">
         <v>307</v>
@@ -6750,28 +8406,28 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C16" s="30" t="s">
         <v>291</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>298</v>
       </c>
       <c r="F16" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G16" s="30" t="s">
         <v>305</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I16" s="30" t="s">
         <v>308</v>
@@ -6783,28 +8439,28 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C17" s="30" t="s">
         <v>291</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E17" s="30" t="s">
         <v>298</v>
       </c>
       <c r="F17" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G17" s="30" t="s">
         <v>299</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I17" s="30" t="s">
         <v>306</v>
@@ -6816,28 +8472,28 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C18" s="30" t="s">
         <v>291</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E18" s="30" t="s">
         <v>298</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G18" s="30" t="s">
         <v>299</v>
       </c>
       <c r="H18" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I18" s="30" t="s">
         <v>307</v>
@@ -6849,28 +8505,28 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>291</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>298</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G19" s="30" t="s">
         <v>299</v>
       </c>
       <c r="H19" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I19" s="30" t="s">
         <v>308</v>
@@ -6882,28 +8538,28 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C20" s="30" t="s">
         <v>291</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>300</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G20" s="30" t="s">
         <v>304</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I20" s="30" t="s">
         <v>306</v>
@@ -6915,28 +8571,28 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C21" s="30" t="s">
         <v>291</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E21" s="30" t="s">
         <v>300</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G21" s="30" t="s">
         <v>304</v>
       </c>
       <c r="H21" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I21" s="30" t="s">
         <v>307</v>
@@ -6948,28 +8604,28 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C22" s="30" t="s">
         <v>291</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E22" s="30" t="s">
         <v>300</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G22" s="30" t="s">
         <v>304</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I22" s="30" t="s">
         <v>308</v>
@@ -6981,28 +8637,28 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C23" s="30" t="s">
         <v>291</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E23" s="30" t="s">
         <v>300</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G23" s="30" t="s">
         <v>305</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I23" s="30" t="s">
         <v>306</v>
@@ -7014,28 +8670,28 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C24" s="30" t="s">
         <v>291</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E24" s="30" t="s">
         <v>300</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G24" s="30" t="s">
         <v>305</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I24" s="30" t="s">
         <v>307</v>
@@ -7047,28 +8703,28 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C25" s="30" t="s">
         <v>291</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E25" s="30" t="s">
         <v>300</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G25" s="30" t="s">
         <v>305</v>
       </c>
       <c r="H25" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I25" s="30" t="s">
         <v>308</v>
@@ -7080,28 +8736,28 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C26" s="30" t="s">
         <v>291</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E26" s="30" t="s">
         <v>300</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G26" s="30" t="s">
         <v>299</v>
       </c>
       <c r="H26" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I26" s="30" t="s">
         <v>306</v>
@@ -7113,28 +8769,28 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C27" s="30" t="s">
         <v>291</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E27" s="30" t="s">
         <v>300</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G27" s="30" t="s">
         <v>299</v>
       </c>
       <c r="H27" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I27" s="30" t="s">
         <v>307</v>
@@ -7146,28 +8802,28 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C28" s="30" t="s">
         <v>291</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E28" s="30" t="s">
         <v>300</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G28" s="30" t="s">
         <v>299</v>
       </c>
       <c r="H28" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I28" s="30" t="s">
         <v>308</v>
@@ -7179,28 +8835,28 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C29" s="30" t="s">
         <v>292</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E29" s="30" t="s">
         <v>297</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G29" s="30" t="s">
         <v>304</v>
       </c>
       <c r="H29" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I29" s="30" t="s">
         <v>306</v>
@@ -7212,28 +8868,28 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C30" s="30" t="s">
         <v>292</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E30" s="30" t="s">
         <v>297</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G30" s="30" t="s">
         <v>304</v>
       </c>
       <c r="H30" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I30" s="30" t="s">
         <v>307</v>
@@ -7245,28 +8901,28 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C31" s="30" t="s">
         <v>292</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E31" s="30" t="s">
         <v>297</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G31" s="30" t="s">
         <v>304</v>
       </c>
       <c r="H31" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I31" s="30" t="s">
         <v>308</v>
@@ -7278,28 +8934,28 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C32" s="30" t="s">
         <v>292</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E32" s="30" t="s">
         <v>297</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G32" s="30" t="s">
         <v>305</v>
       </c>
       <c r="H32" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I32" s="30" t="s">
         <v>306</v>
@@ -7311,28 +8967,28 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C33" s="30" t="s">
         <v>292</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E33" s="30" t="s">
         <v>297</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G33" s="30" t="s">
         <v>305</v>
       </c>
       <c r="H33" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I33" s="30" t="s">
         <v>307</v>
@@ -7344,28 +9000,28 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C34" s="30" t="s">
         <v>292</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E34" s="30" t="s">
         <v>297</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G34" s="30" t="s">
         <v>305</v>
       </c>
       <c r="H34" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I34" s="30" t="s">
         <v>308</v>
@@ -7377,28 +9033,28 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C35" s="30" t="s">
         <v>292</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E35" s="30" t="s">
         <v>297</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G35" s="30" t="s">
         <v>299</v>
       </c>
       <c r="H35" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I35" s="30" t="s">
         <v>306</v>
@@ -7410,28 +9066,28 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C36" s="30" t="s">
         <v>292</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E36" s="30" t="s">
         <v>297</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G36" s="30" t="s">
         <v>299</v>
       </c>
       <c r="H36" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I36" s="30" t="s">
         <v>307</v>
@@ -7443,28 +9099,28 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C37" s="30" t="s">
         <v>292</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E37" s="30" t="s">
         <v>297</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G37" s="30" t="s">
         <v>299</v>
       </c>
       <c r="H37" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I37" s="30" t="s">
         <v>308</v>
@@ -7476,28 +9132,28 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C38" s="30" t="s">
         <v>292</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E38" s="30" t="s">
         <v>298</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G38" s="30" t="s">
         <v>304</v>
       </c>
       <c r="H38" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I38" s="30" t="s">
         <v>306</v>
@@ -7509,28 +9165,28 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C39" s="30" t="s">
         <v>292</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E39" s="30" t="s">
         <v>298</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G39" s="30" t="s">
         <v>304</v>
       </c>
       <c r="H39" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I39" s="30" t="s">
         <v>307</v>
@@ -7542,28 +9198,28 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C40" s="30" t="s">
         <v>292</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E40" s="30" t="s">
         <v>298</v>
       </c>
       <c r="F40" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G40" s="30" t="s">
         <v>304</v>
       </c>
       <c r="H40" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I40" s="30" t="s">
         <v>308</v>
@@ -7575,28 +9231,28 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C41" s="30" t="s">
         <v>292</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E41" s="30" t="s">
         <v>298</v>
       </c>
       <c r="F41" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G41" s="30" t="s">
         <v>305</v>
       </c>
       <c r="H41" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I41" s="30" t="s">
         <v>306</v>
@@ -7608,28 +9264,28 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C42" s="30" t="s">
         <v>292</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E42" s="30" t="s">
         <v>298</v>
       </c>
       <c r="F42" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G42" s="30" t="s">
         <v>305</v>
       </c>
       <c r="H42" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I42" s="30" t="s">
         <v>307</v>
@@ -7641,28 +9297,28 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C43" s="30" t="s">
         <v>292</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E43" s="30" t="s">
         <v>298</v>
       </c>
       <c r="F43" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G43" s="30" t="s">
         <v>305</v>
       </c>
       <c r="H43" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I43" s="30" t="s">
         <v>308</v>
@@ -7674,28 +9330,28 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C44" s="30" t="s">
         <v>292</v>
       </c>
       <c r="D44" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E44" s="30" t="s">
         <v>298</v>
       </c>
       <c r="F44" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G44" s="30" t="s">
         <v>299</v>
       </c>
       <c r="H44" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I44" s="30" t="s">
         <v>306</v>
@@ -7707,28 +9363,28 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C45" s="30" t="s">
         <v>292</v>
       </c>
       <c r="D45" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E45" s="30" t="s">
         <v>298</v>
       </c>
       <c r="F45" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G45" s="30" t="s">
         <v>299</v>
       </c>
       <c r="H45" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I45" s="30" t="s">
         <v>307</v>
@@ -7740,28 +9396,28 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C46" s="30" t="s">
         <v>292</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E46" s="30" t="s">
         <v>298</v>
       </c>
       <c r="F46" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G46" s="30" t="s">
         <v>299</v>
       </c>
       <c r="H46" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I46" s="30" t="s">
         <v>308</v>
@@ -7773,28 +9429,28 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C47" s="30" t="s">
         <v>292</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E47" s="30" t="s">
         <v>300</v>
       </c>
       <c r="F47" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G47" s="30" t="s">
         <v>304</v>
       </c>
       <c r="H47" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I47" s="30" t="s">
         <v>306</v>
@@ -7806,28 +9462,28 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C48" s="30" t="s">
         <v>292</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E48" s="30" t="s">
         <v>300</v>
       </c>
       <c r="F48" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G48" s="30" t="s">
         <v>304</v>
       </c>
       <c r="H48" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I48" s="30" t="s">
         <v>307</v>
@@ -7839,28 +9495,28 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C49" s="30" t="s">
         <v>292</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E49" s="30" t="s">
         <v>300</v>
       </c>
       <c r="F49" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G49" s="30" t="s">
         <v>304</v>
       </c>
       <c r="H49" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I49" s="30" t="s">
         <v>308</v>
@@ -7872,28 +9528,28 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C50" s="30" t="s">
         <v>292</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E50" s="30" t="s">
         <v>300</v>
       </c>
       <c r="F50" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G50" s="30" t="s">
         <v>305</v>
       </c>
       <c r="H50" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I50" s="30" t="s">
         <v>306</v>
@@ -7905,28 +9561,28 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B51" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C51" s="30" t="s">
         <v>292</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E51" s="30" t="s">
         <v>300</v>
       </c>
       <c r="F51" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G51" s="30" t="s">
         <v>305</v>
       </c>
       <c r="H51" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I51" s="30" t="s">
         <v>307</v>
@@ -7938,28 +9594,28 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B52" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C52" s="30" t="s">
         <v>292</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E52" s="30" t="s">
         <v>300</v>
       </c>
       <c r="F52" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G52" s="30" t="s">
         <v>305</v>
       </c>
       <c r="H52" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I52" s="30" t="s">
         <v>308</v>
@@ -7971,28 +9627,28 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B53" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C53" s="30" t="s">
         <v>292</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E53" s="30" t="s">
         <v>300</v>
       </c>
       <c r="F53" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G53" s="30" t="s">
         <v>299</v>
       </c>
       <c r="H53" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I53" s="30" t="s">
         <v>306</v>
@@ -8004,28 +9660,28 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B54" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C54" s="30" t="s">
         <v>292</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E54" s="30" t="s">
         <v>300</v>
       </c>
       <c r="F54" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G54" s="30" t="s">
         <v>299</v>
       </c>
       <c r="H54" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I54" s="30" t="s">
         <v>307</v>
@@ -8037,28 +9693,28 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B55" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C55" s="30" t="s">
         <v>292</v>
       </c>
       <c r="D55" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E55" s="30" t="s">
         <v>300</v>
       </c>
       <c r="F55" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G55" s="30" t="s">
         <v>299</v>
       </c>
       <c r="H55" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I55" s="30" t="s">
         <v>308</v>
@@ -8070,28 +9726,28 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B56" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C56" s="30" t="s">
         <v>293</v>
       </c>
       <c r="D56" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E56" s="30" t="s">
         <v>297</v>
       </c>
       <c r="F56" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G56" s="30" t="s">
         <v>304</v>
       </c>
       <c r="H56" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I56" s="30" t="s">
         <v>306</v>
@@ -8103,28 +9759,28 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B57" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C57" s="30" t="s">
         <v>293</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E57" s="30" t="s">
         <v>297</v>
       </c>
       <c r="F57" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G57" s="30" t="s">
         <v>304</v>
       </c>
       <c r="H57" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I57" s="30" t="s">
         <v>307</v>
@@ -8136,28 +9792,28 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B58" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C58" s="30" t="s">
         <v>293</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E58" s="30" t="s">
         <v>297</v>
       </c>
       <c r="F58" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G58" s="30" t="s">
         <v>304</v>
       </c>
       <c r="H58" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I58" s="30" t="s">
         <v>308</v>
@@ -8169,28 +9825,28 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B59" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C59" s="30" t="s">
         <v>293</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E59" s="30" t="s">
         <v>297</v>
       </c>
       <c r="F59" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G59" s="30" t="s">
         <v>305</v>
       </c>
       <c r="H59" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I59" s="30" t="s">
         <v>306</v>
@@ -8202,28 +9858,28 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B60" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C60" s="30" t="s">
         <v>293</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E60" s="30" t="s">
         <v>297</v>
       </c>
       <c r="F60" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G60" s="30" t="s">
         <v>305</v>
       </c>
       <c r="H60" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I60" s="30" t="s">
         <v>307</v>
@@ -8235,28 +9891,28 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B61" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C61" s="30" t="s">
         <v>293</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E61" s="30" t="s">
         <v>297</v>
       </c>
       <c r="F61" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G61" s="30" t="s">
         <v>305</v>
       </c>
       <c r="H61" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I61" s="30" t="s">
         <v>308</v>
@@ -8268,28 +9924,28 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B62" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C62" s="30" t="s">
         <v>293</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E62" s="30" t="s">
         <v>297</v>
       </c>
       <c r="F62" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G62" s="30" t="s">
         <v>299</v>
       </c>
       <c r="H62" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I62" s="30" t="s">
         <v>306</v>
@@ -8301,28 +9957,28 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B63" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C63" s="30" t="s">
         <v>293</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E63" s="30" t="s">
         <v>297</v>
       </c>
       <c r="F63" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G63" s="30" t="s">
         <v>299</v>
       </c>
       <c r="H63" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I63" s="30" t="s">
         <v>307</v>
@@ -8334,28 +9990,28 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B64" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C64" s="30" t="s">
         <v>293</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E64" s="30" t="s">
         <v>297</v>
       </c>
       <c r="F64" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G64" s="30" t="s">
         <v>299</v>
       </c>
       <c r="H64" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I64" s="30" t="s">
         <v>308</v>
@@ -8367,28 +10023,28 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B65" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C65" s="30" t="s">
         <v>293</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E65" s="30" t="s">
         <v>298</v>
       </c>
       <c r="F65" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G65" s="30" t="s">
         <v>304</v>
       </c>
       <c r="H65" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I65" s="30" t="s">
         <v>306</v>
@@ -8400,28 +10056,28 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B66" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C66" s="30" t="s">
         <v>293</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E66" s="30" t="s">
         <v>298</v>
       </c>
       <c r="F66" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G66" s="30" t="s">
         <v>304</v>
       </c>
       <c r="H66" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I66" s="30" t="s">
         <v>307</v>
@@ -8433,28 +10089,28 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B67" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C67" s="30" t="s">
         <v>293</v>
       </c>
       <c r="D67" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E67" s="30" t="s">
         <v>298</v>
       </c>
       <c r="F67" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G67" s="30" t="s">
         <v>304</v>
       </c>
       <c r="H67" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I67" s="30" t="s">
         <v>308</v>
@@ -8466,28 +10122,28 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B68" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C68" s="30" t="s">
         <v>293</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E68" s="30" t="s">
         <v>298</v>
       </c>
       <c r="F68" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G68" s="30" t="s">
         <v>305</v>
       </c>
       <c r="H68" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I68" s="30" t="s">
         <v>306</v>
@@ -8499,28 +10155,28 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B69" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C69" s="30" t="s">
         <v>293</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E69" s="30" t="s">
         <v>298</v>
       </c>
       <c r="F69" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G69" s="30" t="s">
         <v>305</v>
       </c>
       <c r="H69" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I69" s="30" t="s">
         <v>307</v>
@@ -8532,28 +10188,28 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B70" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C70" s="30" t="s">
         <v>293</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E70" s="30" t="s">
         <v>298</v>
       </c>
       <c r="F70" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G70" s="30" t="s">
         <v>305</v>
       </c>
       <c r="H70" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I70" s="30" t="s">
         <v>308</v>
@@ -8565,28 +10221,28 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B71" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C71" s="30" t="s">
         <v>293</v>
       </c>
       <c r="D71" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E71" s="30" t="s">
         <v>298</v>
       </c>
       <c r="F71" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G71" s="30" t="s">
         <v>299</v>
       </c>
       <c r="H71" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I71" s="30" t="s">
         <v>306</v>
@@ -8598,28 +10254,28 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B72" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C72" s="30" t="s">
         <v>293</v>
       </c>
       <c r="D72" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E72" s="30" t="s">
         <v>298</v>
       </c>
       <c r="F72" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G72" s="30" t="s">
         <v>299</v>
       </c>
       <c r="H72" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I72" s="30" t="s">
         <v>307</v>
@@ -8631,28 +10287,28 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B73" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C73" s="30" t="s">
         <v>293</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E73" s="30" t="s">
         <v>298</v>
       </c>
       <c r="F73" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G73" s="30" t="s">
         <v>299</v>
       </c>
       <c r="H73" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I73" s="30" t="s">
         <v>308</v>
@@ -8664,28 +10320,28 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B74" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C74" s="30" t="s">
         <v>293</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E74" s="30" t="s">
         <v>300</v>
       </c>
       <c r="F74" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G74" s="30" t="s">
         <v>304</v>
       </c>
       <c r="H74" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I74" s="30" t="s">
         <v>306</v>
@@ -8697,28 +10353,28 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B75" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C75" s="30" t="s">
         <v>293</v>
       </c>
       <c r="D75" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E75" s="30" t="s">
         <v>300</v>
       </c>
       <c r="F75" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G75" s="30" t="s">
         <v>304</v>
       </c>
       <c r="H75" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I75" s="30" t="s">
         <v>307</v>
@@ -8730,28 +10386,28 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B76" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C76" s="30" t="s">
         <v>293</v>
       </c>
       <c r="D76" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E76" s="30" t="s">
         <v>300</v>
       </c>
       <c r="F76" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G76" s="30" t="s">
         <v>304</v>
       </c>
       <c r="H76" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I76" s="30" t="s">
         <v>308</v>
@@ -8763,28 +10419,28 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B77" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C77" s="30" t="s">
         <v>293</v>
       </c>
       <c r="D77" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E77" s="30" t="s">
         <v>300</v>
       </c>
       <c r="F77" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G77" s="30" t="s">
         <v>305</v>
       </c>
       <c r="H77" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I77" s="30" t="s">
         <v>306</v>
@@ -8796,28 +10452,28 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B78" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C78" s="30" t="s">
         <v>293</v>
       </c>
       <c r="D78" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E78" s="30" t="s">
         <v>300</v>
       </c>
       <c r="F78" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G78" s="30" t="s">
         <v>305</v>
       </c>
       <c r="H78" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I78" s="30" t="s">
         <v>307</v>
@@ -8829,28 +10485,28 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B79" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C79" s="30" t="s">
         <v>293</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E79" s="30" t="s">
         <v>300</v>
       </c>
       <c r="F79" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G79" s="30" t="s">
         <v>305</v>
       </c>
       <c r="H79" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I79" s="30" t="s">
         <v>308</v>
@@ -8862,28 +10518,28 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B80" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C80" s="30" t="s">
         <v>293</v>
       </c>
       <c r="D80" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E80" s="30" t="s">
         <v>300</v>
       </c>
       <c r="F80" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G80" s="30" t="s">
         <v>299</v>
       </c>
       <c r="H80" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I80" s="30" t="s">
         <v>306</v>
@@ -8895,28 +10551,28 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B81" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C81" s="30" t="s">
         <v>293</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E81" s="30" t="s">
         <v>300</v>
       </c>
       <c r="F81" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G81" s="30" t="s">
         <v>299</v>
       </c>
       <c r="H81" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I81" s="30" t="s">
         <v>307</v>
@@ -8928,28 +10584,28 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B82" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C82" s="30" t="s">
         <v>293</v>
       </c>
       <c r="D82" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E82" s="30" t="s">
         <v>300</v>
       </c>
       <c r="F82" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G82" s="30" t="s">
         <v>299</v>
       </c>
       <c r="H82" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I82" s="30" t="s">
         <v>308</v>

--- a/logic&wireframe.xlsx
+++ b/logic&wireframe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leget\.vscode\Project1-Game_On!\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39527987-36CD-4E28-AEE9-BC70DABFB2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC02A591-AAA0-45E0-AD6F-2078DA3ACA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="936" windowWidth="11016" windowHeight="18696" firstSheet="9" activeTab="9" xr2:uid="{7735C213-E26F-4731-B858-5CCC1FD62CA9}"/>
+    <workbookView xWindow="22932" yWindow="936" windowWidth="11016" windowHeight="18696" firstSheet="10" activeTab="11" xr2:uid="{7735C213-E26F-4731-B858-5CCC1FD62CA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2140,7 +2140,31 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2152,31 +2176,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3203,7 +3203,7 @@
   </sheetPr>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -3245,10 +3245,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="138">
+      <c r="A2" s="141">
         <v>1</v>
       </c>
-      <c r="B2" s="148" t="s">
+      <c r="B2" s="138" t="s">
         <v>172</v>
       </c>
       <c r="C2" s="50" t="s">
@@ -3272,8 +3272,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="138"/>
-      <c r="B3" s="149"/>
+      <c r="A3" s="141"/>
+      <c r="B3" s="139"/>
       <c r="C3" s="41" t="s">
         <v>185</v>
       </c>
@@ -3297,8 +3297,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="138"/>
-      <c r="B4" s="150"/>
+      <c r="A4" s="141"/>
+      <c r="B4" s="140"/>
       <c r="C4" s="86" t="s">
         <v>219</v>
       </c>
@@ -3322,10 +3322,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="138">
+      <c r="A5" s="141">
         <v>2</v>
       </c>
-      <c r="B5" s="145" t="s">
+      <c r="B5" s="142" t="s">
         <v>173</v>
       </c>
       <c r="C5" s="45" t="s">
@@ -3351,8 +3351,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" s="138"/>
-      <c r="B6" s="146"/>
+      <c r="A6" s="141"/>
+      <c r="B6" s="143"/>
       <c r="C6" s="43" t="s">
         <v>232</v>
       </c>
@@ -3376,8 +3376,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="138"/>
-      <c r="B7" s="147"/>
+      <c r="A7" s="141"/>
+      <c r="B7" s="144"/>
       <c r="C7" s="48" t="s">
         <v>194</v>
       </c>
@@ -3399,10 +3399,10 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="138">
+      <c r="A8" s="141">
         <v>3</v>
       </c>
-      <c r="B8" s="148" t="s">
+      <c r="B8" s="138" t="s">
         <v>174</v>
       </c>
       <c r="C8" s="95" t="s">
@@ -3426,8 +3426,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="138"/>
-      <c r="B9" s="149"/>
+      <c r="A9" s="141"/>
+      <c r="B9" s="139"/>
       <c r="C9" s="41" t="s">
         <v>196</v>
       </c>
@@ -3449,8 +3449,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="138"/>
-      <c r="B10" s="150"/>
+      <c r="A10" s="141"/>
+      <c r="B10" s="140"/>
       <c r="C10" s="53" t="s">
         <v>234</v>
       </c>
@@ -3474,10 +3474,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="138">
+      <c r="A11" s="141">
         <v>4</v>
       </c>
-      <c r="B11" s="145" t="s">
+      <c r="B11" s="142" t="s">
         <v>175</v>
       </c>
       <c r="C11" s="95" t="s">
@@ -3503,8 +3503,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="138"/>
-      <c r="B12" s="146"/>
+      <c r="A12" s="141"/>
+      <c r="B12" s="143"/>
       <c r="C12" s="44" t="s">
         <v>238</v>
       </c>
@@ -3528,8 +3528,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="138"/>
-      <c r="B13" s="147"/>
+      <c r="A13" s="141"/>
+      <c r="B13" s="144"/>
       <c r="C13" s="48" t="s">
         <v>239</v>
       </c>
@@ -3551,10 +3551,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="138">
+      <c r="A14" s="141">
         <v>5</v>
       </c>
-      <c r="B14" s="144" t="s">
+      <c r="B14" s="145" t="s">
         <v>176</v>
       </c>
       <c r="C14" s="55" t="s">
@@ -3569,8 +3569,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="138"/>
-      <c r="B15" s="144"/>
+      <c r="A15" s="141"/>
+      <c r="B15" s="145"/>
       <c r="C15" s="41" t="s">
         <v>203</v>
       </c>
@@ -3585,8 +3585,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="138"/>
-      <c r="B16" s="142"/>
+      <c r="A16" s="141"/>
+      <c r="B16" s="146"/>
       <c r="C16" s="53" t="s">
         <v>209</v>
       </c>
@@ -3601,10 +3601,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="138">
+      <c r="A17" s="141">
         <v>6</v>
       </c>
-      <c r="B17" s="139" t="s">
+      <c r="B17" s="147" t="s">
         <v>177</v>
       </c>
       <c r="C17" s="45" t="s">
@@ -3621,8 +3621,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="87" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="138"/>
-      <c r="B18" s="140"/>
+      <c r="A18" s="141"/>
+      <c r="B18" s="148"/>
       <c r="C18" s="48" t="s">
         <v>249</v>
       </c>
@@ -3635,10 +3635,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="138">
+      <c r="A19" s="141">
         <v>7</v>
       </c>
-      <c r="B19" s="141" t="s">
+      <c r="B19" s="149" t="s">
         <v>178</v>
       </c>
       <c r="C19" s="50" t="s">
@@ -3655,8 +3655,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="138"/>
-      <c r="B20" s="142"/>
+      <c r="A20" s="141"/>
+      <c r="B20" s="146"/>
       <c r="C20" s="42" t="s">
         <v>252</v>
       </c>
@@ -3669,10 +3669,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="138">
+      <c r="A21" s="141">
         <v>8</v>
       </c>
-      <c r="B21" s="139" t="s">
+      <c r="B21" s="147" t="s">
         <v>179</v>
       </c>
       <c r="C21" s="45" t="s">
@@ -3689,8 +3689,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="138"/>
-      <c r="B22" s="143"/>
+      <c r="A22" s="141"/>
+      <c r="B22" s="150"/>
       <c r="C22" s="44" t="s">
         <v>256</v>
       </c>
@@ -3701,8 +3701,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="138"/>
-      <c r="B23" s="140"/>
+      <c r="A23" s="141"/>
+      <c r="B23" s="148"/>
       <c r="C23" s="48" t="s">
         <v>257</v>
       </c>
@@ -3713,10 +3713,10 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="138">
+      <c r="A24" s="141">
         <v>9</v>
       </c>
-      <c r="B24" s="141" t="s">
+      <c r="B24" s="149" t="s">
         <v>180</v>
       </c>
       <c r="C24" s="50" t="s">
@@ -3733,8 +3733,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="138"/>
-      <c r="B25" s="144"/>
+      <c r="A25" s="141"/>
+      <c r="B25" s="145"/>
       <c r="C25" s="41" t="s">
         <v>260</v>
       </c>
@@ -3747,8 +3747,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="138"/>
-      <c r="B26" s="142"/>
+      <c r="A26" s="141"/>
+      <c r="B26" s="146"/>
       <c r="C26" s="53" t="s">
         <v>261</v>
       </c>
@@ -3761,10 +3761,10 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="138">
+      <c r="A27" s="141">
         <v>10</v>
       </c>
-      <c r="B27" s="139" t="s">
+      <c r="B27" s="147" t="s">
         <v>267</v>
       </c>
       <c r="C27" s="45" t="s">
@@ -3781,8 +3781,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="138"/>
-      <c r="B28" s="140"/>
+      <c r="A28" s="141"/>
+      <c r="B28" s="148"/>
       <c r="C28" s="48" t="s">
         <v>269</v>
       </c>
@@ -3799,18 +3799,6 @@
   </sheetData>
   <autoFilter ref="A1:I28" xr:uid="{F795A1BF-E94F-412D-BBCC-0F81FBDBA90C}"/>
   <mergeCells count="20">
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="A19:A20"/>
@@ -3819,6 +3807,18 @@
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5211,7 +5211,7 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D8" sqref="D8"/>
     </sheetView>

--- a/logic&wireframe.xlsx
+++ b/logic&wireframe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leget\.vscode\Project1-Game_On!\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC02A591-AAA0-45E0-AD6F-2078DA3ACA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12722732-F369-42F3-A9A8-1A51F845B12C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="936" windowWidth="11016" windowHeight="18696" firstSheet="10" activeTab="11" xr2:uid="{7735C213-E26F-4731-B858-5CCC1FD62CA9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="13" xr2:uid="{7735C213-E26F-4731-B858-5CCC1FD62CA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,8 @@
     <sheet name="Scenarios|Decisions" sheetId="9" r:id="rId10"/>
     <sheet name="Numbers Test" sheetId="10" r:id="rId11"/>
     <sheet name="Game Sequence" sheetId="13" r:id="rId12"/>
+    <sheet name="Sheet8" sheetId="14" r:id="rId13"/>
+    <sheet name="Sheet9" sheetId="15" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Possible Outcomes'!$A$1:$J$42</definedName>
@@ -239,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="359">
   <si>
     <t>Operating Profit Margin = Operating Income / Net Sales Revenue</t>
   </si>
@@ -1315,6 +1317,27 @@
   <si>
     <t>Factory Labor decreases
 Indirect Labor increases</t>
+  </si>
+  <si>
+    <t>Intro</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
   </si>
 </sst>
 </file>
@@ -1829,7 +1852,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2140,16 +2163,25 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2161,24 +2193,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -3203,7 +3236,7 @@
   </sheetPr>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -3245,10 +3278,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="141">
+      <c r="A2" s="138">
         <v>1</v>
       </c>
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="148" t="s">
         <v>172</v>
       </c>
       <c r="C2" s="50" t="s">
@@ -3272,8 +3305,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="141"/>
-      <c r="B3" s="139"/>
+      <c r="A3" s="138"/>
+      <c r="B3" s="149"/>
       <c r="C3" s="41" t="s">
         <v>185</v>
       </c>
@@ -3297,8 +3330,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="141"/>
-      <c r="B4" s="140"/>
+      <c r="A4" s="138"/>
+      <c r="B4" s="150"/>
       <c r="C4" s="86" t="s">
         <v>219</v>
       </c>
@@ -3322,10 +3355,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="141">
+      <c r="A5" s="138">
         <v>2</v>
       </c>
-      <c r="B5" s="142" t="s">
+      <c r="B5" s="145" t="s">
         <v>173</v>
       </c>
       <c r="C5" s="45" t="s">
@@ -3351,8 +3384,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" s="141"/>
-      <c r="B6" s="143"/>
+      <c r="A6" s="138"/>
+      <c r="B6" s="146"/>
       <c r="C6" s="43" t="s">
         <v>232</v>
       </c>
@@ -3376,8 +3409,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="141"/>
-      <c r="B7" s="144"/>
+      <c r="A7" s="138"/>
+      <c r="B7" s="147"/>
       <c r="C7" s="48" t="s">
         <v>194</v>
       </c>
@@ -3399,10 +3432,10 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="141">
+      <c r="A8" s="138">
         <v>3</v>
       </c>
-      <c r="B8" s="138" t="s">
+      <c r="B8" s="148" t="s">
         <v>174</v>
       </c>
       <c r="C8" s="95" t="s">
@@ -3426,8 +3459,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="141"/>
-      <c r="B9" s="139"/>
+      <c r="A9" s="138"/>
+      <c r="B9" s="149"/>
       <c r="C9" s="41" t="s">
         <v>196</v>
       </c>
@@ -3449,8 +3482,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="141"/>
-      <c r="B10" s="140"/>
+      <c r="A10" s="138"/>
+      <c r="B10" s="150"/>
       <c r="C10" s="53" t="s">
         <v>234</v>
       </c>
@@ -3474,10 +3507,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="141">
+      <c r="A11" s="138">
         <v>4</v>
       </c>
-      <c r="B11" s="142" t="s">
+      <c r="B11" s="145" t="s">
         <v>175</v>
       </c>
       <c r="C11" s="95" t="s">
@@ -3503,8 +3536,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="141"/>
-      <c r="B12" s="143"/>
+      <c r="A12" s="138"/>
+      <c r="B12" s="146"/>
       <c r="C12" s="44" t="s">
         <v>238</v>
       </c>
@@ -3528,8 +3561,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="141"/>
-      <c r="B13" s="144"/>
+      <c r="A13" s="138"/>
+      <c r="B13" s="147"/>
       <c r="C13" s="48" t="s">
         <v>239</v>
       </c>
@@ -3551,10 +3584,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="141">
+      <c r="A14" s="138">
         <v>5</v>
       </c>
-      <c r="B14" s="145" t="s">
+      <c r="B14" s="144" t="s">
         <v>176</v>
       </c>
       <c r="C14" s="55" t="s">
@@ -3569,8 +3602,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="141"/>
-      <c r="B15" s="145"/>
+      <c r="A15" s="138"/>
+      <c r="B15" s="144"/>
       <c r="C15" s="41" t="s">
         <v>203</v>
       </c>
@@ -3585,8 +3618,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="141"/>
-      <c r="B16" s="146"/>
+      <c r="A16" s="138"/>
+      <c r="B16" s="142"/>
       <c r="C16" s="53" t="s">
         <v>209</v>
       </c>
@@ -3601,10 +3634,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="141">
+      <c r="A17" s="138">
         <v>6</v>
       </c>
-      <c r="B17" s="147" t="s">
+      <c r="B17" s="139" t="s">
         <v>177</v>
       </c>
       <c r="C17" s="45" t="s">
@@ -3621,8 +3654,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="87" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="141"/>
-      <c r="B18" s="148"/>
+      <c r="A18" s="138"/>
+      <c r="B18" s="140"/>
       <c r="C18" s="48" t="s">
         <v>249</v>
       </c>
@@ -3635,10 +3668,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="141">
+      <c r="A19" s="138">
         <v>7</v>
       </c>
-      <c r="B19" s="149" t="s">
+      <c r="B19" s="141" t="s">
         <v>178</v>
       </c>
       <c r="C19" s="50" t="s">
@@ -3655,8 +3688,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="141"/>
-      <c r="B20" s="146"/>
+      <c r="A20" s="138"/>
+      <c r="B20" s="142"/>
       <c r="C20" s="42" t="s">
         <v>252</v>
       </c>
@@ -3669,10 +3702,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="141">
+      <c r="A21" s="138">
         <v>8</v>
       </c>
-      <c r="B21" s="147" t="s">
+      <c r="B21" s="139" t="s">
         <v>179</v>
       </c>
       <c r="C21" s="45" t="s">
@@ -3689,8 +3722,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="141"/>
-      <c r="B22" s="150"/>
+      <c r="A22" s="138"/>
+      <c r="B22" s="143"/>
       <c r="C22" s="44" t="s">
         <v>256</v>
       </c>
@@ -3701,8 +3734,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="141"/>
-      <c r="B23" s="148"/>
+      <c r="A23" s="138"/>
+      <c r="B23" s="140"/>
       <c r="C23" s="48" t="s">
         <v>257</v>
       </c>
@@ -3713,10 +3746,10 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="141">
+      <c r="A24" s="138">
         <v>9</v>
       </c>
-      <c r="B24" s="149" t="s">
+      <c r="B24" s="141" t="s">
         <v>180</v>
       </c>
       <c r="C24" s="50" t="s">
@@ -3733,8 +3766,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="141"/>
-      <c r="B25" s="145"/>
+      <c r="A25" s="138"/>
+      <c r="B25" s="144"/>
       <c r="C25" s="41" t="s">
         <v>260</v>
       </c>
@@ -3747,8 +3780,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="141"/>
-      <c r="B26" s="146"/>
+      <c r="A26" s="138"/>
+      <c r="B26" s="142"/>
       <c r="C26" s="53" t="s">
         <v>261</v>
       </c>
@@ -3761,10 +3794,10 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="141">
+      <c r="A27" s="138">
         <v>10</v>
       </c>
-      <c r="B27" s="147" t="s">
+      <c r="B27" s="139" t="s">
         <v>267</v>
       </c>
       <c r="C27" s="45" t="s">
@@ -3781,8 +3814,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="141"/>
-      <c r="B28" s="148"/>
+      <c r="A28" s="138"/>
+      <c r="B28" s="140"/>
       <c r="C28" s="48" t="s">
         <v>269</v>
       </c>
@@ -3799,6 +3832,18 @@
   </sheetData>
   <autoFilter ref="A1:I28" xr:uid="{F795A1BF-E94F-412D-BBCC-0F81FBDBA90C}"/>
   <mergeCells count="20">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="A19:A20"/>
@@ -3807,18 +3852,6 @@
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="B24:B26"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5211,9 +5244,9 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D8" sqref="D8"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6403,6 +6436,766 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AFAFA66-CE5A-4459-AB67-089B60882BD8}">
+  <dimension ref="A3:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="120" t="s">
+        <v>273</v>
+      </c>
+      <c r="B3" s="151">
+        <v>510000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="151">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="115" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="152">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="115" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="152">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="115" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="152">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="115" t="s">
+        <v>272</v>
+      </c>
+      <c r="B8" s="152">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="120" t="s">
+        <v>274</v>
+      </c>
+      <c r="B9" s="151">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="120" t="s">
+        <v>275</v>
+      </c>
+      <c r="B10" s="151">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="115" t="s">
+        <v>276</v>
+      </c>
+      <c r="B11" s="152">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="115" t="s">
+        <v>277</v>
+      </c>
+      <c r="B12" s="152">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="115" t="s">
+        <v>278</v>
+      </c>
+      <c r="B13" s="152">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="120" t="s">
+        <v>279</v>
+      </c>
+      <c r="B14" s="151">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="115"/>
+      <c r="B15" s="153"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="120" t="s">
+        <v>283</v>
+      </c>
+      <c r="B16" s="153">
+        <v>11.76470588235294</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA2C01B0-F6A4-4E69-8CBB-31F4FA9B3F9D}">
+  <dimension ref="C1:T31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="64" t="s">
+        <v>352</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>358</v>
+      </c>
+      <c r="E2" s="65" t="s">
+        <v>353</v>
+      </c>
+      <c r="F2" s="65" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2" s="65" t="s">
+        <v>355</v>
+      </c>
+      <c r="H2" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="I2" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="66"/>
+    </row>
+    <row r="3" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C3" s="23"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="154"/>
+      <c r="N3" s="154"/>
+      <c r="O3" s="154"/>
+      <c r="P3" s="154"/>
+      <c r="Q3" s="154"/>
+      <c r="R3" s="154"/>
+      <c r="S3" s="154"/>
+      <c r="T3" s="25"/>
+    </row>
+    <row r="4" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C4" s="23"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="154"/>
+      <c r="J4" s="154"/>
+      <c r="K4" s="154"/>
+      <c r="L4" s="154"/>
+      <c r="M4" s="154"/>
+      <c r="N4" s="154"/>
+      <c r="O4" s="154"/>
+      <c r="P4" s="154"/>
+      <c r="Q4" s="154"/>
+      <c r="R4" s="154"/>
+      <c r="S4" s="154"/>
+      <c r="T4" s="25"/>
+    </row>
+    <row r="5" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C5" s="23"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="154"/>
+      <c r="K5" s="154"/>
+      <c r="L5" s="154"/>
+      <c r="M5" s="154"/>
+      <c r="N5" s="154"/>
+      <c r="O5" s="154"/>
+      <c r="P5" s="154"/>
+      <c r="Q5" s="154"/>
+      <c r="R5" s="154"/>
+      <c r="S5" s="154"/>
+      <c r="T5" s="25"/>
+    </row>
+    <row r="6" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C6" s="23"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="154"/>
+      <c r="K6" s="154"/>
+      <c r="L6" s="154"/>
+      <c r="M6" s="154"/>
+      <c r="N6" s="154"/>
+      <c r="O6" s="154"/>
+      <c r="P6" s="154"/>
+      <c r="Q6" s="154"/>
+      <c r="R6" s="154"/>
+      <c r="S6" s="154"/>
+      <c r="T6" s="25"/>
+    </row>
+    <row r="7" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C7" s="23"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="154"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="154"/>
+      <c r="K7" s="154"/>
+      <c r="L7" s="154"/>
+      <c r="M7" s="154"/>
+      <c r="N7" s="154"/>
+      <c r="O7" s="154"/>
+      <c r="P7" s="154"/>
+      <c r="Q7" s="154"/>
+      <c r="R7" s="154"/>
+      <c r="S7" s="154"/>
+      <c r="T7" s="25"/>
+    </row>
+    <row r="8" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C8" s="23"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="154"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="154"/>
+      <c r="K8" s="154"/>
+      <c r="L8" s="154"/>
+      <c r="M8" s="154"/>
+      <c r="N8" s="154"/>
+      <c r="O8" s="154"/>
+      <c r="P8" s="154"/>
+      <c r="Q8" s="154"/>
+      <c r="R8" s="154"/>
+      <c r="S8" s="154"/>
+      <c r="T8" s="25"/>
+    </row>
+    <row r="9" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C9" s="23"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="154"/>
+      <c r="H9" s="154"/>
+      <c r="I9" s="154"/>
+      <c r="J9" s="154"/>
+      <c r="K9" s="154"/>
+      <c r="L9" s="154"/>
+      <c r="M9" s="154"/>
+      <c r="N9" s="154"/>
+      <c r="O9" s="154"/>
+      <c r="P9" s="154"/>
+      <c r="Q9" s="154"/>
+      <c r="R9" s="154"/>
+      <c r="S9" s="154"/>
+      <c r="T9" s="25"/>
+    </row>
+    <row r="10" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C10" s="23"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="154"/>
+      <c r="F10" s="154"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="154"/>
+      <c r="I10" s="154"/>
+      <c r="J10" s="154"/>
+      <c r="K10" s="154"/>
+      <c r="L10" s="154"/>
+      <c r="M10" s="154"/>
+      <c r="N10" s="154"/>
+      <c r="O10" s="154"/>
+      <c r="P10" s="154"/>
+      <c r="Q10" s="154"/>
+      <c r="R10" s="154"/>
+      <c r="S10" s="154"/>
+      <c r="T10" s="25"/>
+    </row>
+    <row r="11" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C11" s="23"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="154"/>
+      <c r="F11" s="154"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="154"/>
+      <c r="I11" s="154"/>
+      <c r="J11" s="154"/>
+      <c r="K11" s="154"/>
+      <c r="L11" s="154"/>
+      <c r="M11" s="154"/>
+      <c r="N11" s="154"/>
+      <c r="O11" s="154"/>
+      <c r="P11" s="154"/>
+      <c r="Q11" s="154"/>
+      <c r="R11" s="154"/>
+      <c r="S11" s="154"/>
+      <c r="T11" s="25"/>
+    </row>
+    <row r="12" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C12" s="23"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="154"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="154"/>
+      <c r="I12" s="154"/>
+      <c r="J12" s="154"/>
+      <c r="K12" s="154"/>
+      <c r="L12" s="154"/>
+      <c r="M12" s="154"/>
+      <c r="N12" s="154"/>
+      <c r="O12" s="154"/>
+      <c r="P12" s="154"/>
+      <c r="Q12" s="154"/>
+      <c r="R12" s="154"/>
+      <c r="S12" s="154"/>
+      <c r="T12" s="25"/>
+    </row>
+    <row r="13" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C13" s="23"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="154"/>
+      <c r="F13" s="154"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="154"/>
+      <c r="I13" s="154"/>
+      <c r="J13" s="154"/>
+      <c r="K13" s="154"/>
+      <c r="L13" s="154"/>
+      <c r="M13" s="154"/>
+      <c r="N13" s="154"/>
+      <c r="O13" s="154"/>
+      <c r="P13" s="154"/>
+      <c r="Q13" s="154"/>
+      <c r="R13" s="154"/>
+      <c r="S13" s="154"/>
+      <c r="T13" s="25"/>
+    </row>
+    <row r="14" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C14" s="23"/>
+      <c r="D14" s="154"/>
+      <c r="E14" s="154"/>
+      <c r="F14" s="154"/>
+      <c r="G14" s="154"/>
+      <c r="H14" s="154"/>
+      <c r="I14" s="154"/>
+      <c r="J14" s="154"/>
+      <c r="K14" s="154"/>
+      <c r="L14" s="154"/>
+      <c r="M14" s="154"/>
+      <c r="N14" s="154"/>
+      <c r="O14" s="154"/>
+      <c r="P14" s="154"/>
+      <c r="Q14" s="154"/>
+      <c r="R14" s="154"/>
+      <c r="S14" s="154"/>
+      <c r="T14" s="25"/>
+    </row>
+    <row r="15" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C15" s="23"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="154"/>
+      <c r="F15" s="154"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="154"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="154"/>
+      <c r="K15" s="154"/>
+      <c r="L15" s="154"/>
+      <c r="M15" s="154"/>
+      <c r="N15" s="154"/>
+      <c r="O15" s="154"/>
+      <c r="P15" s="154"/>
+      <c r="Q15" s="154"/>
+      <c r="R15" s="154"/>
+      <c r="S15" s="154"/>
+      <c r="T15" s="25"/>
+    </row>
+    <row r="16" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C16" s="23"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="154"/>
+      <c r="M16" s="154"/>
+      <c r="N16" s="154"/>
+      <c r="O16" s="154"/>
+      <c r="P16" s="154"/>
+      <c r="Q16" s="154"/>
+      <c r="R16" s="154"/>
+      <c r="S16" s="154"/>
+      <c r="T16" s="25"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C17" s="23"/>
+      <c r="D17" s="154"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="154"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="154"/>
+      <c r="K17" s="154"/>
+      <c r="L17" s="154"/>
+      <c r="M17" s="154"/>
+      <c r="N17" s="154"/>
+      <c r="O17" s="154"/>
+      <c r="P17" s="154"/>
+      <c r="Q17" s="154"/>
+      <c r="R17" s="154"/>
+      <c r="S17" s="154"/>
+      <c r="T17" s="25"/>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C18" s="23"/>
+      <c r="D18" s="154"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="154"/>
+      <c r="K18" s="154"/>
+      <c r="L18" s="154"/>
+      <c r="M18" s="154"/>
+      <c r="N18" s="154"/>
+      <c r="O18" s="154"/>
+      <c r="P18" s="154"/>
+      <c r="Q18" s="154"/>
+      <c r="R18" s="154"/>
+      <c r="S18" s="154"/>
+      <c r="T18" s="25"/>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C19" s="23"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="154"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="154"/>
+      <c r="K19" s="154"/>
+      <c r="L19" s="154"/>
+      <c r="M19" s="154"/>
+      <c r="N19" s="154"/>
+      <c r="O19" s="154"/>
+      <c r="P19" s="154"/>
+      <c r="Q19" s="154"/>
+      <c r="R19" s="154"/>
+      <c r="S19" s="154"/>
+      <c r="T19" s="25"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C20" s="23"/>
+      <c r="D20" s="154"/>
+      <c r="E20" s="154"/>
+      <c r="F20" s="154"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="154"/>
+      <c r="I20" s="154"/>
+      <c r="J20" s="154"/>
+      <c r="K20" s="154"/>
+      <c r="L20" s="154"/>
+      <c r="M20" s="154"/>
+      <c r="N20" s="154"/>
+      <c r="O20" s="154"/>
+      <c r="P20" s="154"/>
+      <c r="Q20" s="154"/>
+      <c r="R20" s="154"/>
+      <c r="S20" s="154"/>
+      <c r="T20" s="25"/>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C21" s="23"/>
+      <c r="D21" s="154"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="154"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="154"/>
+      <c r="I21" s="154"/>
+      <c r="J21" s="154"/>
+      <c r="K21" s="154"/>
+      <c r="L21" s="154"/>
+      <c r="M21" s="154"/>
+      <c r="N21" s="154"/>
+      <c r="O21" s="154"/>
+      <c r="P21" s="154"/>
+      <c r="Q21" s="154"/>
+      <c r="R21" s="154"/>
+      <c r="S21" s="154"/>
+      <c r="T21" s="25"/>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C22" s="23"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="154"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="154"/>
+      <c r="I22" s="154"/>
+      <c r="J22" s="154"/>
+      <c r="K22" s="154"/>
+      <c r="L22" s="154"/>
+      <c r="M22" s="154"/>
+      <c r="N22" s="154"/>
+      <c r="O22" s="154"/>
+      <c r="P22" s="154"/>
+      <c r="Q22" s="154"/>
+      <c r="R22" s="154"/>
+      <c r="S22" s="154"/>
+      <c r="T22" s="25"/>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C23" s="23"/>
+      <c r="D23" s="154"/>
+      <c r="E23" s="154"/>
+      <c r="F23" s="154"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="154"/>
+      <c r="I23" s="154"/>
+      <c r="J23" s="154"/>
+      <c r="K23" s="154"/>
+      <c r="L23" s="154"/>
+      <c r="M23" s="154"/>
+      <c r="N23" s="154"/>
+      <c r="O23" s="154"/>
+      <c r="P23" s="154"/>
+      <c r="Q23" s="154"/>
+      <c r="R23" s="154"/>
+      <c r="S23" s="154"/>
+      <c r="T23" s="25"/>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C24" s="23"/>
+      <c r="D24" s="154"/>
+      <c r="E24" s="154"/>
+      <c r="F24" s="154"/>
+      <c r="G24" s="154"/>
+      <c r="H24" s="154"/>
+      <c r="I24" s="154"/>
+      <c r="J24" s="154"/>
+      <c r="K24" s="154"/>
+      <c r="L24" s="154"/>
+      <c r="M24" s="154"/>
+      <c r="N24" s="154"/>
+      <c r="O24" s="154"/>
+      <c r="P24" s="154"/>
+      <c r="Q24" s="154"/>
+      <c r="R24" s="154"/>
+      <c r="S24" s="154"/>
+      <c r="T24" s="25"/>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C25" s="23"/>
+      <c r="D25" s="154"/>
+      <c r="E25" s="154"/>
+      <c r="F25" s="154"/>
+      <c r="G25" s="154"/>
+      <c r="H25" s="154"/>
+      <c r="I25" s="154"/>
+      <c r="J25" s="154"/>
+      <c r="K25" s="154"/>
+      <c r="L25" s="154"/>
+      <c r="M25" s="154"/>
+      <c r="N25" s="154"/>
+      <c r="O25" s="154"/>
+      <c r="P25" s="154"/>
+      <c r="Q25" s="154"/>
+      <c r="R25" s="154"/>
+      <c r="S25" s="154"/>
+      <c r="T25" s="25"/>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C26" s="23"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="154"/>
+      <c r="I26" s="154"/>
+      <c r="J26" s="154"/>
+      <c r="K26" s="154"/>
+      <c r="L26" s="154"/>
+      <c r="M26" s="154"/>
+      <c r="N26" s="154"/>
+      <c r="O26" s="154"/>
+      <c r="P26" s="154"/>
+      <c r="Q26" s="154"/>
+      <c r="R26" s="154"/>
+      <c r="S26" s="154"/>
+      <c r="T26" s="25"/>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C27" s="23"/>
+      <c r="D27" s="154"/>
+      <c r="E27" s="154"/>
+      <c r="F27" s="154"/>
+      <c r="G27" s="154"/>
+      <c r="H27" s="154"/>
+      <c r="I27" s="154"/>
+      <c r="J27" s="154"/>
+      <c r="K27" s="154"/>
+      <c r="L27" s="154"/>
+      <c r="M27" s="154"/>
+      <c r="N27" s="154"/>
+      <c r="O27" s="154"/>
+      <c r="P27" s="154"/>
+      <c r="Q27" s="154"/>
+      <c r="R27" s="154"/>
+      <c r="S27" s="154"/>
+      <c r="T27" s="25"/>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C28" s="23"/>
+      <c r="D28" s="154"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="154"/>
+      <c r="G28" s="154"/>
+      <c r="H28" s="154"/>
+      <c r="I28" s="154"/>
+      <c r="J28" s="154"/>
+      <c r="K28" s="154"/>
+      <c r="L28" s="154"/>
+      <c r="M28" s="154"/>
+      <c r="N28" s="154"/>
+      <c r="O28" s="154"/>
+      <c r="P28" s="154"/>
+      <c r="Q28" s="154"/>
+      <c r="R28" s="154"/>
+      <c r="S28" s="154"/>
+      <c r="T28" s="25"/>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C29" s="23"/>
+      <c r="D29" s="154"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="154"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="154"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="154"/>
+      <c r="K29" s="154"/>
+      <c r="L29" s="154"/>
+      <c r="M29" s="154"/>
+      <c r="N29" s="154"/>
+      <c r="O29" s="154"/>
+      <c r="P29" s="154"/>
+      <c r="Q29" s="154"/>
+      <c r="R29" s="154"/>
+      <c r="S29" s="154"/>
+      <c r="T29" s="25"/>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C30" s="23"/>
+      <c r="D30" s="154"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="154"/>
+      <c r="G30" s="154"/>
+      <c r="H30" s="154"/>
+      <c r="I30" s="154"/>
+      <c r="J30" s="154"/>
+      <c r="K30" s="154"/>
+      <c r="L30" s="154"/>
+      <c r="M30" s="154"/>
+      <c r="N30" s="154"/>
+      <c r="O30" s="154"/>
+      <c r="P30" s="154"/>
+      <c r="Q30" s="154"/>
+      <c r="R30" s="154"/>
+      <c r="S30" s="154"/>
+      <c r="T30" s="25"/>
+    </row>
+    <row r="31" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="26"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/logic&wireframe.xlsx
+++ b/logic&wireframe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leget\.vscode\Project1-Game_On!\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12722732-F369-42F3-A9A8-1A51F845B12C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B9243F-0420-49BD-9F62-8C995BE97B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="13" xr2:uid="{7735C213-E26F-4731-B858-5CCC1FD62CA9}"/>
+    <workbookView xWindow="-16466" yWindow="9154" windowWidth="16663" windowHeight="8743" firstSheet="8" activeTab="9" xr2:uid="{7735C213-E26F-4731-B858-5CCC1FD62CA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1852,7 +1852,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2163,7 +2163,37 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2175,43 +2205,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -3236,7 +3232,7 @@
   </sheetPr>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -3278,10 +3274,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="138">
+      <c r="A2" s="143">
         <v>1</v>
       </c>
-      <c r="B2" s="148" t="s">
+      <c r="B2" s="140" t="s">
         <v>172</v>
       </c>
       <c r="C2" s="50" t="s">
@@ -3305,8 +3301,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="138"/>
-      <c r="B3" s="149"/>
+      <c r="A3" s="143"/>
+      <c r="B3" s="141"/>
       <c r="C3" s="41" t="s">
         <v>185</v>
       </c>
@@ -3330,8 +3326,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="138"/>
-      <c r="B4" s="150"/>
+      <c r="A4" s="143"/>
+      <c r="B4" s="142"/>
       <c r="C4" s="86" t="s">
         <v>219</v>
       </c>
@@ -3355,10 +3351,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="138">
+      <c r="A5" s="143">
         <v>2</v>
       </c>
-      <c r="B5" s="145" t="s">
+      <c r="B5" s="144" t="s">
         <v>173</v>
       </c>
       <c r="C5" s="45" t="s">
@@ -3384,8 +3380,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" s="138"/>
-      <c r="B6" s="146"/>
+      <c r="A6" s="143"/>
+      <c r="B6" s="145"/>
       <c r="C6" s="43" t="s">
         <v>232</v>
       </c>
@@ -3409,8 +3405,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="138"/>
-      <c r="B7" s="147"/>
+      <c r="A7" s="143"/>
+      <c r="B7" s="146"/>
       <c r="C7" s="48" t="s">
         <v>194</v>
       </c>
@@ -3432,10 +3428,10 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="138">
+      <c r="A8" s="143">
         <v>3</v>
       </c>
-      <c r="B8" s="148" t="s">
+      <c r="B8" s="140" t="s">
         <v>174</v>
       </c>
       <c r="C8" s="95" t="s">
@@ -3459,8 +3455,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="138"/>
-      <c r="B9" s="149"/>
+      <c r="A9" s="143"/>
+      <c r="B9" s="141"/>
       <c r="C9" s="41" t="s">
         <v>196</v>
       </c>
@@ -3482,8 +3478,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="138"/>
-      <c r="B10" s="150"/>
+      <c r="A10" s="143"/>
+      <c r="B10" s="142"/>
       <c r="C10" s="53" t="s">
         <v>234</v>
       </c>
@@ -3507,10 +3503,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="138">
+      <c r="A11" s="143">
         <v>4</v>
       </c>
-      <c r="B11" s="145" t="s">
+      <c r="B11" s="144" t="s">
         <v>175</v>
       </c>
       <c r="C11" s="95" t="s">
@@ -3536,8 +3532,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="138"/>
-      <c r="B12" s="146"/>
+      <c r="A12" s="143"/>
+      <c r="B12" s="145"/>
       <c r="C12" s="44" t="s">
         <v>238</v>
       </c>
@@ -3561,8 +3557,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="138"/>
-      <c r="B13" s="147"/>
+      <c r="A13" s="143"/>
+      <c r="B13" s="146"/>
       <c r="C13" s="48" t="s">
         <v>239</v>
       </c>
@@ -3584,10 +3580,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="138">
+      <c r="A14" s="143">
         <v>5</v>
       </c>
-      <c r="B14" s="144" t="s">
+      <c r="B14" s="147" t="s">
         <v>176</v>
       </c>
       <c r="C14" s="55" t="s">
@@ -3602,8 +3598,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="138"/>
-      <c r="B15" s="144"/>
+      <c r="A15" s="143"/>
+      <c r="B15" s="147"/>
       <c r="C15" s="41" t="s">
         <v>203</v>
       </c>
@@ -3618,8 +3614,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="138"/>
-      <c r="B16" s="142"/>
+      <c r="A16" s="143"/>
+      <c r="B16" s="148"/>
       <c r="C16" s="53" t="s">
         <v>209</v>
       </c>
@@ -3634,10 +3630,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="138">
+      <c r="A17" s="143">
         <v>6</v>
       </c>
-      <c r="B17" s="139" t="s">
+      <c r="B17" s="149" t="s">
         <v>177</v>
       </c>
       <c r="C17" s="45" t="s">
@@ -3654,8 +3650,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="87" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="138"/>
-      <c r="B18" s="140"/>
+      <c r="A18" s="143"/>
+      <c r="B18" s="150"/>
       <c r="C18" s="48" t="s">
         <v>249</v>
       </c>
@@ -3668,10 +3664,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="138">
+      <c r="A19" s="143">
         <v>7</v>
       </c>
-      <c r="B19" s="141" t="s">
+      <c r="B19" s="151" t="s">
         <v>178</v>
       </c>
       <c r="C19" s="50" t="s">
@@ -3688,8 +3684,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="138"/>
-      <c r="B20" s="142"/>
+      <c r="A20" s="143"/>
+      <c r="B20" s="148"/>
       <c r="C20" s="42" t="s">
         <v>252</v>
       </c>
@@ -3702,10 +3698,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="138">
+      <c r="A21" s="143">
         <v>8</v>
       </c>
-      <c r="B21" s="139" t="s">
+      <c r="B21" s="149" t="s">
         <v>179</v>
       </c>
       <c r="C21" s="45" t="s">
@@ -3722,8 +3718,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="138"/>
-      <c r="B22" s="143"/>
+      <c r="A22" s="143"/>
+      <c r="B22" s="152"/>
       <c r="C22" s="44" t="s">
         <v>256</v>
       </c>
@@ -3734,8 +3730,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="138"/>
-      <c r="B23" s="140"/>
+      <c r="A23" s="143"/>
+      <c r="B23" s="150"/>
       <c r="C23" s="48" t="s">
         <v>257</v>
       </c>
@@ -3746,10 +3742,10 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="138">
+      <c r="A24" s="143">
         <v>9</v>
       </c>
-      <c r="B24" s="141" t="s">
+      <c r="B24" s="151" t="s">
         <v>180</v>
       </c>
       <c r="C24" s="50" t="s">
@@ -3766,8 +3762,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="138"/>
-      <c r="B25" s="144"/>
+      <c r="A25" s="143"/>
+      <c r="B25" s="147"/>
       <c r="C25" s="41" t="s">
         <v>260</v>
       </c>
@@ -3780,8 +3776,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="138"/>
-      <c r="B26" s="142"/>
+      <c r="A26" s="143"/>
+      <c r="B26" s="148"/>
       <c r="C26" s="53" t="s">
         <v>261</v>
       </c>
@@ -3794,10 +3790,10 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="138">
+      <c r="A27" s="143">
         <v>10</v>
       </c>
-      <c r="B27" s="139" t="s">
+      <c r="B27" s="149" t="s">
         <v>267</v>
       </c>
       <c r="C27" s="45" t="s">
@@ -3814,8 +3810,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="138"/>
-      <c r="B28" s="140"/>
+      <c r="A28" s="143"/>
+      <c r="B28" s="150"/>
       <c r="C28" s="48" t="s">
         <v>269</v>
       </c>
@@ -3832,18 +3828,6 @@
   </sheetData>
   <autoFilter ref="A1:I28" xr:uid="{F795A1BF-E94F-412D-BBCC-0F81FBDBA90C}"/>
   <mergeCells count="20">
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="A19:A20"/>
@@ -3852,6 +3836,18 @@
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6457,7 +6453,7 @@
       <c r="A3" s="120" t="s">
         <v>273</v>
       </c>
-      <c r="B3" s="151">
+      <c r="B3" s="138">
         <v>510000</v>
       </c>
     </row>
@@ -6465,7 +6461,7 @@
       <c r="A4" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="151">
+      <c r="B4" s="138">
         <v>150000</v>
       </c>
     </row>
@@ -6473,7 +6469,7 @@
       <c r="A5" s="115" t="s">
         <v>149</v>
       </c>
-      <c r="B5" s="152">
+      <c r="B5" s="139">
         <v>30000</v>
       </c>
     </row>
@@ -6481,7 +6477,7 @@
       <c r="A6" s="115" t="s">
         <v>150</v>
       </c>
-      <c r="B6" s="152">
+      <c r="B6" s="139">
         <v>20000</v>
       </c>
     </row>
@@ -6489,7 +6485,7 @@
       <c r="A7" s="115" t="s">
         <v>151</v>
       </c>
-      <c r="B7" s="152">
+      <c r="B7" s="139">
         <v>75000</v>
       </c>
     </row>
@@ -6497,7 +6493,7 @@
       <c r="A8" s="115" t="s">
         <v>272</v>
       </c>
-      <c r="B8" s="152">
+      <c r="B8" s="139">
         <v>25000</v>
       </c>
     </row>
@@ -6505,7 +6501,7 @@
       <c r="A9" s="120" t="s">
         <v>274</v>
       </c>
-      <c r="B9" s="151">
+      <c r="B9" s="138">
         <v>360000</v>
       </c>
     </row>
@@ -6513,7 +6509,7 @@
       <c r="A10" s="120" t="s">
         <v>275</v>
       </c>
-      <c r="B10" s="151">
+      <c r="B10" s="138">
         <v>300000</v>
       </c>
     </row>
@@ -6521,7 +6517,7 @@
       <c r="A11" s="115" t="s">
         <v>276</v>
       </c>
-      <c r="B11" s="152">
+      <c r="B11" s="139">
         <v>150000</v>
       </c>
     </row>
@@ -6529,7 +6525,7 @@
       <c r="A12" s="115" t="s">
         <v>277</v>
       </c>
-      <c r="B12" s="152">
+      <c r="B12" s="139">
         <v>50000</v>
       </c>
     </row>
@@ -6537,7 +6533,7 @@
       <c r="A13" s="115" t="s">
         <v>278</v>
       </c>
-      <c r="B13" s="152">
+      <c r="B13" s="139">
         <v>100000</v>
       </c>
     </row>
@@ -6545,19 +6541,19 @@
       <c r="A14" s="120" t="s">
         <v>279</v>
       </c>
-      <c r="B14" s="151">
+      <c r="B14" s="138">
         <v>60000</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="115"/>
-      <c r="B15" s="153"/>
+      <c r="B15" s="115"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="120" t="s">
         <v>283</v>
       </c>
-      <c r="B16" s="153">
+      <c r="B16" s="115">
         <v>11.76470588235294</v>
       </c>
     </row>
@@ -6570,7 +6566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA2C01B0-F6A4-4E69-8CBB-31F4FA9B3F9D}">
   <dimension ref="C1:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -6616,562 +6612,114 @@
     </row>
     <row r="3" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C3" s="23"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="154"/>
-      <c r="M3" s="154"/>
-      <c r="N3" s="154"/>
-      <c r="O3" s="154"/>
-      <c r="P3" s="154"/>
-      <c r="Q3" s="154"/>
-      <c r="R3" s="154"/>
-      <c r="S3" s="154"/>
       <c r="T3" s="25"/>
     </row>
     <row r="4" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C4" s="23"/>
-      <c r="D4" s="154"/>
-      <c r="E4" s="154"/>
-      <c r="F4" s="154"/>
-      <c r="G4" s="154"/>
-      <c r="H4" s="154"/>
-      <c r="I4" s="154"/>
-      <c r="J4" s="154"/>
-      <c r="K4" s="154"/>
-      <c r="L4" s="154"/>
-      <c r="M4" s="154"/>
-      <c r="N4" s="154"/>
-      <c r="O4" s="154"/>
-      <c r="P4" s="154"/>
-      <c r="Q4" s="154"/>
-      <c r="R4" s="154"/>
-      <c r="S4" s="154"/>
       <c r="T4" s="25"/>
     </row>
     <row r="5" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C5" s="23"/>
-      <c r="D5" s="154"/>
-      <c r="E5" s="154"/>
-      <c r="F5" s="154"/>
-      <c r="G5" s="154"/>
-      <c r="H5" s="154"/>
-      <c r="I5" s="154"/>
-      <c r="J5" s="154"/>
-      <c r="K5" s="154"/>
-      <c r="L5" s="154"/>
-      <c r="M5" s="154"/>
-      <c r="N5" s="154"/>
-      <c r="O5" s="154"/>
-      <c r="P5" s="154"/>
-      <c r="Q5" s="154"/>
-      <c r="R5" s="154"/>
-      <c r="S5" s="154"/>
       <c r="T5" s="25"/>
     </row>
     <row r="6" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C6" s="23"/>
-      <c r="D6" s="154"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="154"/>
-      <c r="I6" s="154"/>
-      <c r="J6" s="154"/>
-      <c r="K6" s="154"/>
-      <c r="L6" s="154"/>
-      <c r="M6" s="154"/>
-      <c r="N6" s="154"/>
-      <c r="O6" s="154"/>
-      <c r="P6" s="154"/>
-      <c r="Q6" s="154"/>
-      <c r="R6" s="154"/>
-      <c r="S6" s="154"/>
       <c r="T6" s="25"/>
     </row>
     <row r="7" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C7" s="23"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="154"/>
-      <c r="H7" s="154"/>
-      <c r="I7" s="154"/>
-      <c r="J7" s="154"/>
-      <c r="K7" s="154"/>
-      <c r="L7" s="154"/>
-      <c r="M7" s="154"/>
-      <c r="N7" s="154"/>
-      <c r="O7" s="154"/>
-      <c r="P7" s="154"/>
-      <c r="Q7" s="154"/>
-      <c r="R7" s="154"/>
-      <c r="S7" s="154"/>
       <c r="T7" s="25"/>
     </row>
     <row r="8" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C8" s="23"/>
-      <c r="D8" s="154"/>
-      <c r="E8" s="154"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="154"/>
-      <c r="H8" s="154"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="154"/>
-      <c r="K8" s="154"/>
-      <c r="L8" s="154"/>
-      <c r="M8" s="154"/>
-      <c r="N8" s="154"/>
-      <c r="O8" s="154"/>
-      <c r="P8" s="154"/>
-      <c r="Q8" s="154"/>
-      <c r="R8" s="154"/>
-      <c r="S8" s="154"/>
       <c r="T8" s="25"/>
     </row>
     <row r="9" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C9" s="23"/>
-      <c r="D9" s="154"/>
-      <c r="E9" s="154"/>
-      <c r="F9" s="154"/>
-      <c r="G9" s="154"/>
-      <c r="H9" s="154"/>
-      <c r="I9" s="154"/>
-      <c r="J9" s="154"/>
-      <c r="K9" s="154"/>
-      <c r="L9" s="154"/>
-      <c r="M9" s="154"/>
-      <c r="N9" s="154"/>
-      <c r="O9" s="154"/>
-      <c r="P9" s="154"/>
-      <c r="Q9" s="154"/>
-      <c r="R9" s="154"/>
-      <c r="S9" s="154"/>
       <c r="T9" s="25"/>
     </row>
     <row r="10" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C10" s="23"/>
-      <c r="D10" s="154"/>
-      <c r="E10" s="154"/>
-      <c r="F10" s="154"/>
-      <c r="G10" s="154"/>
-      <c r="H10" s="154"/>
-      <c r="I10" s="154"/>
-      <c r="J10" s="154"/>
-      <c r="K10" s="154"/>
-      <c r="L10" s="154"/>
-      <c r="M10" s="154"/>
-      <c r="N10" s="154"/>
-      <c r="O10" s="154"/>
-      <c r="P10" s="154"/>
-      <c r="Q10" s="154"/>
-      <c r="R10" s="154"/>
-      <c r="S10" s="154"/>
       <c r="T10" s="25"/>
     </row>
     <row r="11" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C11" s="23"/>
-      <c r="D11" s="154"/>
-      <c r="E11" s="154"/>
-      <c r="F11" s="154"/>
-      <c r="G11" s="154"/>
-      <c r="H11" s="154"/>
-      <c r="I11" s="154"/>
-      <c r="J11" s="154"/>
-      <c r="K11" s="154"/>
-      <c r="L11" s="154"/>
-      <c r="M11" s="154"/>
-      <c r="N11" s="154"/>
-      <c r="O11" s="154"/>
-      <c r="P11" s="154"/>
-      <c r="Q11" s="154"/>
-      <c r="R11" s="154"/>
-      <c r="S11" s="154"/>
       <c r="T11" s="25"/>
     </row>
     <row r="12" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C12" s="23"/>
-      <c r="D12" s="154"/>
-      <c r="E12" s="154"/>
-      <c r="F12" s="154"/>
-      <c r="G12" s="154"/>
-      <c r="H12" s="154"/>
-      <c r="I12" s="154"/>
-      <c r="J12" s="154"/>
-      <c r="K12" s="154"/>
-      <c r="L12" s="154"/>
-      <c r="M12" s="154"/>
-      <c r="N12" s="154"/>
-      <c r="O12" s="154"/>
-      <c r="P12" s="154"/>
-      <c r="Q12" s="154"/>
-      <c r="R12" s="154"/>
-      <c r="S12" s="154"/>
       <c r="T12" s="25"/>
     </row>
     <row r="13" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C13" s="23"/>
-      <c r="D13" s="154"/>
-      <c r="E13" s="154"/>
-      <c r="F13" s="154"/>
-      <c r="G13" s="154"/>
-      <c r="H13" s="154"/>
-      <c r="I13" s="154"/>
-      <c r="J13" s="154"/>
-      <c r="K13" s="154"/>
-      <c r="L13" s="154"/>
-      <c r="M13" s="154"/>
-      <c r="N13" s="154"/>
-      <c r="O13" s="154"/>
-      <c r="P13" s="154"/>
-      <c r="Q13" s="154"/>
-      <c r="R13" s="154"/>
-      <c r="S13" s="154"/>
       <c r="T13" s="25"/>
     </row>
     <row r="14" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C14" s="23"/>
-      <c r="D14" s="154"/>
-      <c r="E14" s="154"/>
-      <c r="F14" s="154"/>
-      <c r="G14" s="154"/>
-      <c r="H14" s="154"/>
-      <c r="I14" s="154"/>
-      <c r="J14" s="154"/>
-      <c r="K14" s="154"/>
-      <c r="L14" s="154"/>
-      <c r="M14" s="154"/>
-      <c r="N14" s="154"/>
-      <c r="O14" s="154"/>
-      <c r="P14" s="154"/>
-      <c r="Q14" s="154"/>
-      <c r="R14" s="154"/>
-      <c r="S14" s="154"/>
       <c r="T14" s="25"/>
     </row>
     <row r="15" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C15" s="23"/>
-      <c r="D15" s="154"/>
-      <c r="E15" s="154"/>
-      <c r="F15" s="154"/>
-      <c r="G15" s="154"/>
-      <c r="H15" s="154"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="154"/>
-      <c r="K15" s="154"/>
-      <c r="L15" s="154"/>
-      <c r="M15" s="154"/>
-      <c r="N15" s="154"/>
-      <c r="O15" s="154"/>
-      <c r="P15" s="154"/>
-      <c r="Q15" s="154"/>
-      <c r="R15" s="154"/>
-      <c r="S15" s="154"/>
       <c r="T15" s="25"/>
     </row>
     <row r="16" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C16" s="23"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="154"/>
-      <c r="L16" s="154"/>
-      <c r="M16" s="154"/>
-      <c r="N16" s="154"/>
-      <c r="O16" s="154"/>
-      <c r="P16" s="154"/>
-      <c r="Q16" s="154"/>
-      <c r="R16" s="154"/>
-      <c r="S16" s="154"/>
       <c r="T16" s="25"/>
     </row>
     <row r="17" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C17" s="23"/>
-      <c r="D17" s="154"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="154"/>
-      <c r="K17" s="154"/>
-      <c r="L17" s="154"/>
-      <c r="M17" s="154"/>
-      <c r="N17" s="154"/>
-      <c r="O17" s="154"/>
-      <c r="P17" s="154"/>
-      <c r="Q17" s="154"/>
-      <c r="R17" s="154"/>
-      <c r="S17" s="154"/>
       <c r="T17" s="25"/>
     </row>
     <row r="18" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C18" s="23"/>
-      <c r="D18" s="154"/>
-      <c r="E18" s="154"/>
-      <c r="F18" s="154"/>
-      <c r="G18" s="154"/>
-      <c r="H18" s="154"/>
-      <c r="I18" s="154"/>
-      <c r="J18" s="154"/>
-      <c r="K18" s="154"/>
-      <c r="L18" s="154"/>
-      <c r="M18" s="154"/>
-      <c r="N18" s="154"/>
-      <c r="O18" s="154"/>
-      <c r="P18" s="154"/>
-      <c r="Q18" s="154"/>
-      <c r="R18" s="154"/>
-      <c r="S18" s="154"/>
       <c r="T18" s="25"/>
     </row>
     <row r="19" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C19" s="23"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="154"/>
-      <c r="H19" s="154"/>
-      <c r="I19" s="154"/>
-      <c r="J19" s="154"/>
-      <c r="K19" s="154"/>
-      <c r="L19" s="154"/>
-      <c r="M19" s="154"/>
-      <c r="N19" s="154"/>
-      <c r="O19" s="154"/>
-      <c r="P19" s="154"/>
-      <c r="Q19" s="154"/>
-      <c r="R19" s="154"/>
-      <c r="S19" s="154"/>
       <c r="T19" s="25"/>
     </row>
     <row r="20" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C20" s="23"/>
-      <c r="D20" s="154"/>
-      <c r="E20" s="154"/>
-      <c r="F20" s="154"/>
-      <c r="G20" s="154"/>
-      <c r="H20" s="154"/>
-      <c r="I20" s="154"/>
-      <c r="J20" s="154"/>
-      <c r="K20" s="154"/>
-      <c r="L20" s="154"/>
-      <c r="M20" s="154"/>
-      <c r="N20" s="154"/>
-      <c r="O20" s="154"/>
-      <c r="P20" s="154"/>
-      <c r="Q20" s="154"/>
-      <c r="R20" s="154"/>
-      <c r="S20" s="154"/>
       <c r="T20" s="25"/>
     </row>
     <row r="21" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C21" s="23"/>
-      <c r="D21" s="154"/>
-      <c r="E21" s="154"/>
-      <c r="F21" s="154"/>
-      <c r="G21" s="154"/>
-      <c r="H21" s="154"/>
-      <c r="I21" s="154"/>
-      <c r="J21" s="154"/>
-      <c r="K21" s="154"/>
-      <c r="L21" s="154"/>
-      <c r="M21" s="154"/>
-      <c r="N21" s="154"/>
-      <c r="O21" s="154"/>
-      <c r="P21" s="154"/>
-      <c r="Q21" s="154"/>
-      <c r="R21" s="154"/>
-      <c r="S21" s="154"/>
       <c r="T21" s="25"/>
     </row>
     <row r="22" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C22" s="23"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="154"/>
-      <c r="F22" s="154"/>
-      <c r="G22" s="154"/>
-      <c r="H22" s="154"/>
-      <c r="I22" s="154"/>
-      <c r="J22" s="154"/>
-      <c r="K22" s="154"/>
-      <c r="L22" s="154"/>
-      <c r="M22" s="154"/>
-      <c r="N22" s="154"/>
-      <c r="O22" s="154"/>
-      <c r="P22" s="154"/>
-      <c r="Q22" s="154"/>
-      <c r="R22" s="154"/>
-      <c r="S22" s="154"/>
       <c r="T22" s="25"/>
     </row>
     <row r="23" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C23" s="23"/>
-      <c r="D23" s="154"/>
-      <c r="E23" s="154"/>
-      <c r="F23" s="154"/>
-      <c r="G23" s="154"/>
-      <c r="H23" s="154"/>
-      <c r="I23" s="154"/>
-      <c r="J23" s="154"/>
-      <c r="K23" s="154"/>
-      <c r="L23" s="154"/>
-      <c r="M23" s="154"/>
-      <c r="N23" s="154"/>
-      <c r="O23" s="154"/>
-      <c r="P23" s="154"/>
-      <c r="Q23" s="154"/>
-      <c r="R23" s="154"/>
-      <c r="S23" s="154"/>
       <c r="T23" s="25"/>
     </row>
     <row r="24" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C24" s="23"/>
-      <c r="D24" s="154"/>
-      <c r="E24" s="154"/>
-      <c r="F24" s="154"/>
-      <c r="G24" s="154"/>
-      <c r="H24" s="154"/>
-      <c r="I24" s="154"/>
-      <c r="J24" s="154"/>
-      <c r="K24" s="154"/>
-      <c r="L24" s="154"/>
-      <c r="M24" s="154"/>
-      <c r="N24" s="154"/>
-      <c r="O24" s="154"/>
-      <c r="P24" s="154"/>
-      <c r="Q24" s="154"/>
-      <c r="R24" s="154"/>
-      <c r="S24" s="154"/>
       <c r="T24" s="25"/>
     </row>
     <row r="25" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C25" s="23"/>
-      <c r="D25" s="154"/>
-      <c r="E25" s="154"/>
-      <c r="F25" s="154"/>
-      <c r="G25" s="154"/>
-      <c r="H25" s="154"/>
-      <c r="I25" s="154"/>
-      <c r="J25" s="154"/>
-      <c r="K25" s="154"/>
-      <c r="L25" s="154"/>
-      <c r="M25" s="154"/>
-      <c r="N25" s="154"/>
-      <c r="O25" s="154"/>
-      <c r="P25" s="154"/>
-      <c r="Q25" s="154"/>
-      <c r="R25" s="154"/>
-      <c r="S25" s="154"/>
       <c r="T25" s="25"/>
     </row>
     <row r="26" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C26" s="23"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="154"/>
-      <c r="I26" s="154"/>
-      <c r="J26" s="154"/>
-      <c r="K26" s="154"/>
-      <c r="L26" s="154"/>
-      <c r="M26" s="154"/>
-      <c r="N26" s="154"/>
-      <c r="O26" s="154"/>
-      <c r="P26" s="154"/>
-      <c r="Q26" s="154"/>
-      <c r="R26" s="154"/>
-      <c r="S26" s="154"/>
       <c r="T26" s="25"/>
     </row>
     <row r="27" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C27" s="23"/>
-      <c r="D27" s="154"/>
-      <c r="E27" s="154"/>
-      <c r="F27" s="154"/>
-      <c r="G27" s="154"/>
-      <c r="H27" s="154"/>
-      <c r="I27" s="154"/>
-      <c r="J27" s="154"/>
-      <c r="K27" s="154"/>
-      <c r="L27" s="154"/>
-      <c r="M27" s="154"/>
-      <c r="N27" s="154"/>
-      <c r="O27" s="154"/>
-      <c r="P27" s="154"/>
-      <c r="Q27" s="154"/>
-      <c r="R27" s="154"/>
-      <c r="S27" s="154"/>
       <c r="T27" s="25"/>
     </row>
     <row r="28" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C28" s="23"/>
-      <c r="D28" s="154"/>
-      <c r="E28" s="154"/>
-      <c r="F28" s="154"/>
-      <c r="G28" s="154"/>
-      <c r="H28" s="154"/>
-      <c r="I28" s="154"/>
-      <c r="J28" s="154"/>
-      <c r="K28" s="154"/>
-      <c r="L28" s="154"/>
-      <c r="M28" s="154"/>
-      <c r="N28" s="154"/>
-      <c r="O28" s="154"/>
-      <c r="P28" s="154"/>
-      <c r="Q28" s="154"/>
-      <c r="R28" s="154"/>
-      <c r="S28" s="154"/>
       <c r="T28" s="25"/>
     </row>
     <row r="29" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C29" s="23"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="154"/>
-      <c r="H29" s="154"/>
-      <c r="I29" s="154"/>
-      <c r="J29" s="154"/>
-      <c r="K29" s="154"/>
-      <c r="L29" s="154"/>
-      <c r="M29" s="154"/>
-      <c r="N29" s="154"/>
-      <c r="O29" s="154"/>
-      <c r="P29" s="154"/>
-      <c r="Q29" s="154"/>
-      <c r="R29" s="154"/>
-      <c r="S29" s="154"/>
       <c r="T29" s="25"/>
     </row>
     <row r="30" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C30" s="23"/>
-      <c r="D30" s="154"/>
-      <c r="E30" s="154"/>
-      <c r="F30" s="154"/>
-      <c r="G30" s="154"/>
-      <c r="H30" s="154"/>
-      <c r="I30" s="154"/>
-      <c r="J30" s="154"/>
-      <c r="K30" s="154"/>
-      <c r="L30" s="154"/>
-      <c r="M30" s="154"/>
-      <c r="N30" s="154"/>
-      <c r="O30" s="154"/>
-      <c r="P30" s="154"/>
-      <c r="Q30" s="154"/>
-      <c r="R30" s="154"/>
-      <c r="S30" s="154"/>
       <c r="T30" s="25"/>
     </row>
     <row r="31" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">

--- a/logic&wireframe.xlsx
+++ b/logic&wireframe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leget\.vscode\Project1-Game_On!\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B9243F-0420-49BD-9F62-8C995BE97B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2E2F55-5160-4A8D-94F0-3381B1952C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16466" yWindow="9154" windowWidth="16663" windowHeight="8743" firstSheet="8" activeTab="9" xr2:uid="{7735C213-E26F-4731-B858-5CCC1FD62CA9}"/>
   </bookViews>
@@ -2169,16 +2169,25 @@
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2190,22 +2199,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3232,7 +3232,7 @@
   </sheetPr>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -3274,10 +3274,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="143">
+      <c r="A2" s="140">
         <v>1</v>
       </c>
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="150" t="s">
         <v>172</v>
       </c>
       <c r="C2" s="50" t="s">
@@ -3301,8 +3301,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="143"/>
-      <c r="B3" s="141"/>
+      <c r="A3" s="140"/>
+      <c r="B3" s="151"/>
       <c r="C3" s="41" t="s">
         <v>185</v>
       </c>
@@ -3326,8 +3326,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="143"/>
-      <c r="B4" s="142"/>
+      <c r="A4" s="140"/>
+      <c r="B4" s="152"/>
       <c r="C4" s="86" t="s">
         <v>219</v>
       </c>
@@ -3351,10 +3351,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="143">
+      <c r="A5" s="140">
         <v>2</v>
       </c>
-      <c r="B5" s="144" t="s">
+      <c r="B5" s="147" t="s">
         <v>173</v>
       </c>
       <c r="C5" s="45" t="s">
@@ -3380,8 +3380,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" s="143"/>
-      <c r="B6" s="145"/>
+      <c r="A6" s="140"/>
+      <c r="B6" s="148"/>
       <c r="C6" s="43" t="s">
         <v>232</v>
       </c>
@@ -3405,8 +3405,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="143"/>
-      <c r="B7" s="146"/>
+      <c r="A7" s="140"/>
+      <c r="B7" s="149"/>
       <c r="C7" s="48" t="s">
         <v>194</v>
       </c>
@@ -3428,10 +3428,10 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="143">
+      <c r="A8" s="140">
         <v>3</v>
       </c>
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="150" t="s">
         <v>174</v>
       </c>
       <c r="C8" s="95" t="s">
@@ -3455,8 +3455,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="143"/>
-      <c r="B9" s="141"/>
+      <c r="A9" s="140"/>
+      <c r="B9" s="151"/>
       <c r="C9" s="41" t="s">
         <v>196</v>
       </c>
@@ -3478,8 +3478,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="143"/>
-      <c r="B10" s="142"/>
+      <c r="A10" s="140"/>
+      <c r="B10" s="152"/>
       <c r="C10" s="53" t="s">
         <v>234</v>
       </c>
@@ -3503,10 +3503,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="143">
+      <c r="A11" s="140">
         <v>4</v>
       </c>
-      <c r="B11" s="144" t="s">
+      <c r="B11" s="147" t="s">
         <v>175</v>
       </c>
       <c r="C11" s="95" t="s">
@@ -3532,8 +3532,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="143"/>
-      <c r="B12" s="145"/>
+      <c r="A12" s="140"/>
+      <c r="B12" s="148"/>
       <c r="C12" s="44" t="s">
         <v>238</v>
       </c>
@@ -3557,8 +3557,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="143"/>
-      <c r="B13" s="146"/>
+      <c r="A13" s="140"/>
+      <c r="B13" s="149"/>
       <c r="C13" s="48" t="s">
         <v>239</v>
       </c>
@@ -3580,10 +3580,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="143">
+      <c r="A14" s="140">
         <v>5</v>
       </c>
-      <c r="B14" s="147" t="s">
+      <c r="B14" s="146" t="s">
         <v>176</v>
       </c>
       <c r="C14" s="55" t="s">
@@ -3598,8 +3598,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="143"/>
-      <c r="B15" s="147"/>
+      <c r="A15" s="140"/>
+      <c r="B15" s="146"/>
       <c r="C15" s="41" t="s">
         <v>203</v>
       </c>
@@ -3614,8 +3614,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="143"/>
-      <c r="B16" s="148"/>
+      <c r="A16" s="140"/>
+      <c r="B16" s="144"/>
       <c r="C16" s="53" t="s">
         <v>209</v>
       </c>
@@ -3630,10 +3630,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="143">
+      <c r="A17" s="140">
         <v>6</v>
       </c>
-      <c r="B17" s="149" t="s">
+      <c r="B17" s="141" t="s">
         <v>177</v>
       </c>
       <c r="C17" s="45" t="s">
@@ -3650,8 +3650,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="87" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="143"/>
-      <c r="B18" s="150"/>
+      <c r="A18" s="140"/>
+      <c r="B18" s="142"/>
       <c r="C18" s="48" t="s">
         <v>249</v>
       </c>
@@ -3664,10 +3664,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="143">
+      <c r="A19" s="140">
         <v>7</v>
       </c>
-      <c r="B19" s="151" t="s">
+      <c r="B19" s="143" t="s">
         <v>178</v>
       </c>
       <c r="C19" s="50" t="s">
@@ -3684,8 +3684,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="143"/>
-      <c r="B20" s="148"/>
+      <c r="A20" s="140"/>
+      <c r="B20" s="144"/>
       <c r="C20" s="42" t="s">
         <v>252</v>
       </c>
@@ -3698,10 +3698,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="143">
+      <c r="A21" s="140">
         <v>8</v>
       </c>
-      <c r="B21" s="149" t="s">
+      <c r="B21" s="141" t="s">
         <v>179</v>
       </c>
       <c r="C21" s="45" t="s">
@@ -3718,8 +3718,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="143"/>
-      <c r="B22" s="152"/>
+      <c r="A22" s="140"/>
+      <c r="B22" s="145"/>
       <c r="C22" s="44" t="s">
         <v>256</v>
       </c>
@@ -3730,8 +3730,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="143"/>
-      <c r="B23" s="150"/>
+      <c r="A23" s="140"/>
+      <c r="B23" s="142"/>
       <c r="C23" s="48" t="s">
         <v>257</v>
       </c>
@@ -3742,10 +3742,10 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="143">
+      <c r="A24" s="140">
         <v>9</v>
       </c>
-      <c r="B24" s="151" t="s">
+      <c r="B24" s="143" t="s">
         <v>180</v>
       </c>
       <c r="C24" s="50" t="s">
@@ -3762,8 +3762,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="143"/>
-      <c r="B25" s="147"/>
+      <c r="A25" s="140"/>
+      <c r="B25" s="146"/>
       <c r="C25" s="41" t="s">
         <v>260</v>
       </c>
@@ -3776,8 +3776,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="143"/>
-      <c r="B26" s="148"/>
+      <c r="A26" s="140"/>
+      <c r="B26" s="144"/>
       <c r="C26" s="53" t="s">
         <v>261</v>
       </c>
@@ -3790,10 +3790,10 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="143">
+      <c r="A27" s="140">
         <v>10</v>
       </c>
-      <c r="B27" s="149" t="s">
+      <c r="B27" s="141" t="s">
         <v>267</v>
       </c>
       <c r="C27" s="45" t="s">
@@ -3810,8 +3810,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="143"/>
-      <c r="B28" s="150"/>
+      <c r="A28" s="140"/>
+      <c r="B28" s="142"/>
       <c r="C28" s="48" t="s">
         <v>269</v>
       </c>
@@ -3828,6 +3828,18 @@
   </sheetData>
   <autoFilter ref="A1:I28" xr:uid="{F795A1BF-E94F-412D-BBCC-0F81FBDBA90C}"/>
   <mergeCells count="20">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="A19:A20"/>
@@ -3836,18 +3848,6 @@
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="B24:B26"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
